--- a/data/13-14 north & south bl30 - building utilities report Student Data.xlsx
+++ b/data/13-14 north & south bl30 - building utilities report Student Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Pururva/Desktop/rccapp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2AF081B8-1B1A-7B4E-8DAA-F7BDEF793D06}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9BBE7D65-A2F7-A54B-BD38-8CECDD979D7A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15600" yWindow="0" windowWidth="10000" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="North Campus 13-14" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2626" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2630" uniqueCount="324">
   <si>
     <t>Use</t>
   </si>
@@ -1857,12 +1857,12 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1871,7 +1871,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1879,9 +1882,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -2333,8 +2333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G2605"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="B1137" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C1158" sqref="C1158:F1158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="16"/>
@@ -2434,7 +2434,7 @@
       <c r="F14" s="17">
         <v>7.479905409214771E-2</v>
       </c>
-      <c r="G14" s="85"/>
+      <c r="G14" s="87"/>
     </row>
     <row r="15" spans="1:7">
       <c r="G15" s="86"/>
@@ -2710,7 +2710,7 @@
       <c r="F41" s="17">
         <v>0.57103011972274731</v>
       </c>
-      <c r="G41" s="85"/>
+      <c r="G41" s="87"/>
     </row>
     <row r="42" spans="1:7">
       <c r="G42" s="86"/>
@@ -2994,7 +2994,7 @@
       <c r="F72" s="17">
         <v>7.4799087926661845E-2</v>
       </c>
-      <c r="G72" s="85"/>
+      <c r="G72" s="87"/>
     </row>
     <row r="73" spans="1:7">
       <c r="G73" s="86"/>
@@ -3595,7 +3595,7 @@
       <c r="F132" s="17">
         <v>7.4799051871476938E-2</v>
       </c>
-      <c r="G132" s="85"/>
+      <c r="G132" s="87"/>
     </row>
     <row r="133" spans="1:7">
       <c r="G133" s="86"/>
@@ -3915,7 +3915,7 @@
       <c r="F162" s="17">
         <v>7.4799050886220686E-2</v>
       </c>
-      <c r="G162" s="85"/>
+      <c r="G162" s="87"/>
     </row>
     <row r="163" spans="1:7">
       <c r="G163" s="86"/>
@@ -4230,7 +4230,7 @@
       </c>
     </row>
     <row r="194" spans="2:7">
-      <c r="G194" s="87" t="s">
+      <c r="G194" s="91" t="s">
         <v>185</v>
       </c>
     </row>
@@ -4542,7 +4542,7 @@
       <c r="F224" s="17">
         <v>7.4799049921295255E-2</v>
       </c>
-      <c r="G224" s="88" t="s">
+      <c r="G224" s="85" t="s">
         <v>312</v>
       </c>
     </row>
@@ -4818,7 +4818,7 @@
       <c r="F251" s="17">
         <v>0.57103076923076923</v>
       </c>
-      <c r="G251" s="85"/>
+      <c r="G251" s="87"/>
     </row>
     <row r="252" spans="1:7">
       <c r="G252" s="86"/>
@@ -5098,7 +5098,7 @@
       <c r="F282" s="17">
         <v>7.4799052090715801E-2</v>
       </c>
-      <c r="G282" s="88" t="s">
+      <c r="G282" s="85" t="s">
         <v>312</v>
       </c>
     </row>
@@ -5377,7 +5377,7 @@
       <c r="F309" s="17">
         <v>0.57103942652329753</v>
       </c>
-      <c r="G309" s="88"/>
+      <c r="G309" s="85"/>
     </row>
     <row r="310" spans="1:7">
       <c r="G310" s="86"/>
@@ -5657,7 +5657,7 @@
       <c r="F340" s="17">
         <v>7.4799051792624485E-2</v>
       </c>
-      <c r="G340" s="88"/>
+      <c r="G340" s="85"/>
     </row>
     <row r="341" spans="1:7">
       <c r="G341" s="86"/>
@@ -5934,7 +5934,7 @@
       <c r="F367" s="17">
         <v>0.57103007427249486</v>
       </c>
-      <c r="G367" s="88" t="s">
+      <c r="G367" s="85" t="s">
         <v>186</v>
       </c>
     </row>
@@ -6216,7 +6216,7 @@
       <c r="F398" s="17">
         <v>7.4799052270327335E-2</v>
       </c>
-      <c r="G398" s="85"/>
+      <c r="G398" s="87"/>
     </row>
     <row r="399" spans="1:7">
       <c r="G399" s="86"/>
@@ -6493,7 +6493,7 @@
       <c r="F425" s="17">
         <v>0</v>
       </c>
-      <c r="G425" s="85"/>
+      <c r="G425" s="87"/>
     </row>
     <row r="426" spans="1:7">
       <c r="G426" s="86"/>
@@ -6773,7 +6773,7 @@
       <c r="F456" s="17">
         <v>7.4799051317614426E-2</v>
       </c>
-      <c r="G456" s="85"/>
+      <c r="G456" s="87"/>
     </row>
     <row r="457" spans="1:7">
       <c r="G457" s="86"/>
@@ -7050,7 +7050,7 @@
       <c r="F483" s="17">
         <v>0.57102931034482762</v>
       </c>
-      <c r="G483" s="85"/>
+      <c r="G483" s="87"/>
     </row>
     <row r="484" spans="1:7">
       <c r="G484" s="86"/>
@@ -7330,7 +7330,7 @@
       <c r="F514" s="17">
         <v>7.4799051719054072E-2</v>
       </c>
-      <c r="G514" s="87" t="s">
+      <c r="G514" s="91" t="s">
         <v>187</v>
       </c>
     </row>
@@ -7642,7 +7642,7 @@
       <c r="F545" s="17">
         <v>7.4799080882352945E-2</v>
       </c>
-      <c r="G545" s="88" t="s">
+      <c r="G545" s="85" t="s">
         <v>313</v>
       </c>
     </row>
@@ -7921,7 +7921,7 @@
       <c r="F572" s="17">
         <v>0.57103008849557524</v>
       </c>
-      <c r="G572" s="88" t="s">
+      <c r="G572" s="85" t="s">
         <v>314</v>
       </c>
     </row>
@@ -8203,7 +8203,7 @@
       <c r="F603" s="17">
         <v>7.479905082500965E-2</v>
       </c>
-      <c r="G603" s="88" t="s">
+      <c r="G603" s="85" t="s">
         <v>189</v>
       </c>
     </row>
@@ -8518,7 +8518,7 @@
       <c r="F634" s="17">
         <v>7.4799015720631676E-2</v>
       </c>
-      <c r="G634" s="88"/>
+      <c r="G634" s="85"/>
     </row>
     <row r="635" spans="1:7">
       <c r="G635" s="86"/>
@@ -8795,7 +8795,7 @@
       <c r="F661" s="17">
         <v>0.5710301272756565</v>
       </c>
-      <c r="G661" s="88" t="s">
+      <c r="G661" s="85" t="s">
         <v>190</v>
       </c>
     </row>
@@ -9307,7 +9307,7 @@
       <c r="F719" s="17">
         <v>0.57102987421383644</v>
       </c>
-      <c r="G719" s="87" t="s">
+      <c r="G719" s="91" t="s">
         <v>191</v>
       </c>
     </row>
@@ -9817,7 +9817,7 @@
       <c r="F781" s="17">
         <v>7.4799051881514186E-2</v>
       </c>
-      <c r="G781" s="88" t="s">
+      <c r="G781" s="85" t="s">
         <v>192</v>
       </c>
     </row>
@@ -10096,7 +10096,7 @@
       <c r="F808" s="17">
         <v>0.57103015873015872</v>
       </c>
-      <c r="G808" s="88" t="s">
+      <c r="G808" s="85" t="s">
         <v>192</v>
       </c>
     </row>
@@ -10378,7 +10378,7 @@
       <c r="F839" s="17">
         <v>7.4799148936170207E-2</v>
       </c>
-      <c r="G839" s="85"/>
+      <c r="G839" s="87"/>
     </row>
     <row r="840" spans="1:7">
       <c r="G840" s="86"/>
@@ -10655,7 +10655,7 @@
       <c r="F866" s="17">
         <v>0.57103043478260873</v>
       </c>
-      <c r="G866" s="85"/>
+      <c r="G866" s="87"/>
     </row>
     <row r="867" spans="2:7">
       <c r="G867" s="86"/>
@@ -10935,7 +10935,7 @@
       <c r="F897" s="17">
         <v>7.4799051336260636E-2</v>
       </c>
-      <c r="G897" s="85"/>
+      <c r="G897" s="87"/>
     </row>
     <row r="898" spans="2:7">
       <c r="G898" s="86"/>
@@ -11212,7 +11212,7 @@
       <c r="F924" s="17">
         <v>0.57103000000000004</v>
       </c>
-      <c r="G924" s="88" t="s">
+      <c r="G924" s="85" t="s">
         <v>193</v>
       </c>
     </row>
@@ -11496,7 +11496,7 @@
       <c r="F955" s="17">
         <v>7.4799051528494837E-2</v>
       </c>
-      <c r="G955" s="88"/>
+      <c r="G955" s="85"/>
     </row>
     <row r="956" spans="1:7">
       <c r="G956" s="86"/>
@@ -11773,7 +11773,7 @@
       <c r="F982" s="17">
         <v>0.57103019100431296</v>
       </c>
-      <c r="G982" s="88"/>
+      <c r="G982" s="85"/>
     </row>
     <row r="983" spans="1:7">
       <c r="G983" s="86"/>
@@ -12053,7 +12053,7 @@
       <c r="F1013" s="17">
         <v>7.4799052618010994E-2</v>
       </c>
-      <c r="G1013" s="88"/>
+      <c r="G1013" s="85"/>
     </row>
     <row r="1014" spans="1:7">
       <c r="G1014" s="86"/>
@@ -12330,7 +12330,7 @@
       <c r="F1040" s="17">
         <v>0.57103119032463401</v>
       </c>
-      <c r="G1040" s="88" t="s">
+      <c r="G1040" s="85" t="s">
         <v>193</v>
       </c>
     </row>
@@ -12613,7 +12613,7 @@
       <c r="F1071" s="17">
         <v>7.479905165074259E-2</v>
       </c>
-      <c r="G1071" s="88"/>
+      <c r="G1071" s="85"/>
     </row>
     <row r="1072" spans="1:7">
       <c r="G1072" s="86"/>
@@ -12926,7 +12926,7 @@
       <c r="F1102" s="17">
         <v>7.479905177733169E-2</v>
       </c>
-      <c r="G1102" s="88"/>
+      <c r="G1102" s="85"/>
     </row>
     <row r="1103" spans="1:7">
       <c r="G1103" s="86"/>
@@ -13203,7 +13203,7 @@
       <c r="F1129" s="17">
         <v>0.57103011235955059</v>
       </c>
-      <c r="G1129" s="88" t="s">
+      <c r="G1129" s="85" t="s">
         <v>194</v>
       </c>
     </row>
@@ -13460,6 +13460,20 @@
         <v>92</v>
       </c>
     </row>
+    <row r="1158" spans="1:7">
+      <c r="C1158" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1158" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1158" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1158" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
     <row r="1159" spans="1:7">
       <c r="A1159" s="13" t="s">
         <v>7</v>
@@ -13489,7 +13503,7 @@
       </c>
     </row>
     <row r="1161" spans="1:7">
-      <c r="G1161" s="88" t="s">
+      <c r="G1161" s="85" t="s">
         <v>195</v>
       </c>
     </row>
@@ -13766,7 +13780,7 @@
       <c r="F1187" s="17">
         <v>0.57102689486552571</v>
       </c>
-      <c r="G1187" s="88" t="s">
+      <c r="G1187" s="85" t="s">
         <v>195</v>
       </c>
     </row>
@@ -14050,7 +14064,7 @@
       <c r="F1218" s="17">
         <v>7.4799052162506957E-2</v>
       </c>
-      <c r="G1218" s="88" t="s">
+      <c r="G1218" s="85" t="s">
         <v>196</v>
       </c>
     </row>
@@ -14329,7 +14343,7 @@
       <c r="F1245" s="17">
         <v>0.57103010526315789</v>
       </c>
-      <c r="G1245" s="88" t="s">
+      <c r="G1245" s="85" t="s">
         <v>196</v>
       </c>
     </row>
@@ -14613,7 +14627,7 @@
       <c r="F1276" s="17">
         <v>7.4799053988602524E-2</v>
       </c>
-      <c r="G1276" s="88"/>
+      <c r="G1276" s="85"/>
     </row>
     <row r="1277" spans="1:7">
       <c r="G1277" s="86"/>
@@ -14890,7 +14904,7 @@
       <c r="F1303" s="17">
         <v>0.57103012772351613</v>
       </c>
-      <c r="G1303" s="88" t="s">
+      <c r="G1303" s="85" t="s">
         <v>197</v>
       </c>
     </row>
@@ -15169,7 +15183,7 @@
       <c r="F1334" s="17">
         <v>7.4798908906368936E-2</v>
       </c>
-      <c r="G1334" s="88" t="s">
+      <c r="G1334" s="85" t="s">
         <v>315</v>
       </c>
     </row>
@@ -15416,7 +15430,7 @@
       <c r="F1361" s="17">
         <v>18.399999999999999</v>
       </c>
-      <c r="G1361" s="88" t="s">
+      <c r="G1361" s="85" t="s">
         <v>316</v>
       </c>
     </row>
@@ -15699,7 +15713,7 @@
       <c r="F1392" s="17">
         <v>7.4799062353492735E-2</v>
       </c>
-      <c r="G1392" s="88" t="s">
+      <c r="G1392" s="85" t="s">
         <v>199</v>
       </c>
     </row>
@@ -16011,7 +16025,7 @@
       <c r="F1423" s="17">
         <v>7.4799024050191704E-2</v>
       </c>
-      <c r="G1423" s="88"/>
+      <c r="G1423" s="85"/>
     </row>
     <row r="1424" spans="1:7">
       <c r="G1424" s="86"/>
@@ -16255,7 +16269,7 @@
       <c r="F1450" s="17">
         <v>0.57103000000000004</v>
       </c>
-      <c r="G1450" s="88" t="s">
+      <c r="G1450" s="85" t="s">
         <v>200</v>
       </c>
     </row>
@@ -16536,7 +16550,7 @@
       <c r="F1481" s="17">
         <v>7.479899716507081E-2</v>
       </c>
-      <c r="G1481" s="88"/>
+      <c r="G1481" s="85"/>
     </row>
     <row r="1482" spans="1:7">
       <c r="G1482" s="86"/>
@@ -16816,7 +16830,7 @@
       <c r="F1512" s="17">
         <v>7.4799052132701424E-2</v>
       </c>
-      <c r="G1512" s="88" t="s">
+      <c r="G1512" s="85" t="s">
         <v>201</v>
       </c>
     </row>
@@ -17095,7 +17109,7 @@
       <c r="F1539" s="17">
         <v>0.57099999999999995</v>
       </c>
-      <c r="G1539" s="88" t="s">
+      <c r="G1539" s="85" t="s">
         <v>201</v>
       </c>
     </row>
@@ -17378,7 +17392,7 @@
       <c r="F1570" s="17">
         <v>7.4799052359147911E-2</v>
       </c>
-      <c r="G1570" s="88" t="s">
+      <c r="G1570" s="85" t="s">
         <v>317</v>
       </c>
     </row>
@@ -17693,7 +17707,7 @@
       <c r="F1601" s="17">
         <v>7.4799051537356664E-2</v>
       </c>
-      <c r="G1601" s="88" t="s">
+      <c r="G1601" s="85" t="s">
         <v>317</v>
       </c>
     </row>
@@ -18008,7 +18022,7 @@
       <c r="F1632" s="17">
         <v>7.4799056285810586E-2</v>
       </c>
-      <c r="G1632" s="88"/>
+      <c r="G1632" s="85"/>
     </row>
     <row r="1633" spans="2:7">
       <c r="G1633" s="86"/>
@@ -18285,7 +18299,7 @@
       <c r="F1659" s="17">
         <v>0.57103076923076923</v>
       </c>
-      <c r="G1659" s="88" t="s">
+      <c r="G1659" s="85" t="s">
         <v>203</v>
       </c>
     </row>
@@ -18567,10 +18581,10 @@
       <c r="F1690" s="17">
         <v>7.4799053563206624E-2</v>
       </c>
-      <c r="G1690" s="88"/>
+      <c r="G1690" s="85"/>
     </row>
     <row r="1691" spans="1:7">
-      <c r="G1691" s="91"/>
+      <c r="G1691" s="88"/>
     </row>
     <row r="1692" spans="1:7">
       <c r="B1692" s="14" t="s">
@@ -18588,10 +18602,10 @@
       <c r="F1692" s="17">
         <v>6.0785767309064952E-2</v>
       </c>
-      <c r="G1692" s="91"/>
+      <c r="G1692" s="88"/>
     </row>
     <row r="1693" spans="1:7">
-      <c r="G1693" s="91"/>
+      <c r="G1693" s="88"/>
     </row>
     <row r="1694" spans="1:7">
       <c r="B1694" s="14" t="s">
@@ -18609,10 +18623,10 @@
       <c r="F1694" s="17">
         <v>6.4932540590953408E-2</v>
       </c>
-      <c r="G1694" s="91"/>
+      <c r="G1694" s="88"/>
     </row>
     <row r="1695" spans="1:7">
-      <c r="G1695" s="91"/>
+      <c r="G1695" s="88"/>
     </row>
     <row r="1696" spans="1:7">
       <c r="B1696" s="14" t="s">
@@ -18630,10 +18644,10 @@
       <c r="F1696" s="17">
         <v>6.0086192144569422E-2</v>
       </c>
-      <c r="G1696" s="91"/>
+      <c r="G1696" s="88"/>
     </row>
     <row r="1697" spans="2:7">
-      <c r="G1697" s="91"/>
+      <c r="G1697" s="88"/>
     </row>
     <row r="1698" spans="2:7">
       <c r="B1698" s="14" t="s">
@@ -18651,10 +18665,10 @@
       <c r="F1698" s="17">
         <v>7.1222694008845996E-2</v>
       </c>
-      <c r="G1698" s="91"/>
+      <c r="G1698" s="88"/>
     </row>
     <row r="1699" spans="2:7">
-      <c r="G1699" s="91"/>
+      <c r="G1699" s="88"/>
     </row>
     <row r="1700" spans="2:7">
       <c r="B1700" s="14" t="s">
@@ -18672,10 +18686,10 @@
       <c r="F1700" s="17">
         <v>6.7834772575992894E-2</v>
       </c>
-      <c r="G1700" s="91"/>
+      <c r="G1700" s="88"/>
     </row>
     <row r="1701" spans="2:7">
-      <c r="G1701" s="91"/>
+      <c r="G1701" s="88"/>
     </row>
     <row r="1702" spans="2:7">
       <c r="B1702" s="14" t="s">
@@ -18693,10 +18707,10 @@
       <c r="F1702" s="17">
         <v>0.12358517385372307</v>
       </c>
-      <c r="G1702" s="91"/>
+      <c r="G1702" s="88"/>
     </row>
     <row r="1703" spans="2:7">
-      <c r="G1703" s="91"/>
+      <c r="G1703" s="88"/>
     </row>
     <row r="1704" spans="2:7">
       <c r="B1704" s="14" t="s">
@@ -18714,10 +18728,10 @@
       <c r="F1704" s="17">
         <v>9.4351085418603708E-2</v>
       </c>
-      <c r="G1704" s="91"/>
+      <c r="G1704" s="88"/>
     </row>
     <row r="1705" spans="2:7">
-      <c r="G1705" s="91"/>
+      <c r="G1705" s="88"/>
     </row>
     <row r="1706" spans="2:7">
       <c r="B1706" s="14" t="s">
@@ -18735,10 +18749,10 @@
       <c r="F1706" s="17">
         <v>9.3328911299743023E-2</v>
       </c>
-      <c r="G1706" s="91"/>
+      <c r="G1706" s="88"/>
     </row>
     <row r="1707" spans="2:7">
-      <c r="G1707" s="91"/>
+      <c r="G1707" s="88"/>
     </row>
     <row r="1708" spans="2:7">
       <c r="B1708" s="14" t="s">
@@ -18756,10 +18770,10 @@
       <c r="F1708" s="17">
         <v>7.4447694064826112E-2</v>
       </c>
-      <c r="G1708" s="91"/>
+      <c r="G1708" s="88"/>
     </row>
     <row r="1709" spans="2:7">
-      <c r="G1709" s="91"/>
+      <c r="G1709" s="88"/>
     </row>
     <row r="1710" spans="2:7">
       <c r="B1710" s="14" t="s">
@@ -18777,10 +18791,10 @@
       <c r="F1710" s="17">
         <v>8.8255304615121877E-2</v>
       </c>
-      <c r="G1710" s="91"/>
+      <c r="G1710" s="88"/>
     </row>
     <row r="1711" spans="2:7">
-      <c r="G1711" s="91"/>
+      <c r="G1711" s="88"/>
     </row>
     <row r="1712" spans="2:7">
       <c r="B1712" s="14" t="s">
@@ -18798,10 +18812,10 @@
       <c r="F1712" s="17">
         <v>7.9587984354628424E-2</v>
       </c>
-      <c r="G1712" s="91"/>
+      <c r="G1712" s="88"/>
     </row>
     <row r="1713" spans="1:7">
-      <c r="G1713" s="91"/>
+      <c r="G1713" s="88"/>
     </row>
     <row r="1714" spans="1:7">
       <c r="B1714" s="18"/>
@@ -18818,7 +18832,7 @@
         <f>E1714/C1714</f>
         <v>7.9654139853377243E-2</v>
       </c>
-      <c r="G1714" s="91"/>
+      <c r="G1714" s="88"/>
     </row>
     <row r="1715" spans="1:7">
       <c r="A1715" s="13" t="s">
@@ -18844,7 +18858,7 @@
       <c r="F1717" s="17">
         <v>0</v>
       </c>
-      <c r="G1717" s="88" t="s">
+      <c r="G1717" s="85" t="s">
         <v>204</v>
       </c>
     </row>
@@ -19126,7 +19140,7 @@
       <c r="F1748" s="17">
         <v>7.4799046793760829E-2</v>
       </c>
-      <c r="G1748" s="88" t="s">
+      <c r="G1748" s="85" t="s">
         <v>318</v>
       </c>
     </row>
@@ -19406,7 +19420,7 @@
       <c r="F1775" s="17">
         <v>0.57103000000000004</v>
       </c>
-      <c r="G1775" s="88"/>
+      <c r="G1775" s="85"/>
     </row>
     <row r="1776" spans="1:7">
       <c r="G1776" s="86"/>
@@ -19686,7 +19700,7 @@
       <c r="F1806" s="17">
         <v>7.4799052967617255E-2</v>
       </c>
-      <c r="G1806" s="88"/>
+      <c r="G1806" s="85"/>
     </row>
     <row r="1807" spans="1:7">
       <c r="G1807" s="86"/>
@@ -19963,7 +19977,7 @@
       <c r="F1833" s="17">
         <v>0.57103012190992208</v>
       </c>
-      <c r="G1833" s="88"/>
+      <c r="G1833" s="85"/>
     </row>
     <row r="1834" spans="1:7">
       <c r="G1834" s="86"/>
@@ -20243,7 +20257,7 @@
       <c r="F1864" s="17">
         <v>7.4799051753094065E-2</v>
       </c>
-      <c r="G1864" s="88"/>
+      <c r="G1864" s="85"/>
     </row>
     <row r="1865" spans="1:7">
       <c r="G1865" s="86"/>
@@ -20520,7 +20534,7 @@
       <c r="F1891" s="17">
         <v>0.57103015267175572</v>
       </c>
-      <c r="G1891" s="88"/>
+      <c r="G1891" s="85"/>
     </row>
     <row r="1892" spans="1:7">
       <c r="G1892" s="86"/>
@@ -20800,7 +20814,7 @@
       <c r="F1922" s="17">
         <v>7.4799052164934432E-2</v>
       </c>
-      <c r="G1922" s="88"/>
+      <c r="G1922" s="85"/>
     </row>
     <row r="1923" spans="1:7">
       <c r="G1923" s="86"/>
@@ -21113,7 +21127,7 @@
       <c r="F1953" s="17">
         <v>7.4799051560228161E-2</v>
       </c>
-      <c r="G1953" s="88"/>
+      <c r="G1953" s="85"/>
     </row>
     <row r="1954" spans="2:7">
       <c r="G1954" s="86"/>
@@ -21390,7 +21404,7 @@
       <c r="F1980" s="17">
         <v>0.57103022727272723</v>
       </c>
-      <c r="G1980" s="88" t="s">
+      <c r="G1980" s="85" t="s">
         <v>205</v>
       </c>
     </row>
@@ -21673,7 +21687,7 @@
       <c r="F2011" s="17">
         <v>7.4799051911356038E-2</v>
       </c>
-      <c r="G2011" s="88"/>
+      <c r="G2011" s="85"/>
     </row>
     <row r="2012" spans="1:7">
       <c r="G2012" s="86"/>
@@ -21950,7 +21964,7 @@
       <c r="F2038" s="17">
         <v>0.57103198866602045</v>
       </c>
-      <c r="G2038" s="88"/>
+      <c r="G2038" s="85"/>
     </row>
     <row r="2039" spans="1:7">
       <c r="G2039" s="86"/>
@@ -22230,7 +22244,7 @@
       <c r="F2069" s="17">
         <v>7.4799051564977084E-2</v>
       </c>
-      <c r="G2069" s="88" t="s">
+      <c r="G2069" s="85" t="s">
         <v>206</v>
       </c>
     </row>
@@ -22510,7 +22524,7 @@
       <c r="F2096" s="17">
         <v>0.57103097674418601</v>
       </c>
-      <c r="G2096" s="88" t="s">
+      <c r="G2096" s="85" t="s">
         <v>207</v>
       </c>
     </row>
@@ -22793,7 +22807,7 @@
       <c r="F2127" s="17">
         <v>7.4799051352083895E-2</v>
       </c>
-      <c r="G2127" s="88"/>
+      <c r="G2127" s="85"/>
     </row>
     <row r="2128" spans="1:7">
       <c r="G2128" s="86"/>
@@ -23106,7 +23120,7 @@
       <c r="F2158" s="17">
         <v>7.4799053399860913E-2</v>
       </c>
-      <c r="G2158" s="88"/>
+      <c r="G2158" s="85"/>
     </row>
     <row r="2159" spans="1:7">
       <c r="G2159" s="86"/>
@@ -23383,7 +23397,7 @@
       <c r="F2185" s="17">
         <v>0.5710279001468429</v>
       </c>
-      <c r="G2185" s="88" t="s">
+      <c r="G2185" s="85" t="s">
         <v>197</v>
       </c>
     </row>
@@ -23662,7 +23676,7 @@
       <c r="F2216" s="17">
         <v>7.3929913346965484E-2</v>
       </c>
-      <c r="G2216" s="88"/>
+      <c r="G2216" s="85"/>
     </row>
     <row r="2217" spans="1:7">
       <c r="G2217" s="86"/>
@@ -23939,7 +23953,7 @@
       <c r="F2243" s="17">
         <v>0.57103000000000004</v>
       </c>
-      <c r="G2243" s="88" t="s">
+      <c r="G2243" s="85" t="s">
         <v>208</v>
       </c>
     </row>
@@ -24222,7 +24236,7 @@
       <c r="F2274" s="17">
         <v>7.4799052058565879E-2</v>
       </c>
-      <c r="G2274" s="88"/>
+      <c r="G2274" s="85"/>
     </row>
     <row r="2275" spans="1:7">
       <c r="G2275" s="86"/>
@@ -24499,7 +24513,7 @@
       <c r="F2301" s="17">
         <v>0</v>
       </c>
-      <c r="G2301" s="88" t="s">
+      <c r="G2301" s="85" t="s">
         <v>197</v>
       </c>
     </row>
@@ -24781,7 +24795,7 @@
       <c r="F2332" s="17">
         <v>7.4799051779117484E-2</v>
       </c>
-      <c r="G2332" s="88"/>
+      <c r="G2332" s="85"/>
     </row>
     <row r="2333" spans="1:7">
       <c r="G2333" s="86"/>
@@ -25058,7 +25072,7 @@
       <c r="F2359" s="17">
         <v>0.57103021806853582</v>
       </c>
-      <c r="G2359" s="88" t="s">
+      <c r="G2359" s="85" t="s">
         <v>209</v>
       </c>
     </row>
@@ -25340,7 +25354,7 @@
       <c r="F2390" s="17">
         <v>7.4799051509742559E-2</v>
       </c>
-      <c r="G2390" s="88"/>
+      <c r="G2390" s="85"/>
     </row>
     <row r="2391" spans="1:7">
       <c r="G2391" s="86"/>
@@ -25617,7 +25631,7 @@
       <c r="F2417" s="17">
         <v>0.57103014333895441</v>
       </c>
-      <c r="G2417" s="88" t="s">
+      <c r="G2417" s="85" t="s">
         <v>319</v>
       </c>
     </row>
@@ -25897,7 +25911,7 @@
       <c r="F2448" s="17">
         <v>7.6197753514118421E-2</v>
       </c>
-      <c r="G2448" s="88" t="s">
+      <c r="G2448" s="85" t="s">
         <v>320</v>
       </c>
     </row>
@@ -26213,7 +26227,7 @@
       <c r="F2479" s="17">
         <v>7.4799051573941858E-2</v>
       </c>
-      <c r="G2479" s="88"/>
+      <c r="G2479" s="85"/>
     </row>
     <row r="2480" spans="1:7">
       <c r="G2480" s="86"/>
@@ -26490,7 +26504,7 @@
       <c r="F2506" s="17">
         <v>0.57103015075376884</v>
       </c>
-      <c r="G2506" s="88" t="s">
+      <c r="G2506" s="85" t="s">
         <v>197</v>
       </c>
     </row>
@@ -26772,7 +26786,7 @@
       <c r="F2537" s="17">
         <v>7.4799051764798355E-2</v>
       </c>
-      <c r="G2537" s="88"/>
+      <c r="G2537" s="85"/>
     </row>
     <row r="2538" spans="1:7">
       <c r="G2538" s="86"/>
@@ -27049,7 +27063,7 @@
       <c r="F2564" s="17">
         <v>0.57103020833333329</v>
       </c>
-      <c r="G2564" s="88" t="s">
+      <c r="G2564" s="85" t="s">
         <v>197</v>
       </c>
     </row>
@@ -27334,65 +27348,19 @@
     </row>
   </sheetData>
   <mergeCells count="86">
-    <mergeCell ref="G1129:G1153"/>
-    <mergeCell ref="G1187:G1211"/>
-    <mergeCell ref="G1161:G1185"/>
-    <mergeCell ref="G866:G890"/>
-    <mergeCell ref="G897:G921"/>
-    <mergeCell ref="G924:G948"/>
-    <mergeCell ref="G955:G979"/>
-    <mergeCell ref="G982:G1006"/>
-    <mergeCell ref="G1013:G1037"/>
-    <mergeCell ref="G1040:G1064"/>
-    <mergeCell ref="G1071:G1095"/>
-    <mergeCell ref="G1102:G1126"/>
-    <mergeCell ref="G1245:G1269"/>
-    <mergeCell ref="G1218:G1242"/>
-    <mergeCell ref="G1276:G1300"/>
-    <mergeCell ref="G1303:G1327"/>
-    <mergeCell ref="G1334:G1358"/>
-    <mergeCell ref="G1512:G1536"/>
-    <mergeCell ref="G1539:G1563"/>
-    <mergeCell ref="G1570:G1594"/>
-    <mergeCell ref="G1361:G1385"/>
-    <mergeCell ref="G1392:G1416"/>
-    <mergeCell ref="G1423:G1447"/>
-    <mergeCell ref="G1450:G1474"/>
-    <mergeCell ref="G1481:G1505"/>
-    <mergeCell ref="G1601:G1625"/>
-    <mergeCell ref="G1632:G1656"/>
-    <mergeCell ref="G1659:G1683"/>
-    <mergeCell ref="G1690:G1714"/>
-    <mergeCell ref="G1717:G1741"/>
-    <mergeCell ref="G1748:G1772"/>
-    <mergeCell ref="G1775:G1799"/>
-    <mergeCell ref="G1806:G1830"/>
-    <mergeCell ref="G1833:G1857"/>
-    <mergeCell ref="G1864:G1888"/>
-    <mergeCell ref="G1891:G1915"/>
-    <mergeCell ref="G1922:G1946"/>
-    <mergeCell ref="G1953:G1977"/>
-    <mergeCell ref="G1980:G2004"/>
-    <mergeCell ref="G2011:G2035"/>
-    <mergeCell ref="G2038:G2062"/>
-    <mergeCell ref="G2069:G2093"/>
-    <mergeCell ref="G2096:G2120"/>
-    <mergeCell ref="G2127:G2151"/>
-    <mergeCell ref="G2158:G2182"/>
-    <mergeCell ref="G2185:G2209"/>
-    <mergeCell ref="G2216:G2240"/>
-    <mergeCell ref="G2243:G2267"/>
-    <mergeCell ref="G2274:G2298"/>
-    <mergeCell ref="G2301:G2325"/>
-    <mergeCell ref="G2479:G2503"/>
-    <mergeCell ref="G2506:G2530"/>
-    <mergeCell ref="G2537:G2561"/>
-    <mergeCell ref="G2564:G2588"/>
-    <mergeCell ref="G2332:G2356"/>
-    <mergeCell ref="G2359:G2383"/>
-    <mergeCell ref="G2390:G2414"/>
-    <mergeCell ref="G2417:G2441"/>
-    <mergeCell ref="G2448:G2472"/>
+    <mergeCell ref="G425:G449"/>
+    <mergeCell ref="G456:G480"/>
+    <mergeCell ref="G483:G507"/>
+    <mergeCell ref="G514:G538"/>
+    <mergeCell ref="G839:G863"/>
+    <mergeCell ref="G719:G743"/>
+    <mergeCell ref="G808:G832"/>
+    <mergeCell ref="G781:G805"/>
+    <mergeCell ref="G572:G596"/>
+    <mergeCell ref="G545:G569"/>
+    <mergeCell ref="G603:G627"/>
+    <mergeCell ref="G634:G658"/>
+    <mergeCell ref="G661:G685"/>
     <mergeCell ref="G72:G96"/>
     <mergeCell ref="G41:G65"/>
     <mergeCell ref="G14:G38"/>
@@ -27407,19 +27375,65 @@
     <mergeCell ref="G309:G333"/>
     <mergeCell ref="G282:G306"/>
     <mergeCell ref="G251:G275"/>
-    <mergeCell ref="G425:G449"/>
-    <mergeCell ref="G456:G480"/>
-    <mergeCell ref="G483:G507"/>
-    <mergeCell ref="G514:G538"/>
-    <mergeCell ref="G839:G863"/>
-    <mergeCell ref="G719:G743"/>
-    <mergeCell ref="G808:G832"/>
-    <mergeCell ref="G781:G805"/>
-    <mergeCell ref="G572:G596"/>
-    <mergeCell ref="G545:G569"/>
-    <mergeCell ref="G603:G627"/>
-    <mergeCell ref="G634:G658"/>
-    <mergeCell ref="G661:G685"/>
+    <mergeCell ref="G2479:G2503"/>
+    <mergeCell ref="G2506:G2530"/>
+    <mergeCell ref="G2537:G2561"/>
+    <mergeCell ref="G2564:G2588"/>
+    <mergeCell ref="G2332:G2356"/>
+    <mergeCell ref="G2359:G2383"/>
+    <mergeCell ref="G2390:G2414"/>
+    <mergeCell ref="G2417:G2441"/>
+    <mergeCell ref="G2448:G2472"/>
+    <mergeCell ref="G2185:G2209"/>
+    <mergeCell ref="G2216:G2240"/>
+    <mergeCell ref="G2243:G2267"/>
+    <mergeCell ref="G2274:G2298"/>
+    <mergeCell ref="G2301:G2325"/>
+    <mergeCell ref="G2038:G2062"/>
+    <mergeCell ref="G2069:G2093"/>
+    <mergeCell ref="G2096:G2120"/>
+    <mergeCell ref="G2127:G2151"/>
+    <mergeCell ref="G2158:G2182"/>
+    <mergeCell ref="G1891:G1915"/>
+    <mergeCell ref="G1922:G1946"/>
+    <mergeCell ref="G1953:G1977"/>
+    <mergeCell ref="G1980:G2004"/>
+    <mergeCell ref="G2011:G2035"/>
+    <mergeCell ref="G1748:G1772"/>
+    <mergeCell ref="G1775:G1799"/>
+    <mergeCell ref="G1806:G1830"/>
+    <mergeCell ref="G1833:G1857"/>
+    <mergeCell ref="G1864:G1888"/>
+    <mergeCell ref="G1601:G1625"/>
+    <mergeCell ref="G1632:G1656"/>
+    <mergeCell ref="G1659:G1683"/>
+    <mergeCell ref="G1690:G1714"/>
+    <mergeCell ref="G1717:G1741"/>
+    <mergeCell ref="G1512:G1536"/>
+    <mergeCell ref="G1539:G1563"/>
+    <mergeCell ref="G1570:G1594"/>
+    <mergeCell ref="G1361:G1385"/>
+    <mergeCell ref="G1392:G1416"/>
+    <mergeCell ref="G1423:G1447"/>
+    <mergeCell ref="G1450:G1474"/>
+    <mergeCell ref="G1481:G1505"/>
+    <mergeCell ref="G1245:G1269"/>
+    <mergeCell ref="G1218:G1242"/>
+    <mergeCell ref="G1276:G1300"/>
+    <mergeCell ref="G1303:G1327"/>
+    <mergeCell ref="G1334:G1358"/>
+    <mergeCell ref="G1129:G1153"/>
+    <mergeCell ref="G1187:G1211"/>
+    <mergeCell ref="G1161:G1185"/>
+    <mergeCell ref="G866:G890"/>
+    <mergeCell ref="G897:G921"/>
+    <mergeCell ref="G924:G948"/>
+    <mergeCell ref="G955:G979"/>
+    <mergeCell ref="G982:G1006"/>
+    <mergeCell ref="G1013:G1037"/>
+    <mergeCell ref="G1040:G1064"/>
+    <mergeCell ref="G1071:G1095"/>
+    <mergeCell ref="G1102:G1126"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
   <pageSetup scale="85" orientation="portrait" r:id="rId1"/>
@@ -27431,9 +27445,9 @@
   <dimension ref="A1:G1635"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="7" topLeftCell="A524" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="16"/>
@@ -27545,7 +27559,7 @@
       <c r="G13" s="89"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="G14" s="92"/>
+      <c r="G14" s="93"/>
     </row>
     <row r="15" spans="1:7">
       <c r="B15" s="56" t="s">
@@ -27563,10 +27577,10 @@
       <c r="F15" s="49">
         <v>6.4801524367900321E-2</v>
       </c>
-      <c r="G15" s="92"/>
+      <c r="G15" s="93"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="G16" s="92"/>
+      <c r="G16" s="93"/>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="56" t="s">
@@ -27584,10 +27598,10 @@
       <c r="F17" s="49">
         <v>6.9848972289587724E-2</v>
       </c>
-      <c r="G17" s="92"/>
+      <c r="G17" s="93"/>
     </row>
     <row r="18" spans="2:7">
-      <c r="G18" s="92"/>
+      <c r="G18" s="93"/>
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="56" t="s">
@@ -27605,10 +27619,10 @@
       <c r="F19" s="49">
         <v>6.300906757237075E-2</v>
       </c>
-      <c r="G19" s="92"/>
+      <c r="G19" s="93"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="G20" s="92"/>
+      <c r="G20" s="93"/>
     </row>
     <row r="21" spans="2:7">
       <c r="B21" s="56" t="s">
@@ -27626,10 +27640,10 @@
       <c r="F21" s="49">
         <v>7.3794323058915326E-2</v>
       </c>
-      <c r="G21" s="92"/>
+      <c r="G21" s="93"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="G22" s="92"/>
+      <c r="G22" s="93"/>
     </row>
     <row r="23" spans="2:7">
       <c r="B23" s="56" t="s">
@@ -27647,10 +27661,10 @@
       <c r="F23" s="49">
         <v>6.9222712185870075E-2</v>
       </c>
-      <c r="G23" s="92"/>
+      <c r="G23" s="93"/>
     </row>
     <row r="24" spans="2:7">
-      <c r="G24" s="92"/>
+      <c r="G24" s="93"/>
     </row>
     <row r="25" spans="2:7">
       <c r="B25" s="56" t="s">
@@ -27668,10 +27682,10 @@
       <c r="F25" s="49">
         <v>0.12606495152615532</v>
       </c>
-      <c r="G25" s="92"/>
+      <c r="G25" s="93"/>
     </row>
     <row r="26" spans="2:7">
-      <c r="G26" s="92"/>
+      <c r="G26" s="93"/>
     </row>
     <row r="27" spans="2:7">
       <c r="B27" s="56" t="s">
@@ -27689,10 +27703,10 @@
       <c r="F27" s="49">
         <v>9.6136059437811131E-2</v>
       </c>
-      <c r="G27" s="92"/>
+      <c r="G27" s="93"/>
     </row>
     <row r="28" spans="2:7">
-      <c r="G28" s="92"/>
+      <c r="G28" s="93"/>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="56" t="s">
@@ -27710,10 +27724,10 @@
       <c r="F29" s="49">
         <v>9.6362713694439439E-2</v>
       </c>
-      <c r="G29" s="92"/>
+      <c r="G29" s="93"/>
     </row>
     <row r="30" spans="2:7">
-      <c r="G30" s="92"/>
+      <c r="G30" s="93"/>
     </row>
     <row r="31" spans="2:7">
       <c r="B31" s="56" t="s">
@@ -27731,10 +27745,10 @@
       <c r="F31" s="49">
         <v>7.5837604446292867E-2</v>
       </c>
-      <c r="G31" s="92"/>
+      <c r="G31" s="93"/>
     </row>
     <row r="32" spans="2:7">
-      <c r="G32" s="92"/>
+      <c r="G32" s="93"/>
     </row>
     <row r="33" spans="1:7">
       <c r="B33" s="56" t="s">
@@ -27752,10 +27766,10 @@
       <c r="F33" s="49">
         <v>9.2246449105190698E-2</v>
       </c>
-      <c r="G33" s="92"/>
+      <c r="G33" s="93"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="G34" s="92"/>
+      <c r="G34" s="93"/>
     </row>
     <row r="35" spans="1:7">
       <c r="B35" s="56" t="s">
@@ -27773,7 +27787,7 @@
       <c r="F35" s="49">
         <v>8.4539911956200045E-2</v>
       </c>
-      <c r="G35" s="92"/>
+      <c r="G35" s="93"/>
     </row>
     <row r="36" spans="1:7" ht="22.5" customHeight="1">
       <c r="C36" s="50">
@@ -27792,7 +27806,7 @@
         <f>E36/C36</f>
         <v>8.3015343816705653E-2</v>
       </c>
-      <c r="G36" s="92"/>
+      <c r="G36" s="93"/>
     </row>
     <row r="37" spans="1:7">
       <c r="B37" s="59" t="s">
@@ -27875,7 +27889,7 @@
       <c r="A45" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G45" s="92"/>
+      <c r="G45" s="93"/>
     </row>
     <row r="46" spans="1:7">
       <c r="B46" s="56" t="s">
@@ -27893,10 +27907,10 @@
       <c r="F46" s="49">
         <v>6.4801526769172516E-2</v>
       </c>
-      <c r="G46" s="92"/>
+      <c r="G46" s="93"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="G47" s="92"/>
+      <c r="G47" s="93"/>
     </row>
     <row r="48" spans="1:7">
       <c r="B48" s="56" t="s">
@@ -27914,10 +27928,10 @@
       <c r="F48" s="49">
         <v>6.9848971381656105E-2</v>
       </c>
-      <c r="G48" s="92"/>
+      <c r="G48" s="93"/>
     </row>
     <row r="49" spans="2:7">
-      <c r="G49" s="92"/>
+      <c r="G49" s="93"/>
     </row>
     <row r="50" spans="2:7">
       <c r="B50" s="56" t="s">
@@ -27935,10 +27949,10 @@
       <c r="F50" s="49">
         <v>6.3009066844622402E-2</v>
       </c>
-      <c r="G50" s="92"/>
+      <c r="G50" s="93"/>
     </row>
     <row r="51" spans="2:7">
-      <c r="G51" s="92"/>
+      <c r="G51" s="93"/>
     </row>
     <row r="52" spans="2:7">
       <c r="B52" s="56" t="s">
@@ -27956,10 +27970,10 @@
       <c r="F52" s="49">
         <v>7.3794321808998517E-2</v>
       </c>
-      <c r="G52" s="92"/>
+      <c r="G52" s="93"/>
     </row>
     <row r="53" spans="2:7">
-      <c r="G53" s="92"/>
+      <c r="G53" s="93"/>
     </row>
     <row r="54" spans="2:7">
       <c r="B54" s="56" t="s">
@@ -27977,10 +27991,10 @@
       <c r="F54" s="49">
         <v>6.9194233727846485E-2</v>
       </c>
-      <c r="G54" s="92"/>
+      <c r="G54" s="93"/>
     </row>
     <row r="55" spans="2:7">
-      <c r="G55" s="92"/>
+      <c r="G55" s="93"/>
     </row>
     <row r="56" spans="2:7">
       <c r="B56" s="56" t="s">
@@ -27998,10 +28012,10 @@
       <c r="F56" s="49">
         <v>0.12606495254745254</v>
       </c>
-      <c r="G56" s="92"/>
+      <c r="G56" s="93"/>
     </row>
     <row r="57" spans="2:7">
-      <c r="G57" s="92"/>
+      <c r="G57" s="93"/>
     </row>
     <row r="58" spans="2:7">
       <c r="B58" s="56" t="s">
@@ -28019,10 +28033,10 @@
       <c r="F58" s="49">
         <v>9.6136060202851967E-2</v>
       </c>
-      <c r="G58" s="92"/>
+      <c r="G58" s="93"/>
     </row>
     <row r="59" spans="2:7">
-      <c r="G59" s="92"/>
+      <c r="G59" s="93"/>
     </row>
     <row r="60" spans="2:7">
       <c r="B60" s="56" t="s">
@@ -28040,10 +28054,10 @@
       <c r="F60" s="49">
         <v>9.6362711109548402E-2</v>
       </c>
-      <c r="G60" s="92"/>
+      <c r="G60" s="93"/>
     </row>
     <row r="61" spans="2:7">
-      <c r="G61" s="92"/>
+      <c r="G61" s="93"/>
     </row>
     <row r="62" spans="2:7">
       <c r="B62" s="56" t="s">
@@ -28061,10 +28075,10 @@
       <c r="F62" s="49">
         <v>7.5837607753544672E-2</v>
       </c>
-      <c r="G62" s="92"/>
+      <c r="G62" s="93"/>
     </row>
     <row r="63" spans="2:7">
-      <c r="G63" s="92"/>
+      <c r="G63" s="93"/>
     </row>
     <row r="64" spans="2:7">
       <c r="B64" s="56" t="s">
@@ -28082,10 +28096,10 @@
       <c r="F64" s="49">
         <v>9.2246445920845813E-2</v>
       </c>
-      <c r="G64" s="92"/>
+      <c r="G64" s="93"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="G65" s="92"/>
+      <c r="G65" s="93"/>
     </row>
     <row r="66" spans="1:7">
       <c r="B66" s="56" t="s">
@@ -28103,7 +28117,7 @@
       <c r="F66" s="49">
         <v>8.453991208624162E-2</v>
       </c>
-      <c r="G66" s="92"/>
+      <c r="G66" s="93"/>
     </row>
     <row r="67" spans="1:7">
       <c r="C67" s="50">
@@ -28122,7 +28136,7 @@
         <f>E67/C67</f>
         <v>8.2487855312458544E-2</v>
       </c>
-      <c r="G67" s="92"/>
+      <c r="G67" s="93"/>
     </row>
     <row r="68" spans="1:7">
       <c r="B68" s="59" t="s">
@@ -28192,7 +28206,7 @@
       <c r="A76" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G76" s="92" t="s">
+      <c r="G76" s="93" t="s">
         <v>212</v>
       </c>
     </row>
@@ -28212,10 +28226,10 @@
       <c r="F77" s="49">
         <v>6.4801523158221935E-2</v>
       </c>
-      <c r="G77" s="92"/>
+      <c r="G77" s="93"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="G78" s="92"/>
+      <c r="G78" s="93"/>
     </row>
     <row r="79" spans="1:7">
       <c r="B79" s="56" t="s">
@@ -28233,10 +28247,10 @@
       <c r="F79" s="49">
         <v>6.9848970251716241E-2</v>
       </c>
-      <c r="G79" s="92"/>
+      <c r="G79" s="93"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="G80" s="92"/>
+      <c r="G80" s="93"/>
     </row>
     <row r="81" spans="2:7">
       <c r="B81" s="56" t="s">
@@ -28254,10 +28268,10 @@
       <c r="F81" s="49">
         <v>6.3009067669172927E-2</v>
       </c>
-      <c r="G81" s="92"/>
+      <c r="G81" s="93"/>
     </row>
     <row r="82" spans="2:7">
-      <c r="G82" s="92"/>
+      <c r="G82" s="93"/>
     </row>
     <row r="83" spans="2:7">
       <c r="B83" s="56" t="s">
@@ -28275,10 +28289,10 @@
       <c r="F83" s="49">
         <v>7.3794316546762578E-2</v>
       </c>
-      <c r="G83" s="92"/>
+      <c r="G83" s="93"/>
     </row>
     <row r="84" spans="2:7">
-      <c r="G84" s="92"/>
+      <c r="G84" s="93"/>
     </row>
     <row r="85" spans="2:7">
       <c r="B85" s="56" t="s">
@@ -28296,10 +28310,10 @@
       <c r="F85" s="49">
         <v>6.919423613639121E-2</v>
       </c>
-      <c r="G85" s="92"/>
+      <c r="G85" s="93"/>
     </row>
     <row r="86" spans="2:7">
-      <c r="G86" s="92"/>
+      <c r="G86" s="93"/>
     </row>
     <row r="87" spans="2:7">
       <c r="B87" s="56" t="s">
@@ -28317,10 +28331,10 @@
       <c r="F87" s="49">
         <v>0.12606494987901831</v>
       </c>
-      <c r="G87" s="92"/>
+      <c r="G87" s="93"/>
     </row>
     <row r="88" spans="2:7">
-      <c r="G88" s="92"/>
+      <c r="G88" s="93"/>
     </row>
     <row r="89" spans="2:7">
       <c r="B89" s="56" t="s">
@@ -28338,10 +28352,10 @@
       <c r="F89" s="49">
         <v>9.6136057298772157E-2</v>
       </c>
-      <c r="G89" s="92"/>
+      <c r="G89" s="93"/>
     </row>
     <row r="90" spans="2:7">
-      <c r="G90" s="92"/>
+      <c r="G90" s="93"/>
     </row>
     <row r="91" spans="2:7">
       <c r="B91" s="56" t="s">
@@ -28359,10 +28373,10 @@
       <c r="F91" s="49">
         <v>9.6362712579058318E-2</v>
       </c>
-      <c r="G91" s="92"/>
+      <c r="G91" s="93"/>
     </row>
     <row r="92" spans="2:7">
-      <c r="G92" s="92"/>
+      <c r="G92" s="93"/>
     </row>
     <row r="93" spans="2:7">
       <c r="B93" s="56" t="s">
@@ -28380,10 +28394,10 @@
       <c r="F93" s="49">
         <v>7.5837613567534823E-2</v>
       </c>
-      <c r="G93" s="92"/>
+      <c r="G93" s="93"/>
     </row>
     <row r="94" spans="2:7">
-      <c r="G94" s="92"/>
+      <c r="G94" s="93"/>
     </row>
     <row r="95" spans="2:7">
       <c r="B95" s="56" t="s">
@@ -28401,10 +28415,10 @@
       <c r="F95" s="49">
         <v>9.2246438837432124E-2</v>
       </c>
-      <c r="G95" s="92"/>
+      <c r="G95" s="93"/>
     </row>
     <row r="96" spans="2:7">
-      <c r="G96" s="92"/>
+      <c r="G96" s="93"/>
     </row>
     <row r="97" spans="1:7">
       <c r="B97" s="56" t="s">
@@ -28422,7 +28436,7 @@
       <c r="F97" s="49">
         <v>8.4539917928399599E-2</v>
       </c>
-      <c r="G97" s="92"/>
+      <c r="G97" s="93"/>
     </row>
     <row r="98" spans="1:7">
       <c r="C98" s="50">
@@ -28441,7 +28455,7 @@
         <f>E98/C98</f>
         <v>8.2709332653437634E-2</v>
       </c>
-      <c r="G98" s="92"/>
+      <c r="G98" s="93"/>
     </row>
     <row r="99" spans="1:7">
       <c r="B99" s="59" t="s">
@@ -28510,7 +28524,7 @@
       </c>
     </row>
     <row r="107" spans="1:7">
-      <c r="G107" s="92"/>
+      <c r="G107" s="93"/>
     </row>
     <row r="108" spans="1:7">
       <c r="B108" s="56" t="s">
@@ -28528,10 +28542,10 @@
       <c r="F108" s="49">
         <v>6.4801525048027192E-2</v>
       </c>
-      <c r="G108" s="92"/>
+      <c r="G108" s="93"/>
     </row>
     <row r="109" spans="1:7">
-      <c r="G109" s="92"/>
+      <c r="G109" s="93"/>
     </row>
     <row r="110" spans="1:7">
       <c r="B110" s="56" t="s">
@@ -28549,10 +28563,10 @@
       <c r="F110" s="49">
         <v>6.9848971855666409E-2</v>
       </c>
-      <c r="G110" s="92"/>
+      <c r="G110" s="93"/>
     </row>
     <row r="111" spans="1:7">
-      <c r="G111" s="92"/>
+      <c r="G111" s="93"/>
     </row>
     <row r="112" spans="1:7">
       <c r="B112" s="56" t="s">
@@ -28570,10 +28584,10 @@
       <c r="F112" s="49">
         <v>6.3009064799856393E-2</v>
       </c>
-      <c r="G112" s="92"/>
+      <c r="G112" s="93"/>
     </row>
     <row r="113" spans="2:7">
-      <c r="G113" s="92"/>
+      <c r="G113" s="93"/>
     </row>
     <row r="114" spans="2:7">
       <c r="B114" s="56" t="s">
@@ -28591,10 +28605,10 @@
       <c r="F114" s="49">
         <v>7.3794323016844424E-2</v>
       </c>
-      <c r="G114" s="92"/>
+      <c r="G114" s="93"/>
     </row>
     <row r="115" spans="2:7">
-      <c r="G115" s="92"/>
+      <c r="G115" s="93"/>
     </row>
     <row r="116" spans="2:7">
       <c r="B116" s="56" t="s">
@@ -28612,10 +28626,10 @@
       <c r="F116" s="49">
         <v>6.9194232633279479E-2</v>
       </c>
-      <c r="G116" s="92"/>
+      <c r="G116" s="93"/>
     </row>
     <row r="117" spans="2:7">
-      <c r="G117" s="92"/>
+      <c r="G117" s="93"/>
     </row>
     <row r="118" spans="2:7">
       <c r="B118" s="56" t="s">
@@ -28633,10 +28647,10 @@
       <c r="F118" s="49">
         <v>0.12606495372009507</v>
       </c>
-      <c r="G118" s="92"/>
+      <c r="G118" s="93"/>
     </row>
     <row r="119" spans="2:7">
-      <c r="G119" s="92"/>
+      <c r="G119" s="93"/>
     </row>
     <row r="120" spans="2:7">
       <c r="B120" s="56" t="s">
@@ -28654,10 +28668,10 @@
       <c r="F120" s="49">
         <v>9.6136062209741871E-2</v>
       </c>
-      <c r="G120" s="92"/>
+      <c r="G120" s="93"/>
     </row>
     <row r="121" spans="2:7">
-      <c r="G121" s="92"/>
+      <c r="G121" s="93"/>
     </row>
     <row r="122" spans="2:7">
       <c r="B122" s="56" t="s">
@@ -28675,10 +28689,10 @@
       <c r="F122" s="49">
         <v>9.6362713587298504E-2</v>
       </c>
-      <c r="G122" s="92"/>
+      <c r="G122" s="93"/>
     </row>
     <row r="123" spans="2:7">
-      <c r="G123" s="92"/>
+      <c r="G123" s="93"/>
     </row>
     <row r="124" spans="2:7">
       <c r="B124" s="56" t="s">
@@ -28696,10 +28710,10 @@
       <c r="F124" s="49">
         <v>7.5837606350111691E-2</v>
       </c>
-      <c r="G124" s="92"/>
+      <c r="G124" s="93"/>
     </row>
     <row r="125" spans="2:7">
-      <c r="G125" s="92"/>
+      <c r="G125" s="93"/>
     </row>
     <row r="126" spans="2:7">
       <c r="B126" s="56" t="s">
@@ -28717,10 +28731,10 @@
       <c r="F126" s="49">
         <v>9.2246447233079606E-2</v>
       </c>
-      <c r="G126" s="92"/>
+      <c r="G126" s="93"/>
     </row>
     <row r="127" spans="2:7">
-      <c r="G127" s="92"/>
+      <c r="G127" s="93"/>
     </row>
     <row r="128" spans="2:7">
       <c r="B128" s="56" t="s">
@@ -28738,7 +28752,7 @@
       <c r="F128" s="49">
         <v>8.4539912199344591E-2</v>
       </c>
-      <c r="G128" s="92"/>
+      <c r="G128" s="93"/>
     </row>
     <row r="129" spans="1:7">
       <c r="C129" s="50">
@@ -28757,7 +28771,7 @@
         <f>E129/C129</f>
         <v>8.1336348437113182E-2</v>
       </c>
-      <c r="G129" s="92"/>
+      <c r="G129" s="93"/>
     </row>
     <row r="130" spans="1:7">
       <c r="C130" s="50"/>
@@ -28801,7 +28815,7 @@
       <c r="D134" s="24"/>
       <c r="E134" s="24"/>
       <c r="F134" s="24"/>
-      <c r="G134" s="92"/>
+      <c r="G134" s="93"/>
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="13" t="s">
@@ -28819,10 +28833,10 @@
       <c r="F135" s="49">
         <v>0</v>
       </c>
-      <c r="G135" s="92"/>
+      <c r="G135" s="93"/>
     </row>
     <row r="136" spans="1:7">
-      <c r="G136" s="92"/>
+      <c r="G136" s="93"/>
     </row>
     <row r="137" spans="1:7">
       <c r="B137" s="56" t="s">
@@ -28837,10 +28851,10 @@
       <c r="F137" s="49">
         <v>0.52658181818181815</v>
       </c>
-      <c r="G137" s="92"/>
+      <c r="G137" s="93"/>
     </row>
     <row r="138" spans="1:7">
-      <c r="G138" s="92"/>
+      <c r="G138" s="93"/>
     </row>
     <row r="139" spans="1:7">
       <c r="B139" s="56" t="s">
@@ -28855,10 +28869,10 @@
       <c r="F139" s="49">
         <v>0.51726666666666665</v>
       </c>
-      <c r="G139" s="92"/>
+      <c r="G139" s="93"/>
     </row>
     <row r="140" spans="1:7">
-      <c r="G140" s="92"/>
+      <c r="G140" s="93"/>
     </row>
     <row r="141" spans="1:7">
       <c r="B141" s="56" t="s">
@@ -28873,10 +28887,10 @@
       <c r="F141" s="49">
         <v>0.49447916666666664</v>
       </c>
-      <c r="G141" s="92"/>
+      <c r="G141" s="93"/>
     </row>
     <row r="142" spans="1:7">
-      <c r="G142" s="92"/>
+      <c r="G142" s="93"/>
     </row>
     <row r="143" spans="1:7">
       <c r="B143" s="56" t="s">
@@ -28891,10 +28905,10 @@
       <c r="F143" s="49">
         <v>0.53269333333333335</v>
       </c>
-      <c r="G143" s="92"/>
+      <c r="G143" s="93"/>
     </row>
     <row r="144" spans="1:7">
-      <c r="G144" s="92"/>
+      <c r="G144" s="93"/>
     </row>
     <row r="145" spans="2:7">
       <c r="B145" s="56" t="s">
@@ -28909,10 +28923,10 @@
       <c r="F145" s="49">
         <v>0.56650714285714288</v>
       </c>
-      <c r="G145" s="92"/>
+      <c r="G145" s="93"/>
     </row>
     <row r="146" spans="2:7">
-      <c r="G146" s="92"/>
+      <c r="G146" s="93"/>
     </row>
     <row r="147" spans="2:7">
       <c r="B147" s="56" t="s">
@@ -28927,10 +28941,10 @@
       <c r="F147" s="49">
         <v>0.61375333333333337</v>
       </c>
-      <c r="G147" s="92"/>
+      <c r="G147" s="93"/>
     </row>
     <row r="148" spans="2:7">
-      <c r="G148" s="92"/>
+      <c r="G148" s="93"/>
     </row>
     <row r="149" spans="2:7">
       <c r="B149" s="56" t="s">
@@ -28945,10 +28959,10 @@
       <c r="F149" s="49">
         <v>0.58189999999999997</v>
       </c>
-      <c r="G149" s="92"/>
+      <c r="G149" s="93"/>
     </row>
     <row r="150" spans="2:7">
-      <c r="G150" s="92"/>
+      <c r="G150" s="93"/>
     </row>
     <row r="151" spans="2:7">
       <c r="B151" s="56" t="s">
@@ -28963,10 +28977,10 @@
       <c r="F151" s="49">
         <v>0.61942857142857144</v>
       </c>
-      <c r="G151" s="92"/>
+      <c r="G151" s="93"/>
     </row>
     <row r="152" spans="2:7">
-      <c r="G152" s="92"/>
+      <c r="G152" s="93"/>
     </row>
     <row r="153" spans="2:7">
       <c r="B153" s="56" t="s">
@@ -28981,10 +28995,10 @@
       <c r="F153" s="49">
         <v>0.62239999999999995</v>
       </c>
-      <c r="G153" s="92"/>
+      <c r="G153" s="93"/>
     </row>
     <row r="154" spans="2:7">
-      <c r="G154" s="92"/>
+      <c r="G154" s="93"/>
     </row>
     <row r="155" spans="2:7">
       <c r="B155" s="56" t="s">
@@ -28999,7 +29013,7 @@
       <c r="F155" s="49">
         <v>0.64385454545454546</v>
       </c>
-      <c r="G155" s="92"/>
+      <c r="G155" s="93"/>
     </row>
     <row r="156" spans="2:7">
       <c r="C156" s="50">
@@ -29018,7 +29032,7 @@
         <f>E156/C156</f>
         <v>0.56874705882352949</v>
       </c>
-      <c r="G156" s="92"/>
+      <c r="G156" s="93"/>
     </row>
     <row r="157" spans="2:7">
       <c r="B157" s="59" t="s">
@@ -29089,7 +29103,7 @@
       <c r="A166" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G166" s="92"/>
+      <c r="G166" s="93"/>
     </row>
     <row r="167" spans="1:7">
       <c r="B167" s="56" t="s">
@@ -29107,12 +29121,12 @@
       <c r="F167" s="49">
         <v>6.4801525357452802E-2</v>
       </c>
-      <c r="G167" s="92" t="s">
+      <c r="G167" s="93" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="168" spans="1:7" ht="15.75" customHeight="1">
-      <c r="G168" s="92"/>
+      <c r="G168" s="93"/>
     </row>
     <row r="169" spans="1:7">
       <c r="B169" s="56" t="s">
@@ -29130,10 +29144,10 @@
       <c r="F169" s="49">
         <v>6.9848961634638496E-2</v>
       </c>
-      <c r="G169" s="92"/>
+      <c r="G169" s="93"/>
     </row>
     <row r="170" spans="1:7">
-      <c r="G170" s="92"/>
+      <c r="G170" s="93"/>
     </row>
     <row r="171" spans="1:7">
       <c r="B171" s="56" t="s">
@@ -29151,10 +29165,10 @@
       <c r="F171" s="49">
         <v>6.3009071877967282E-2</v>
       </c>
-      <c r="G171" s="92"/>
+      <c r="G171" s="93"/>
     </row>
     <row r="172" spans="1:7">
-      <c r="G172" s="92"/>
+      <c r="G172" s="93"/>
     </row>
     <row r="173" spans="1:7">
       <c r="B173" s="56" t="s">
@@ -29172,10 +29186,10 @@
       <c r="F173" s="49">
         <v>7.3794312158107458E-2</v>
       </c>
-      <c r="G173" s="92"/>
+      <c r="G173" s="93"/>
     </row>
     <row r="174" spans="1:7">
-      <c r="G174" s="92"/>
+      <c r="G174" s="93"/>
     </row>
     <row r="175" spans="1:7">
       <c r="B175" s="56" t="s">
@@ -29193,10 +29207,10 @@
       <c r="F175" s="49">
         <v>6.9194231280622936E-2</v>
       </c>
-      <c r="G175" s="92"/>
+      <c r="G175" s="93"/>
     </row>
     <row r="176" spans="1:7">
-      <c r="G176" s="92"/>
+      <c r="G176" s="93"/>
     </row>
     <row r="177" spans="1:7">
       <c r="B177" s="56" t="s">
@@ -29214,10 +29228,10 @@
       <c r="F177" s="49">
         <v>0.12606495806416157</v>
       </c>
-      <c r="G177" s="92"/>
+      <c r="G177" s="93"/>
     </row>
     <row r="178" spans="1:7">
-      <c r="G178" s="92"/>
+      <c r="G178" s="93"/>
     </row>
     <row r="179" spans="1:7">
       <c r="B179" s="56" t="s">
@@ -29235,10 +29249,10 @@
       <c r="F179" s="49">
         <v>9.6136058435784322E-2</v>
       </c>
-      <c r="G179" s="92"/>
+      <c r="G179" s="93"/>
     </row>
     <row r="180" spans="1:7">
-      <c r="G180" s="92"/>
+      <c r="G180" s="93"/>
     </row>
     <row r="181" spans="1:7">
       <c r="B181" s="56" t="s">
@@ -29256,10 +29270,10 @@
       <c r="F181" s="49">
         <v>9.6362717472865553E-2</v>
       </c>
-      <c r="G181" s="92"/>
+      <c r="G181" s="93"/>
     </row>
     <row r="182" spans="1:7">
-      <c r="G182" s="92"/>
+      <c r="G182" s="93"/>
     </row>
     <row r="183" spans="1:7">
       <c r="B183" s="56" t="s">
@@ -29277,10 +29291,10 @@
       <c r="F183" s="49">
         <v>7.5837612589680886E-2</v>
       </c>
-      <c r="G183" s="92"/>
+      <c r="G183" s="93"/>
     </row>
     <row r="184" spans="1:7">
-      <c r="G184" s="92"/>
+      <c r="G184" s="93"/>
     </row>
     <row r="185" spans="1:7">
       <c r="B185" s="56" t="s">
@@ -29298,10 +29312,10 @@
       <c r="F185" s="49">
         <v>9.2246435462563683E-2</v>
       </c>
-      <c r="G185" s="92"/>
+      <c r="G185" s="93"/>
     </row>
     <row r="186" spans="1:7">
-      <c r="G186" s="92"/>
+      <c r="G186" s="93"/>
     </row>
     <row r="187" spans="1:7">
       <c r="B187" s="56" t="s">
@@ -29319,7 +29333,7 @@
       <c r="F187" s="49">
         <v>8.4539915918924194E-2</v>
       </c>
-      <c r="G187" s="92"/>
+      <c r="G187" s="93"/>
     </row>
     <row r="188" spans="1:7">
       <c r="C188" s="50">
@@ -29338,7 +29352,7 @@
         <f>E188/C188</f>
         <v>8.1405838906587827E-2</v>
       </c>
-      <c r="G188" s="92"/>
+      <c r="G188" s="93"/>
     </row>
     <row r="189" spans="1:7">
       <c r="B189" s="59" t="s">
@@ -29401,7 +29415,7 @@
       <c r="A196" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G196" s="92" t="s">
+      <c r="G196" s="93" t="s">
         <v>216</v>
       </c>
     </row>
@@ -29421,10 +29435,10 @@
       <c r="F197" s="49">
         <v>6.4801526115725747E-2</v>
       </c>
-      <c r="G197" s="92"/>
+      <c r="G197" s="93"/>
     </row>
     <row r="198" spans="1:7">
-      <c r="G198" s="92"/>
+      <c r="G198" s="93"/>
     </row>
     <row r="199" spans="1:7">
       <c r="B199" s="56" t="s">
@@ -29442,10 +29456,10 @@
       <c r="F199" s="49">
         <v>6.9848971286615186E-2</v>
       </c>
-      <c r="G199" s="92"/>
+      <c r="G199" s="93"/>
     </row>
     <row r="200" spans="1:7">
-      <c r="G200" s="92"/>
+      <c r="G200" s="93"/>
     </row>
     <row r="201" spans="1:7">
       <c r="B201" s="56" t="s">
@@ -29463,10 +29477,10 @@
       <c r="F201" s="49">
         <v>6.3009067088277151E-2</v>
       </c>
-      <c r="G201" s="92"/>
+      <c r="G201" s="93"/>
     </row>
     <row r="202" spans="1:7">
-      <c r="G202" s="92"/>
+      <c r="G202" s="93"/>
     </row>
     <row r="203" spans="1:7">
       <c r="B203" s="56" t="s">
@@ -29484,10 +29498,10 @@
       <c r="F203" s="49">
         <v>7.3794322181943026E-2</v>
       </c>
-      <c r="G203" s="92"/>
+      <c r="G203" s="93"/>
     </row>
     <row r="204" spans="1:7">
-      <c r="G204" s="92"/>
+      <c r="G204" s="93"/>
     </row>
     <row r="205" spans="1:7">
       <c r="B205" s="56" t="s">
@@ -29505,10 +29519,10 @@
       <c r="F205" s="49">
         <v>6.919423399295159E-2</v>
       </c>
-      <c r="G205" s="92"/>
+      <c r="G205" s="93"/>
     </row>
     <row r="206" spans="1:7">
-      <c r="G206" s="92"/>
+      <c r="G206" s="93"/>
     </row>
     <row r="207" spans="1:7">
       <c r="B207" s="56" t="s">
@@ -29526,10 +29540,10 @@
       <c r="F207" s="49">
         <v>0.12606495206295129</v>
       </c>
-      <c r="G207" s="92"/>
+      <c r="G207" s="93"/>
     </row>
     <row r="208" spans="1:7">
-      <c r="G208" s="92"/>
+      <c r="G208" s="93"/>
     </row>
     <row r="209" spans="1:7">
       <c r="B209" s="56" t="s">
@@ -29547,10 +29561,10 @@
       <c r="F209" s="49">
         <v>9.6136059700153334E-2</v>
       </c>
-      <c r="G209" s="92"/>
+      <c r="G209" s="93"/>
     </row>
     <row r="210" spans="1:7">
-      <c r="G210" s="92"/>
+      <c r="G210" s="93"/>
     </row>
     <row r="211" spans="1:7">
       <c r="B211" s="56" t="s">
@@ -29568,10 +29582,10 @@
       <c r="F211" s="49">
         <v>9.6362727179809426E-2</v>
       </c>
-      <c r="G211" s="92"/>
+      <c r="G211" s="93"/>
     </row>
     <row r="212" spans="1:7">
-      <c r="G212" s="92"/>
+      <c r="G212" s="93"/>
     </row>
     <row r="213" spans="1:7">
       <c r="B213" s="56" t="s">
@@ -29589,10 +29603,10 @@
       <c r="F213" s="49">
         <v>7.5837607456288009E-2</v>
       </c>
-      <c r="G213" s="92"/>
+      <c r="G213" s="93"/>
     </row>
     <row r="214" spans="1:7">
-      <c r="G214" s="92"/>
+      <c r="G214" s="93"/>
     </row>
     <row r="215" spans="1:7">
       <c r="B215" s="56" t="s">
@@ -29610,10 +29624,10 @@
       <c r="F215" s="49">
         <v>9.2246445884126019E-2</v>
       </c>
-      <c r="G215" s="92"/>
+      <c r="G215" s="93"/>
     </row>
     <row r="216" spans="1:7">
-      <c r="G216" s="92"/>
+      <c r="G216" s="93"/>
     </row>
     <row r="217" spans="1:7">
       <c r="B217" s="56" t="s">
@@ -29631,7 +29645,7 @@
       <c r="F217" s="49">
         <v>8.4539912413202287E-2</v>
       </c>
-      <c r="G217" s="92"/>
+      <c r="G217" s="93"/>
     </row>
     <row r="218" spans="1:7">
       <c r="C218" s="50">
@@ -29650,7 +29664,7 @@
         <f>E218/C218</f>
         <v>8.1303696757697913E-2</v>
       </c>
-      <c r="G218" s="92"/>
+      <c r="G218" s="93"/>
     </row>
     <row r="219" spans="1:7">
       <c r="B219" s="57"/>
@@ -29680,7 +29694,7 @@
       <c r="G222" s="89"/>
     </row>
     <row r="223" spans="1:7">
-      <c r="G223" s="92"/>
+      <c r="G223" s="93"/>
     </row>
     <row r="224" spans="1:7">
       <c r="B224" s="56" t="s">
@@ -29695,10 +29709,10 @@
       <c r="F224" s="49">
         <v>0.54271666666666663</v>
       </c>
-      <c r="G224" s="92"/>
+      <c r="G224" s="93"/>
     </row>
     <row r="225" spans="2:7">
-      <c r="G225" s="92"/>
+      <c r="G225" s="93"/>
     </row>
     <row r="226" spans="2:7">
       <c r="B226" s="56" t="s">
@@ -29713,10 +29727,10 @@
       <c r="F226" s="49">
         <v>0.52657857142857145</v>
       </c>
-      <c r="G226" s="92"/>
+      <c r="G226" s="93"/>
     </row>
     <row r="227" spans="2:7">
-      <c r="G227" s="92"/>
+      <c r="G227" s="93"/>
     </row>
     <row r="228" spans="2:7">
       <c r="B228" s="56" t="s">
@@ -29731,10 +29745,10 @@
       <c r="F228" s="49">
         <v>0.51726666666666665</v>
       </c>
-      <c r="G228" s="92"/>
+      <c r="G228" s="93"/>
     </row>
     <row r="229" spans="2:7">
-      <c r="G229" s="92"/>
+      <c r="G229" s="93"/>
     </row>
     <row r="230" spans="2:7">
       <c r="B230" s="56" t="s">
@@ -29749,10 +29763,10 @@
       <c r="F230" s="49">
         <v>0.49447857142857143</v>
       </c>
-      <c r="G230" s="92"/>
+      <c r="G230" s="93"/>
     </row>
     <row r="231" spans="2:7">
-      <c r="G231" s="92"/>
+      <c r="G231" s="93"/>
     </row>
     <row r="232" spans="2:7">
       <c r="B232" s="56" t="s">
@@ -29767,10 +29781,10 @@
       <c r="F232" s="49">
         <v>0.53269</v>
       </c>
-      <c r="G232" s="92"/>
+      <c r="G232" s="93"/>
     </row>
     <row r="233" spans="2:7">
-      <c r="G233" s="92"/>
+      <c r="G233" s="93"/>
     </row>
     <row r="234" spans="2:7">
       <c r="B234" s="56" t="s">
@@ -29785,10 +29799,10 @@
       <c r="F234" s="49">
         <v>0.5665</v>
       </c>
-      <c r="G234" s="92"/>
+      <c r="G234" s="93"/>
     </row>
     <row r="235" spans="2:7">
-      <c r="G235" s="92"/>
+      <c r="G235" s="93"/>
     </row>
     <row r="236" spans="2:7">
       <c r="B236" s="56" t="s">
@@ -29803,10 +29817,10 @@
       <c r="F236" s="49">
         <v>0.61375333333333337</v>
       </c>
-      <c r="G236" s="92"/>
+      <c r="G236" s="93"/>
     </row>
     <row r="237" spans="2:7">
-      <c r="G237" s="92"/>
+      <c r="G237" s="93"/>
     </row>
     <row r="238" spans="2:7">
       <c r="B238" s="56" t="s">
@@ -29821,10 +29835,10 @@
       <c r="F238" s="49">
         <v>0.58189999999999997</v>
       </c>
-      <c r="G238" s="92"/>
+      <c r="G238" s="93"/>
     </row>
     <row r="239" spans="2:7">
-      <c r="G239" s="92"/>
+      <c r="G239" s="93"/>
     </row>
     <row r="240" spans="2:7">
       <c r="B240" s="56" t="s">
@@ -29839,10 +29853,10 @@
       <c r="F240" s="49">
         <v>0.61942666666666668</v>
       </c>
-      <c r="G240" s="92"/>
+      <c r="G240" s="93"/>
     </row>
     <row r="241" spans="1:7">
-      <c r="G241" s="92"/>
+      <c r="G241" s="93"/>
     </row>
     <row r="242" spans="1:7">
       <c r="B242" s="56" t="s">
@@ -29857,10 +29871,10 @@
       <c r="F242" s="49">
         <v>0.62239999999999995</v>
       </c>
-      <c r="G242" s="92"/>
+      <c r="G242" s="93"/>
     </row>
     <row r="243" spans="1:7">
-      <c r="G243" s="92"/>
+      <c r="G243" s="93"/>
     </row>
     <row r="244" spans="1:7">
       <c r="B244" s="56" t="s">
@@ -29875,7 +29889,7 @@
       <c r="F244" s="49">
         <v>0.64385333333333317</v>
       </c>
-      <c r="G244" s="92"/>
+      <c r="G244" s="93"/>
     </row>
     <row r="245" spans="1:7">
       <c r="C245" s="50">
@@ -29894,7 +29908,7 @@
         <f>E245/C245</f>
         <v>0.56987337278106509</v>
       </c>
-      <c r="G245" s="92"/>
+      <c r="G245" s="93"/>
     </row>
     <row r="246" spans="1:7">
       <c r="B246" s="59" t="s">
@@ -29968,7 +29982,7 @@
       <c r="A254" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G254" s="92"/>
+      <c r="G254" s="93"/>
     </row>
     <row r="255" spans="1:7">
       <c r="B255" s="56" t="s">
@@ -29986,10 +30000,10 @@
       <c r="F255" s="49">
         <v>6.4801522401043934E-2</v>
       </c>
-      <c r="G255" s="92"/>
+      <c r="G255" s="93"/>
     </row>
     <row r="256" spans="1:7">
-      <c r="G256" s="92"/>
+      <c r="G256" s="93"/>
     </row>
     <row r="257" spans="2:7">
       <c r="B257" s="56" t="s">
@@ -30007,10 +30021,10 @@
       <c r="F257" s="49">
         <v>6.9848971865004245E-2</v>
       </c>
-      <c r="G257" s="92"/>
+      <c r="G257" s="93"/>
     </row>
     <row r="258" spans="2:7">
-      <c r="G258" s="92"/>
+      <c r="G258" s="93"/>
     </row>
     <row r="259" spans="2:7">
       <c r="B259" s="56" t="s">
@@ -30028,10 +30042,10 @@
       <c r="F259" s="49">
         <v>6.3009066743300521E-2</v>
       </c>
-      <c r="G259" s="92"/>
+      <c r="G259" s="93"/>
     </row>
     <row r="260" spans="2:7">
-      <c r="G260" s="92"/>
+      <c r="G260" s="93"/>
     </row>
     <row r="261" spans="2:7">
       <c r="B261" s="56" t="s">
@@ -30049,10 +30063,10 @@
       <c r="F261" s="49">
         <v>7.3794321019000464E-2</v>
       </c>
-      <c r="G261" s="92"/>
+      <c r="G261" s="93"/>
     </row>
     <row r="262" spans="2:7">
-      <c r="G262" s="92"/>
+      <c r="G262" s="93"/>
     </row>
     <row r="263" spans="2:7">
       <c r="B263" s="56" t="s">
@@ -30070,10 +30084,10 @@
       <c r="F263" s="49">
         <v>6.9194234578770705E-2</v>
       </c>
-      <c r="G263" s="92"/>
+      <c r="G263" s="93"/>
     </row>
     <row r="264" spans="2:7">
-      <c r="G264" s="92"/>
+      <c r="G264" s="93"/>
     </row>
     <row r="265" spans="2:7">
       <c r="B265" s="56" t="s">
@@ -30091,10 +30105,10 @@
       <c r="F265" s="49">
         <v>0.12606495215848343</v>
       </c>
-      <c r="G265" s="92"/>
+      <c r="G265" s="93"/>
     </row>
     <row r="266" spans="2:7">
-      <c r="G266" s="92"/>
+      <c r="G266" s="93"/>
     </row>
     <row r="267" spans="2:7">
       <c r="B267" s="56" t="s">
@@ -30112,10 +30126,10 @@
       <c r="F267" s="49">
         <v>9.6136060435082438E-2</v>
       </c>
-      <c r="G267" s="92"/>
+      <c r="G267" s="93"/>
     </row>
     <row r="268" spans="2:7">
-      <c r="G268" s="92"/>
+      <c r="G268" s="93"/>
     </row>
     <row r="269" spans="2:7">
       <c r="B269" s="56" t="s">
@@ -30133,10 +30147,10 @@
       <c r="F269" s="49">
         <v>9.6362711649657887E-2</v>
       </c>
-      <c r="G269" s="92"/>
+      <c r="G269" s="93"/>
     </row>
     <row r="270" spans="2:7">
-      <c r="G270" s="92"/>
+      <c r="G270" s="93"/>
     </row>
     <row r="271" spans="2:7">
       <c r="B271" s="56" t="s">
@@ -30154,10 +30168,10 @@
       <c r="F271" s="49">
         <v>7.5837608904438483E-2</v>
       </c>
-      <c r="G271" s="92"/>
+      <c r="G271" s="93"/>
     </row>
     <row r="272" spans="2:7">
-      <c r="G272" s="92"/>
+      <c r="G272" s="93"/>
     </row>
     <row r="273" spans="1:7">
       <c r="B273" s="56" t="s">
@@ -30175,10 +30189,10 @@
       <c r="F273" s="49">
         <v>9.2246444407948755E-2</v>
       </c>
-      <c r="G273" s="92"/>
+      <c r="G273" s="93"/>
     </row>
     <row r="274" spans="1:7">
-      <c r="G274" s="92"/>
+      <c r="G274" s="93"/>
     </row>
     <row r="275" spans="1:7">
       <c r="B275" s="56" t="s">
@@ -30196,7 +30210,7 @@
       <c r="F275" s="49">
         <v>8.4539915355111753E-2</v>
       </c>
-      <c r="G275" s="92"/>
+      <c r="G275" s="93"/>
     </row>
     <row r="276" spans="1:7">
       <c r="C276" s="50">
@@ -30215,7 +30229,7 @@
         <f>E276/C276</f>
         <v>8.9546580033740969E-2</v>
       </c>
-      <c r="G276" s="92"/>
+      <c r="G276" s="93"/>
     </row>
     <row r="277" spans="1:7">
       <c r="B277" s="59" t="s">
@@ -30274,7 +30288,7 @@
       <c r="G284" s="89"/>
     </row>
     <row r="285" spans="1:7">
-      <c r="G285" s="92"/>
+      <c r="G285" s="93"/>
     </row>
     <row r="286" spans="1:7">
       <c r="B286" s="56" t="s">
@@ -30292,10 +30306,10 @@
       <c r="F286" s="49">
         <v>6.4801503584957204E-2</v>
       </c>
-      <c r="G286" s="92"/>
+      <c r="G286" s="93"/>
     </row>
     <row r="287" spans="1:7">
-      <c r="G287" s="92"/>
+      <c r="G287" s="93"/>
     </row>
     <row r="288" spans="1:7">
       <c r="B288" s="56" t="s">
@@ -30313,10 +30327,10 @@
       <c r="F288" s="49">
         <v>6.9848935643924512E-2</v>
       </c>
-      <c r="G288" s="92"/>
+      <c r="G288" s="93"/>
     </row>
     <row r="289" spans="2:7">
-      <c r="G289" s="92"/>
+      <c r="G289" s="93"/>
     </row>
     <row r="290" spans="2:7">
       <c r="B290" s="56" t="s">
@@ -30334,10 +30348,10 @@
       <c r="F290" s="49">
         <v>6.3009098903790625E-2</v>
       </c>
-      <c r="G290" s="92"/>
+      <c r="G290" s="93"/>
     </row>
     <row r="291" spans="2:7">
-      <c r="G291" s="92"/>
+      <c r="G291" s="93"/>
     </row>
     <row r="292" spans="2:7">
       <c r="B292" s="56" t="s">
@@ -30355,10 +30369,10 @@
       <c r="F292" s="49">
         <v>7.3794282769334391E-2</v>
       </c>
-      <c r="G292" s="92"/>
+      <c r="G292" s="93"/>
     </row>
     <row r="293" spans="2:7">
-      <c r="G293" s="92"/>
+      <c r="G293" s="93"/>
     </row>
     <row r="294" spans="2:7">
       <c r="B294" s="56" t="s">
@@ -30376,10 +30390,10 @@
       <c r="F294" s="49">
         <v>6.9194230721283251E-2</v>
       </c>
-      <c r="G294" s="92"/>
+      <c r="G294" s="93"/>
     </row>
     <row r="295" spans="2:7">
-      <c r="G295" s="92"/>
+      <c r="G295" s="93"/>
     </row>
     <row r="296" spans="2:7">
       <c r="B296" s="56" t="s">
@@ -30397,10 +30411,10 @@
       <c r="F296" s="49">
         <v>0.12606493014834269</v>
       </c>
-      <c r="G296" s="92"/>
+      <c r="G296" s="93"/>
     </row>
     <row r="297" spans="2:7">
-      <c r="G297" s="92"/>
+      <c r="G297" s="93"/>
     </row>
     <row r="298" spans="2:7">
       <c r="B298" s="56" t="s">
@@ -30418,10 +30432,10 @@
       <c r="F298" s="49">
         <v>9.6136025326082605E-2</v>
       </c>
-      <c r="G298" s="92"/>
+      <c r="G298" s="93"/>
     </row>
     <row r="299" spans="2:7">
-      <c r="G299" s="92"/>
+      <c r="G299" s="93"/>
     </row>
     <row r="300" spans="2:7">
       <c r="B300" s="56" t="s">
@@ -30439,10 +30453,10 @@
       <c r="F300" s="49">
         <v>9.6362691454006028E-2</v>
       </c>
-      <c r="G300" s="92"/>
+      <c r="G300" s="93"/>
     </row>
     <row r="301" spans="2:7">
-      <c r="G301" s="92"/>
+      <c r="G301" s="93"/>
     </row>
     <row r="302" spans="2:7">
       <c r="B302" s="56" t="s">
@@ -30460,10 +30474,10 @@
       <c r="F302" s="49">
         <v>7.5837587486298361E-2</v>
       </c>
-      <c r="G302" s="92"/>
+      <c r="G302" s="93"/>
     </row>
     <row r="303" spans="2:7">
-      <c r="G303" s="92"/>
+      <c r="G303" s="93"/>
     </row>
     <row r="304" spans="2:7">
       <c r="B304" s="56" t="s">
@@ -30481,10 +30495,10 @@
       <c r="F304" s="49">
         <v>9.2246431481790458E-2</v>
       </c>
-      <c r="G304" s="92"/>
+      <c r="G304" s="93"/>
     </row>
     <row r="305" spans="1:7">
-      <c r="G305" s="92"/>
+      <c r="G305" s="93"/>
     </row>
     <row r="306" spans="1:7">
       <c r="B306" s="56" t="s">
@@ -30502,7 +30516,7 @@
       <c r="F306" s="49">
         <v>8.4539940370268241E-2</v>
       </c>
-      <c r="G306" s="92"/>
+      <c r="G306" s="93"/>
     </row>
     <row r="307" spans="1:7">
       <c r="A307" s="4" t="s">
@@ -30524,7 +30538,7 @@
         <f>E307/C307</f>
         <v>8.1897620129016677E-2</v>
       </c>
-      <c r="G307" s="92"/>
+      <c r="G307" s="93"/>
     </row>
     <row r="308" spans="1:7">
       <c r="B308" s="59" t="s">
@@ -30597,7 +30611,7 @@
       </c>
     </row>
     <row r="318" spans="1:7">
-      <c r="G318" s="92"/>
+      <c r="G318" s="93"/>
     </row>
     <row r="319" spans="1:7">
       <c r="B319" s="56" t="s">
@@ -30615,10 +30629,10 @@
       <c r="F319" s="49">
         <v>6.4801525717111771E-2</v>
       </c>
-      <c r="G319" s="92"/>
+      <c r="G319" s="93"/>
     </row>
     <row r="320" spans="1:7">
-      <c r="G320" s="92"/>
+      <c r="G320" s="93"/>
     </row>
     <row r="321" spans="2:7">
       <c r="B321" s="56" t="s">
@@ -30636,10 +30650,10 @@
       <c r="F321" s="49">
         <v>6.9848970544238026E-2</v>
       </c>
-      <c r="G321" s="92"/>
+      <c r="G321" s="93"/>
     </row>
     <row r="322" spans="2:7">
-      <c r="G322" s="92"/>
+      <c r="G322" s="93"/>
     </row>
     <row r="323" spans="2:7">
       <c r="B323" s="56" t="s">
@@ -30657,10 +30671,10 @@
       <c r="F323" s="49">
         <v>6.3009067002058078E-2</v>
       </c>
-      <c r="G323" s="92"/>
+      <c r="G323" s="93"/>
     </row>
     <row r="324" spans="2:7">
-      <c r="G324" s="92"/>
+      <c r="G324" s="93"/>
     </row>
     <row r="325" spans="2:7">
       <c r="B325" s="56" t="s">
@@ -30678,10 +30692,10 @@
       <c r="F325" s="49">
         <v>7.3794323158704156E-2</v>
       </c>
-      <c r="G325" s="92"/>
+      <c r="G325" s="93"/>
     </row>
     <row r="326" spans="2:7">
-      <c r="G326" s="92"/>
+      <c r="G326" s="93"/>
     </row>
     <row r="327" spans="2:7">
       <c r="B327" s="56" t="s">
@@ -30699,10 +30713,10 @@
       <c r="F327" s="49">
         <v>6.9194234240611607E-2</v>
       </c>
-      <c r="G327" s="92"/>
+      <c r="G327" s="93"/>
     </row>
     <row r="328" spans="2:7">
-      <c r="G328" s="92"/>
+      <c r="G328" s="93"/>
     </row>
     <row r="329" spans="2:7">
       <c r="B329" s="56" t="s">
@@ -30720,10 +30734,10 @@
       <c r="F329" s="49">
         <v>0.12606495341561522</v>
       </c>
-      <c r="G329" s="92"/>
+      <c r="G329" s="93"/>
     </row>
     <row r="330" spans="2:7">
-      <c r="G330" s="92"/>
+      <c r="G330" s="93"/>
     </row>
     <row r="331" spans="2:7">
       <c r="B331" s="56" t="s">
@@ -30741,10 +30755,10 @@
       <c r="F331" s="49">
         <v>9.6136058026089793E-2</v>
       </c>
-      <c r="G331" s="92"/>
+      <c r="G331" s="93"/>
     </row>
     <row r="332" spans="2:7">
-      <c r="G332" s="92"/>
+      <c r="G332" s="93"/>
     </row>
     <row r="333" spans="2:7">
       <c r="B333" s="56" t="s">
@@ -30762,10 +30776,10 @@
       <c r="F333" s="49">
         <v>9.6362764256528705E-2</v>
       </c>
-      <c r="G333" s="92"/>
+      <c r="G333" s="93"/>
     </row>
     <row r="334" spans="2:7">
-      <c r="G334" s="92"/>
+      <c r="G334" s="93"/>
     </row>
     <row r="335" spans="2:7">
       <c r="B335" s="56" t="s">
@@ -30783,10 +30797,10 @@
       <c r="F335" s="49">
         <v>7.5837605851822615E-2</v>
       </c>
-      <c r="G335" s="92"/>
+      <c r="G335" s="93"/>
     </row>
     <row r="336" spans="2:7">
-      <c r="G336" s="92"/>
+      <c r="G336" s="93"/>
     </row>
     <row r="337" spans="1:7">
       <c r="B337" s="56" t="s">
@@ -30804,13 +30818,13 @@
       <c r="F337" s="49">
         <v>9.2246573070970589E-2</v>
       </c>
-      <c r="G337" s="92"/>
+      <c r="G337" s="93"/>
     </row>
     <row r="338" spans="1:7">
       <c r="A338" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G338" s="92"/>
+      <c r="G338" s="93"/>
     </row>
     <row r="339" spans="1:7">
       <c r="B339" s="56" t="s">
@@ -30828,7 +30842,7 @@
       <c r="F339" s="49">
         <v>8.4539973984390629E-2</v>
       </c>
-      <c r="G339" s="92" t="s">
+      <c r="G339" s="93" t="s">
         <v>186</v>
       </c>
     </row>
@@ -30849,7 +30863,7 @@
         <f>E340/C340</f>
         <v>8.1529867454729593E-2</v>
       </c>
-      <c r="G340" s="92"/>
+      <c r="G340" s="93"/>
     </row>
     <row r="341" spans="1:7">
       <c r="B341" s="57"/>
@@ -30880,7 +30894,7 @@
       </c>
     </row>
     <row r="345" spans="1:7">
-      <c r="G345" s="92"/>
+      <c r="G345" s="93"/>
     </row>
     <row r="346" spans="1:7">
       <c r="B346" s="56" t="s">
@@ -30895,10 +30909,10 @@
       <c r="F346" s="49">
         <v>0.54271666666666663</v>
       </c>
-      <c r="G346" s="92"/>
+      <c r="G346" s="93"/>
     </row>
     <row r="347" spans="1:7">
-      <c r="G347" s="92"/>
+      <c r="G347" s="93"/>
     </row>
     <row r="348" spans="1:7">
       <c r="B348" s="56" t="s">
@@ -30913,10 +30927,10 @@
       <c r="F348" s="49">
         <v>0.52657782101167316</v>
       </c>
-      <c r="G348" s="92"/>
+      <c r="G348" s="93"/>
     </row>
     <row r="349" spans="1:7">
-      <c r="G349" s="92"/>
+      <c r="G349" s="93"/>
     </row>
     <row r="350" spans="1:7">
       <c r="B350" s="56" t="s">
@@ -30931,10 +30945,10 @@
       <c r="F350" s="49">
         <v>0.51726488549618321</v>
       </c>
-      <c r="G350" s="92"/>
+      <c r="G350" s="93"/>
     </row>
     <row r="351" spans="1:7">
-      <c r="G351" s="92"/>
+      <c r="G351" s="93"/>
     </row>
     <row r="352" spans="1:7">
       <c r="B352" s="56" t="s">
@@ -30949,10 +30963,10 @@
       <c r="F352" s="49">
         <v>0.49447726008344922</v>
       </c>
-      <c r="G352" s="92"/>
+      <c r="G352" s="93"/>
     </row>
     <row r="353" spans="1:7">
-      <c r="G353" s="92"/>
+      <c r="G353" s="93"/>
     </row>
     <row r="354" spans="1:7">
       <c r="B354" s="56" t="s">
@@ -30967,10 +30981,10 @@
       <c r="F354" s="49">
         <v>0.53269012400354299</v>
       </c>
-      <c r="G354" s="92"/>
+      <c r="G354" s="93"/>
     </row>
     <row r="355" spans="1:7">
-      <c r="G355" s="92"/>
+      <c r="G355" s="93"/>
     </row>
     <row r="356" spans="1:7">
       <c r="B356" s="56" t="s">
@@ -30985,10 +30999,10 @@
       <c r="F356" s="49">
         <v>0.56650374598644304</v>
       </c>
-      <c r="G356" s="92"/>
+      <c r="G356" s="93"/>
     </row>
     <row r="357" spans="1:7">
-      <c r="G357" s="92"/>
+      <c r="G357" s="93"/>
     </row>
     <row r="358" spans="1:7">
       <c r="B358" s="56" t="s">
@@ -31003,10 +31017,10 @@
       <c r="F358" s="49">
         <v>0.61375290909090907</v>
       </c>
-      <c r="G358" s="92"/>
+      <c r="G358" s="93"/>
     </row>
     <row r="359" spans="1:7">
-      <c r="G359" s="92"/>
+      <c r="G359" s="93"/>
     </row>
     <row r="360" spans="1:7">
       <c r="B360" s="56" t="s">
@@ -31021,10 +31035,10 @@
       <c r="F360" s="49">
         <v>0.58190320069204149</v>
       </c>
-      <c r="G360" s="92"/>
+      <c r="G360" s="93"/>
     </row>
     <row r="361" spans="1:7">
-      <c r="G361" s="92"/>
+      <c r="G361" s="93"/>
     </row>
     <row r="362" spans="1:7">
       <c r="B362" s="56" t="s">
@@ -31039,10 +31053,10 @@
       <c r="F362" s="49">
         <v>0.61942520473157414</v>
       </c>
-      <c r="G362" s="92"/>
+      <c r="G362" s="93"/>
     </row>
     <row r="363" spans="1:7">
-      <c r="G363" s="92"/>
+      <c r="G363" s="93"/>
     </row>
     <row r="364" spans="1:7">
       <c r="B364" s="56" t="s">
@@ -31057,13 +31071,13 @@
       <c r="F364" s="49">
         <v>0.62239650537634406</v>
       </c>
-      <c r="G364" s="92"/>
+      <c r="G364" s="93"/>
     </row>
     <row r="365" spans="1:7">
       <c r="A365" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="G365" s="92"/>
+      <c r="G365" s="93"/>
     </row>
     <row r="366" spans="1:7">
       <c r="B366" s="56" t="s">
@@ -31078,7 +31092,7 @@
       <c r="F366" s="49">
         <v>0.64385565217391305</v>
       </c>
-      <c r="G366" s="92" t="s">
+      <c r="G366" s="93" t="s">
         <v>186</v>
       </c>
     </row>
@@ -31103,7 +31117,7 @@
         <f>E367/C367</f>
         <v>0.56721529246468982</v>
       </c>
-      <c r="G367" s="92"/>
+      <c r="G367" s="93"/>
     </row>
     <row r="368" spans="1:7">
       <c r="B368" s="59" t="s">
@@ -31159,7 +31173,7 @@
       <c r="G375" s="89"/>
     </row>
     <row r="376" spans="1:7">
-      <c r="G376" s="92"/>
+      <c r="G376" s="93"/>
     </row>
     <row r="377" spans="1:7">
       <c r="B377" s="56" t="s">
@@ -31177,10 +31191,10 @@
       <c r="F377" s="49">
         <v>6.480152454560896E-2</v>
       </c>
-      <c r="G377" s="92"/>
+      <c r="G377" s="93"/>
     </row>
     <row r="378" spans="1:7">
-      <c r="G378" s="92"/>
+      <c r="G378" s="93"/>
     </row>
     <row r="379" spans="1:7">
       <c r="B379" s="56" t="s">
@@ -31198,10 +31212,10 @@
       <c r="F379" s="49">
         <v>6.9848969388650109E-2</v>
       </c>
-      <c r="G379" s="92"/>
+      <c r="G379" s="93"/>
     </row>
     <row r="380" spans="1:7">
-      <c r="G380" s="92"/>
+      <c r="G380" s="93"/>
     </row>
     <row r="381" spans="1:7">
       <c r="B381" s="56" t="s">
@@ -31219,10 +31233,10 @@
       <c r="F381" s="49">
         <v>6.3009068384539138E-2</v>
       </c>
-      <c r="G381" s="92"/>
+      <c r="G381" s="93"/>
     </row>
     <row r="382" spans="1:7">
-      <c r="G382" s="92"/>
+      <c r="G382" s="93"/>
     </row>
     <row r="383" spans="1:7">
       <c r="B383" s="56" t="s">
@@ -31240,10 +31254,10 @@
       <c r="F383" s="49">
         <v>7.3794322751775471E-2</v>
       </c>
-      <c r="G383" s="92"/>
+      <c r="G383" s="93"/>
     </row>
     <row r="384" spans="1:7">
-      <c r="G384" s="92"/>
+      <c r="G384" s="93"/>
     </row>
     <row r="385" spans="1:7">
       <c r="B385" s="56" t="s">
@@ -31261,10 +31275,10 @@
       <c r="F385" s="49">
         <v>6.9194234408511704E-2</v>
       </c>
-      <c r="G385" s="92"/>
+      <c r="G385" s="93"/>
     </row>
     <row r="386" spans="1:7">
-      <c r="G386" s="92"/>
+      <c r="G386" s="93"/>
     </row>
     <row r="387" spans="1:7">
       <c r="B387" s="56" t="s">
@@ -31282,10 +31296,10 @@
       <c r="F387" s="49">
         <v>0.12606495280675609</v>
       </c>
-      <c r="G387" s="92"/>
+      <c r="G387" s="93"/>
     </row>
     <row r="388" spans="1:7">
-      <c r="G388" s="92"/>
+      <c r="G388" s="93"/>
     </row>
     <row r="389" spans="1:7">
       <c r="B389" s="56" t="s">
@@ -31303,10 +31317,10 @@
       <c r="F389" s="49">
         <v>9.6136058075615788E-2</v>
       </c>
-      <c r="G389" s="92"/>
+      <c r="G389" s="93"/>
     </row>
     <row r="390" spans="1:7">
-      <c r="G390" s="92"/>
+      <c r="G390" s="93"/>
     </row>
     <row r="391" spans="1:7">
       <c r="B391" s="56" t="s">
@@ -31324,10 +31338,10 @@
       <c r="F391" s="49">
         <v>9.6362711330049255E-2</v>
       </c>
-      <c r="G391" s="92"/>
+      <c r="G391" s="93"/>
     </row>
     <row r="392" spans="1:7">
-      <c r="G392" s="92"/>
+      <c r="G392" s="93"/>
     </row>
     <row r="393" spans="1:7">
       <c r="B393" s="56" t="s">
@@ -31345,10 +31359,10 @@
       <c r="F393" s="49">
         <v>7.5837609050711074E-2</v>
       </c>
-      <c r="G393" s="92"/>
+      <c r="G393" s="93"/>
     </row>
     <row r="394" spans="1:7">
-      <c r="G394" s="92"/>
+      <c r="G394" s="93"/>
     </row>
     <row r="395" spans="1:7">
       <c r="B395" s="56" t="s">
@@ -31366,13 +31380,13 @@
       <c r="F395" s="49">
         <v>9.2246446568201565E-2</v>
       </c>
-      <c r="G395" s="92"/>
+      <c r="G395" s="93"/>
     </row>
     <row r="396" spans="1:7">
       <c r="A396" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G396" s="92"/>
+      <c r="G396" s="93"/>
     </row>
     <row r="397" spans="1:7">
       <c r="B397" s="56" t="s">
@@ -31390,7 +31404,7 @@
       <c r="F397" s="49">
         <v>8.4539914305919533E-2</v>
       </c>
-      <c r="G397" s="92"/>
+      <c r="G397" s="93"/>
     </row>
     <row r="398" spans="1:7">
       <c r="C398" s="50">
@@ -31409,7 +31423,7 @@
         <f>E398/C398</f>
         <v>8.2740035218925617E-2</v>
       </c>
-      <c r="G398" s="92"/>
+      <c r="G398" s="93"/>
     </row>
     <row r="399" spans="1:7">
       <c r="B399" s="59" t="s">
@@ -31458,7 +31472,7 @@
       <c r="G406" s="89"/>
     </row>
     <row r="407" spans="2:7">
-      <c r="G407" s="92"/>
+      <c r="G407" s="93"/>
     </row>
     <row r="408" spans="2:7">
       <c r="B408" s="56" t="s">
@@ -31476,10 +31490,10 @@
       <c r="F408" s="49">
         <v>6.4801526531011219E-2</v>
       </c>
-      <c r="G408" s="92"/>
+      <c r="G408" s="93"/>
     </row>
     <row r="409" spans="2:7">
-      <c r="G409" s="92"/>
+      <c r="G409" s="93"/>
     </row>
     <row r="410" spans="2:7">
       <c r="B410" s="56" t="s">
@@ -31497,10 +31511,10 @@
       <c r="F410" s="49">
         <v>6.9848970712545366E-2</v>
       </c>
-      <c r="G410" s="92"/>
+      <c r="G410" s="93"/>
     </row>
     <row r="411" spans="2:7">
-      <c r="G411" s="92"/>
+      <c r="G411" s="93"/>
     </row>
     <row r="412" spans="2:7">
       <c r="B412" s="56" t="s">
@@ -31518,10 +31532,10 @@
       <c r="F412" s="49">
         <v>6.3009066610642289E-2</v>
       </c>
-      <c r="G412" s="92"/>
+      <c r="G412" s="93"/>
     </row>
     <row r="413" spans="2:7">
-      <c r="G413" s="92"/>
+      <c r="G413" s="93"/>
     </row>
     <row r="414" spans="2:7">
       <c r="B414" s="56" t="s">
@@ -31539,10 +31553,10 @@
       <c r="F414" s="49">
         <v>7.3794322637525805E-2</v>
       </c>
-      <c r="G414" s="92"/>
+      <c r="G414" s="93"/>
     </row>
     <row r="415" spans="2:7">
-      <c r="G415" s="92"/>
+      <c r="G415" s="93"/>
     </row>
     <row r="416" spans="2:7">
       <c r="B416" s="56" t="s">
@@ -31560,10 +31574,10 @@
       <c r="F416" s="49">
         <v>6.9194233505480596E-2</v>
       </c>
-      <c r="G416" s="92"/>
+      <c r="G416" s="93"/>
     </row>
     <row r="417" spans="1:7">
-      <c r="G417" s="92"/>
+      <c r="G417" s="93"/>
     </row>
     <row r="418" spans="1:7">
       <c r="B418" s="56" t="s">
@@ -31581,10 +31595,10 @@
       <c r="F418" s="49">
         <v>0.12606495231909301</v>
       </c>
-      <c r="G418" s="92"/>
+      <c r="G418" s="93"/>
     </row>
     <row r="419" spans="1:7">
-      <c r="G419" s="92"/>
+      <c r="G419" s="93"/>
     </row>
     <row r="420" spans="1:7">
       <c r="B420" s="56" t="s">
@@ -31602,10 +31616,10 @@
       <c r="F420" s="49">
         <v>9.6136059595126208E-2</v>
       </c>
-      <c r="G420" s="92"/>
+      <c r="G420" s="93"/>
     </row>
     <row r="421" spans="1:7">
-      <c r="G421" s="92"/>
+      <c r="G421" s="93"/>
     </row>
     <row r="422" spans="1:7">
       <c r="B422" s="56" t="s">
@@ -31623,13 +31637,13 @@
       <c r="F422" s="49">
         <v>9.6362711374976887E-2</v>
       </c>
-      <c r="G422" s="92"/>
+      <c r="G422" s="93"/>
     </row>
     <row r="423" spans="1:7">
       <c r="A423" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="G423" s="92"/>
+      <c r="G423" s="93"/>
     </row>
     <row r="424" spans="1:7">
       <c r="B424" s="56" t="s">
@@ -31647,7 +31661,7 @@
       <c r="F424" s="49">
         <v>7.5837607518691258E-2</v>
       </c>
-      <c r="G424" s="92"/>
+      <c r="G424" s="93"/>
     </row>
     <row r="425" spans="1:7" s="3" customFormat="1">
       <c r="A425" s="11" t="s">
@@ -31658,7 +31672,7 @@
       <c r="D425" s="24"/>
       <c r="E425" s="24"/>
       <c r="F425" s="24"/>
-      <c r="G425" s="92"/>
+      <c r="G425" s="93"/>
     </row>
     <row r="426" spans="1:7">
       <c r="B426" s="56" t="s">
@@ -31676,10 +31690,10 @@
       <c r="F426" s="49">
         <v>9.2246446453407516E-2</v>
       </c>
-      <c r="G426" s="92"/>
+      <c r="G426" s="93"/>
     </row>
     <row r="427" spans="1:7">
-      <c r="G427" s="92"/>
+      <c r="G427" s="93"/>
     </row>
     <row r="428" spans="1:7">
       <c r="A428" s="13" t="s">
@@ -31700,7 +31714,7 @@
       <c r="F428" s="49">
         <v>8.4539912983246021E-2</v>
       </c>
-      <c r="G428" s="92"/>
+      <c r="G428" s="93"/>
     </row>
     <row r="429" spans="1:7">
       <c r="C429" s="50">
@@ -31719,7 +31733,7 @@
         <f>E429/C429</f>
         <v>8.2284700588829751E-2</v>
       </c>
-      <c r="G429" s="92"/>
+      <c r="G429" s="93"/>
     </row>
     <row r="430" spans="1:7">
       <c r="B430" s="59" t="s">
@@ -31768,7 +31782,7 @@
       <c r="G437" s="89"/>
     </row>
     <row r="438" spans="2:7">
-      <c r="G438" s="92"/>
+      <c r="G438" s="93"/>
     </row>
     <row r="439" spans="2:7">
       <c r="B439" s="56" t="s">
@@ -31786,10 +31800,10 @@
       <c r="F439" s="49">
         <v>6.4801527347781204E-2</v>
       </c>
-      <c r="G439" s="92"/>
+      <c r="G439" s="93"/>
     </row>
     <row r="440" spans="2:7">
-      <c r="G440" s="92"/>
+      <c r="G440" s="93"/>
     </row>
     <row r="441" spans="2:7">
       <c r="B441" s="56" t="s">
@@ -31807,10 +31821,10 @@
       <c r="F441" s="49">
         <v>6.9848969272656547E-2</v>
       </c>
-      <c r="G441" s="92"/>
+      <c r="G441" s="93"/>
     </row>
     <row r="442" spans="2:7">
-      <c r="G442" s="92"/>
+      <c r="G442" s="93"/>
     </row>
     <row r="443" spans="2:7">
       <c r="B443" s="56" t="s">
@@ -31828,10 +31842,10 @@
       <c r="F443" s="49">
         <v>6.3009067123782014E-2</v>
       </c>
-      <c r="G443" s="92"/>
+      <c r="G443" s="93"/>
     </row>
     <row r="444" spans="2:7">
-      <c r="G444" s="92"/>
+      <c r="G444" s="93"/>
     </row>
     <row r="445" spans="2:7">
       <c r="B445" s="56" t="s">
@@ -31849,10 +31863,10 @@
       <c r="F445" s="49">
         <v>7.3794320230796975E-2</v>
       </c>
-      <c r="G445" s="92"/>
+      <c r="G445" s="93"/>
     </row>
     <row r="446" spans="2:7">
-      <c r="G446" s="92"/>
+      <c r="G446" s="93"/>
     </row>
     <row r="447" spans="2:7">
       <c r="B447" s="56" t="s">
@@ -31870,10 +31884,10 @@
       <c r="F447" s="49">
         <v>6.9194235548352245E-2</v>
       </c>
-      <c r="G447" s="92"/>
+      <c r="G447" s="93"/>
     </row>
     <row r="448" spans="2:7">
-      <c r="G448" s="92"/>
+      <c r="G448" s="93"/>
     </row>
     <row r="449" spans="1:7">
       <c r="B449" s="56" t="s">
@@ -31891,10 +31905,10 @@
       <c r="F449" s="49">
         <v>0.12606495456934744</v>
       </c>
-      <c r="G449" s="92"/>
+      <c r="G449" s="93"/>
     </row>
     <row r="450" spans="1:7">
-      <c r="G450" s="92"/>
+      <c r="G450" s="93"/>
     </row>
     <row r="451" spans="1:7">
       <c r="B451" s="56" t="s">
@@ -31912,10 +31926,10 @@
       <c r="F451" s="49">
         <v>9.6136061921626867E-2</v>
       </c>
-      <c r="G451" s="92"/>
+      <c r="G451" s="93"/>
     </row>
     <row r="452" spans="1:7">
-      <c r="G452" s="92"/>
+      <c r="G452" s="93"/>
     </row>
     <row r="453" spans="1:7">
       <c r="B453" s="56" t="s">
@@ -31933,13 +31947,13 @@
       <c r="F453" s="49">
         <v>9.6362710550790528E-2</v>
       </c>
-      <c r="G453" s="92"/>
+      <c r="G453" s="93"/>
     </row>
     <row r="454" spans="1:7">
       <c r="A454" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G454" s="92"/>
+      <c r="G454" s="93"/>
     </row>
     <row r="455" spans="1:7">
       <c r="B455" s="56" t="s">
@@ -31957,10 +31971,10 @@
       <c r="F455" s="49">
         <v>7.5837606681575465E-2</v>
       </c>
-      <c r="G455" s="92"/>
+      <c r="G455" s="93"/>
     </row>
     <row r="456" spans="1:7">
-      <c r="G456" s="92"/>
+      <c r="G456" s="93"/>
     </row>
     <row r="457" spans="1:7">
       <c r="B457" s="56" t="s">
@@ -31978,10 +31992,10 @@
       <c r="F457" s="49">
         <v>9.2246444618089465E-2</v>
       </c>
-      <c r="G457" s="92"/>
+      <c r="G457" s="93"/>
     </row>
     <row r="458" spans="1:7">
-      <c r="G458" s="92"/>
+      <c r="G458" s="93"/>
     </row>
     <row r="459" spans="1:7">
       <c r="B459" s="56" t="s">
@@ -31999,7 +32013,7 @@
       <c r="F459" s="49">
         <v>8.4539912280701748E-2</v>
       </c>
-      <c r="G459" s="92"/>
+      <c r="G459" s="93"/>
     </row>
     <row r="460" spans="1:7">
       <c r="C460" s="50">
@@ -32018,7 +32032,7 @@
         <f>E460/C460</f>
         <v>8.1316140825320515E-2</v>
       </c>
-      <c r="G460" s="92"/>
+      <c r="G460" s="93"/>
     </row>
     <row r="461" spans="1:7">
       <c r="B461" s="57"/>
@@ -32045,7 +32059,7 @@
       <c r="G464" s="89"/>
     </row>
     <row r="465" spans="2:7">
-      <c r="G465" s="92"/>
+      <c r="G465" s="93"/>
     </row>
     <row r="466" spans="2:7">
       <c r="B466" s="56" t="s">
@@ -32060,10 +32074,10 @@
       <c r="F466" s="49">
         <v>0.54271666666666663</v>
       </c>
-      <c r="G466" s="92"/>
+      <c r="G466" s="93"/>
     </row>
     <row r="467" spans="2:7">
-      <c r="G467" s="92"/>
+      <c r="G467" s="93"/>
     </row>
     <row r="468" spans="2:7">
       <c r="B468" s="56" t="s">
@@ -32078,10 +32092,10 @@
       <c r="F468" s="49">
         <v>0.52657826086956516</v>
       </c>
-      <c r="G468" s="92"/>
+      <c r="G468" s="93"/>
     </row>
     <row r="469" spans="2:7">
-      <c r="G469" s="92"/>
+      <c r="G469" s="93"/>
     </row>
     <row r="470" spans="2:7">
       <c r="B470" s="56" t="s">
@@ -32096,10 +32110,10 @@
       <c r="F470" s="49">
         <v>0.51726499999999997</v>
       </c>
-      <c r="G470" s="92"/>
+      <c r="G470" s="93"/>
     </row>
     <row r="471" spans="2:7">
-      <c r="G471" s="92"/>
+      <c r="G471" s="93"/>
     </row>
     <row r="472" spans="2:7">
       <c r="B472" s="56" t="s">
@@ -32114,10 +32128,10 @@
       <c r="F472" s="49">
         <v>0.49447684210526321</v>
       </c>
-      <c r="G472" s="92"/>
+      <c r="G472" s="93"/>
     </row>
     <row r="473" spans="2:7">
-      <c r="G473" s="92"/>
+      <c r="G473" s="93"/>
     </row>
     <row r="474" spans="2:7">
       <c r="B474" s="56" t="s">
@@ -32132,10 +32146,10 @@
       <c r="F474" s="49">
         <v>0.53268979591836729</v>
       </c>
-      <c r="G474" s="92"/>
+      <c r="G474" s="93"/>
     </row>
     <row r="475" spans="2:7">
-      <c r="G475" s="92"/>
+      <c r="G475" s="93"/>
     </row>
     <row r="476" spans="2:7">
       <c r="B476" s="56" t="s">
@@ -32150,10 +32164,10 @@
       <c r="F476" s="49">
         <v>0.56650357142857144</v>
       </c>
-      <c r="G476" s="92"/>
+      <c r="G476" s="93"/>
     </row>
     <row r="477" spans="2:7">
-      <c r="G477" s="92"/>
+      <c r="G477" s="93"/>
     </row>
     <row r="478" spans="2:7">
       <c r="B478" s="56" t="s">
@@ -32168,10 +32182,10 @@
       <c r="F478" s="49">
         <v>0.61375263157894733</v>
       </c>
-      <c r="G478" s="92"/>
+      <c r="G478" s="93"/>
     </row>
     <row r="479" spans="2:7">
-      <c r="G479" s="92"/>
+      <c r="G479" s="93"/>
     </row>
     <row r="480" spans="2:7">
       <c r="B480" s="56" t="s">
@@ -32186,13 +32200,13 @@
       <c r="F480" s="49">
         <v>0.58190500000000001</v>
       </c>
-      <c r="G480" s="92"/>
+      <c r="G480" s="93"/>
     </row>
     <row r="481" spans="1:7">
       <c r="A481" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="G481" s="92"/>
+      <c r="G481" s="93"/>
     </row>
     <row r="482" spans="1:7">
       <c r="B482" s="56" t="s">
@@ -32207,7 +32221,7 @@
       <c r="F482" s="49">
         <v>0.61942692307692304</v>
       </c>
-      <c r="G482" s="92"/>
+      <c r="G482" s="93"/>
     </row>
     <row r="483" spans="1:7" s="3" customFormat="1">
       <c r="A483" s="11" t="s">
@@ -32218,7 +32232,7 @@
       <c r="D483" s="24"/>
       <c r="E483" s="24"/>
       <c r="F483" s="24"/>
-      <c r="G483" s="92"/>
+      <c r="G483" s="93"/>
     </row>
     <row r="484" spans="1:7">
       <c r="B484" s="56" t="s">
@@ -32233,10 +32247,10 @@
       <c r="F484" s="49">
         <v>0.62239699999999998</v>
       </c>
-      <c r="G484" s="92"/>
+      <c r="G484" s="93"/>
     </row>
     <row r="485" spans="1:7">
-      <c r="G485" s="92"/>
+      <c r="G485" s="93"/>
     </row>
     <row r="486" spans="1:7">
       <c r="A486" s="13" t="s">
@@ -32254,7 +32268,7 @@
       <c r="F486" s="49">
         <v>0.64385499999999996</v>
       </c>
-      <c r="G486" s="92" t="s">
+      <c r="G486" s="93" t="s">
         <v>217</v>
       </c>
     </row>
@@ -32275,7 +32289,7 @@
         <f>E487/C487</f>
         <v>0.56172526178010462</v>
       </c>
-      <c r="G487" s="92"/>
+      <c r="G487" s="93"/>
     </row>
     <row r="488" spans="1:7">
       <c r="B488" s="59" t="s">
@@ -32324,7 +32338,7 @@
       <c r="G495" s="89"/>
     </row>
     <row r="496" spans="1:7">
-      <c r="G496" s="92"/>
+      <c r="G496" s="93"/>
     </row>
     <row r="497" spans="1:7">
       <c r="B497" s="56" t="s">
@@ -32342,10 +32356,10 @@
       <c r="F497" s="49">
         <v>6.4801524142669736E-2</v>
       </c>
-      <c r="G497" s="92"/>
+      <c r="G497" s="93"/>
     </row>
     <row r="498" spans="1:7">
-      <c r="G498" s="92"/>
+      <c r="G498" s="93"/>
     </row>
     <row r="499" spans="1:7">
       <c r="B499" s="56" t="s">
@@ -32363,10 +32377,10 @@
       <c r="F499" s="49">
         <v>6.984897145590814E-2</v>
       </c>
-      <c r="G499" s="92"/>
+      <c r="G499" s="93"/>
     </row>
     <row r="500" spans="1:7">
-      <c r="G500" s="92"/>
+      <c r="G500" s="93"/>
     </row>
     <row r="501" spans="1:7">
       <c r="B501" s="56" t="s">
@@ -32384,10 +32398,10 @@
       <c r="F501" s="49">
         <v>6.3009065869205946E-2</v>
       </c>
-      <c r="G501" s="92"/>
+      <c r="G501" s="93"/>
     </row>
     <row r="502" spans="1:7">
-      <c r="G502" s="92"/>
+      <c r="G502" s="93"/>
     </row>
     <row r="503" spans="1:7">
       <c r="B503" s="56" t="s">
@@ -32405,10 +32419,10 @@
       <c r="F503" s="49">
         <v>7.3794320072606265E-2</v>
       </c>
-      <c r="G503" s="92"/>
+      <c r="G503" s="93"/>
     </row>
     <row r="504" spans="1:7">
-      <c r="G504" s="92"/>
+      <c r="G504" s="93"/>
     </row>
     <row r="505" spans="1:7">
       <c r="B505" s="56" t="s">
@@ -32426,10 +32440,10 @@
       <c r="F505" s="49">
         <v>6.919423104903244E-2</v>
       </c>
-      <c r="G505" s="92"/>
+      <c r="G505" s="93"/>
     </row>
     <row r="506" spans="1:7">
-      <c r="G506" s="92"/>
+      <c r="G506" s="93"/>
     </row>
     <row r="507" spans="1:7">
       <c r="B507" s="56" t="s">
@@ -32447,10 +32461,10 @@
       <c r="F507" s="49">
         <v>0.12606495001078902</v>
       </c>
-      <c r="G507" s="92"/>
+      <c r="G507" s="93"/>
     </row>
     <row r="508" spans="1:7">
-      <c r="G508" s="92"/>
+      <c r="G508" s="93"/>
     </row>
     <row r="509" spans="1:7">
       <c r="B509" s="56" t="s">
@@ -32468,10 +32482,10 @@
       <c r="F509" s="49">
         <v>9.6136059390048156E-2</v>
       </c>
-      <c r="G509" s="92"/>
+      <c r="G509" s="93"/>
     </row>
     <row r="510" spans="1:7">
-      <c r="G510" s="92"/>
+      <c r="G510" s="93"/>
     </row>
     <row r="511" spans="1:7">
       <c r="B511" s="56" t="s">
@@ -32489,13 +32503,13 @@
       <c r="F511" s="49">
         <v>9.6362714959671275E-2</v>
       </c>
-      <c r="G511" s="92"/>
+      <c r="G511" s="93"/>
     </row>
     <row r="512" spans="1:7">
       <c r="A512" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="G512" s="92"/>
+      <c r="G512" s="93"/>
     </row>
     <row r="513" spans="1:7">
       <c r="B513" s="56" t="s">
@@ -32513,7 +32527,7 @@
       <c r="F513" s="49">
         <v>7.5837610086214882E-2</v>
       </c>
-      <c r="G513" s="92"/>
+      <c r="G513" s="93"/>
     </row>
     <row r="514" spans="1:7" s="3" customFormat="1">
       <c r="A514" s="11" t="s">
@@ -32524,7 +32538,7 @@
       <c r="D514" s="24"/>
       <c r="E514" s="24"/>
       <c r="F514" s="24"/>
-      <c r="G514" s="92"/>
+      <c r="G514" s="93"/>
     </row>
     <row r="515" spans="1:7">
       <c r="B515" s="56" t="s">
@@ -32542,10 +32556,10 @@
       <c r="F515" s="49">
         <v>9.2246443557465974E-2</v>
       </c>
-      <c r="G515" s="92"/>
+      <c r="G515" s="93"/>
     </row>
     <row r="516" spans="1:7">
-      <c r="G516" s="92"/>
+      <c r="G516" s="93"/>
     </row>
     <row r="517" spans="1:7">
       <c r="A517" s="13" t="s">
@@ -32566,7 +32580,7 @@
       <c r="F517" s="49">
         <v>8.4539909971122804E-2</v>
       </c>
-      <c r="G517" s="92"/>
+      <c r="G517" s="93"/>
     </row>
     <row r="518" spans="1:7" ht="15.75" customHeight="1">
       <c r="C518" s="50">
@@ -32585,7 +32599,7 @@
         <f>E518/C518</f>
         <v>8.2259964287302922E-2</v>
       </c>
-      <c r="G518" s="92"/>
+      <c r="G518" s="93"/>
     </row>
     <row r="519" spans="1:7">
       <c r="B519" s="59" t="s">
@@ -32641,7 +32655,7 @@
       </c>
     </row>
     <row r="527" spans="1:7">
-      <c r="G527" s="92"/>
+      <c r="G527" s="93"/>
     </row>
     <row r="528" spans="1:7">
       <c r="B528" s="56" t="s">
@@ -32659,10 +32673,10 @@
       <c r="F528" s="49">
         <v>6.4801526577156515E-2</v>
       </c>
-      <c r="G528" s="92"/>
+      <c r="G528" s="93"/>
     </row>
     <row r="529" spans="1:7">
-      <c r="G529" s="92"/>
+      <c r="G529" s="93"/>
     </row>
     <row r="530" spans="1:7">
       <c r="B530" s="56" t="s">
@@ -32680,10 +32694,10 @@
       <c r="F530" s="49">
         <v>6.9848971182259328E-2</v>
       </c>
-      <c r="G530" s="92"/>
+      <c r="G530" s="93"/>
     </row>
     <row r="531" spans="1:7">
-      <c r="G531" s="92"/>
+      <c r="G531" s="93"/>
     </row>
     <row r="532" spans="1:7">
       <c r="B532" s="56" t="s">
@@ -32701,10 +32715,10 @@
       <c r="F532" s="49">
         <v>6.30090664977834E-2</v>
       </c>
-      <c r="G532" s="92"/>
+      <c r="G532" s="93"/>
     </row>
     <row r="533" spans="1:7">
-      <c r="G533" s="92"/>
+      <c r="G533" s="93"/>
     </row>
     <row r="534" spans="1:7">
       <c r="B534" s="56" t="s">
@@ -32722,10 +32736,10 @@
       <c r="F534" s="49">
         <v>7.3794321078431369E-2</v>
       </c>
-      <c r="G534" s="92"/>
+      <c r="G534" s="93"/>
     </row>
     <row r="535" spans="1:7">
-      <c r="G535" s="92"/>
+      <c r="G535" s="93"/>
     </row>
     <row r="536" spans="1:7">
       <c r="B536" s="56" t="s">
@@ -32743,10 +32757,10 @@
       <c r="F536" s="49">
         <v>6.9194235220368397E-2</v>
       </c>
-      <c r="G536" s="92"/>
+      <c r="G536" s="93"/>
     </row>
     <row r="537" spans="1:7">
-      <c r="G537" s="92"/>
+      <c r="G537" s="93"/>
     </row>
     <row r="538" spans="1:7">
       <c r="B538" s="56" t="s">
@@ -32764,10 +32778,10 @@
       <c r="F538" s="49">
         <v>0.12606495223557218</v>
       </c>
-      <c r="G538" s="92"/>
+      <c r="G538" s="93"/>
     </row>
     <row r="539" spans="1:7">
-      <c r="G539" s="92"/>
+      <c r="G539" s="93"/>
     </row>
     <row r="540" spans="1:7">
       <c r="B540" s="56" t="s">
@@ -32785,10 +32799,10 @@
       <c r="F540" s="49">
         <v>9.6136060296371978E-2</v>
       </c>
-      <c r="G540" s="92"/>
+      <c r="G540" s="93"/>
     </row>
     <row r="541" spans="1:7">
-      <c r="G541" s="92"/>
+      <c r="G541" s="93"/>
     </row>
     <row r="542" spans="1:7">
       <c r="B542" s="56" t="s">
@@ -32806,13 +32820,13 @@
       <c r="F542" s="49">
         <v>9.6362710700757581E-2</v>
       </c>
-      <c r="G542" s="92"/>
+      <c r="G542" s="93"/>
     </row>
     <row r="543" spans="1:7">
       <c r="A543" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G543" s="92"/>
+      <c r="G543" s="93"/>
     </row>
     <row r="544" spans="1:7">
       <c r="B544" s="56" t="s">
@@ -32830,12 +32844,12 @@
       <c r="F544" s="49">
         <v>7.5837607473160748E-2</v>
       </c>
-      <c r="G544" s="92" t="s">
+      <c r="G544" s="93" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="545" spans="2:7" ht="15.75" customHeight="1">
-      <c r="G545" s="92"/>
+      <c r="G545" s="93"/>
     </row>
     <row r="546" spans="2:7">
       <c r="B546" s="56" t="s">
@@ -32853,10 +32867,10 @@
       <c r="F546" s="49">
         <v>9.2246445181016976E-2</v>
       </c>
-      <c r="G546" s="92"/>
+      <c r="G546" s="93"/>
     </row>
     <row r="547" spans="2:7">
-      <c r="G547" s="92"/>
+      <c r="G547" s="93"/>
     </row>
     <row r="548" spans="2:7">
       <c r="B548" s="56" t="s">
@@ -32874,7 +32888,7 @@
       <c r="F548" s="49">
         <v>8.453991293833131E-2</v>
       </c>
-      <c r="G548" s="92"/>
+      <c r="G548" s="93"/>
     </row>
     <row r="549" spans="2:7">
       <c r="C549" s="50">
@@ -32893,7 +32907,7 @@
         <f>E549/C549</f>
         <v>8.2769611290470599E-2</v>
       </c>
-      <c r="G549" s="92"/>
+      <c r="G549" s="93"/>
     </row>
     <row r="550" spans="2:7">
       <c r="B550" s="57"/>
@@ -32923,7 +32937,7 @@
       </c>
     </row>
     <row r="554" spans="2:7">
-      <c r="G554" s="92"/>
+      <c r="G554" s="93"/>
     </row>
     <row r="555" spans="2:7">
       <c r="B555" s="56" t="s">
@@ -32938,10 +32952,10 @@
       <c r="F555" s="49">
         <v>0.54271777777777774</v>
       </c>
-      <c r="G555" s="92"/>
+      <c r="G555" s="93"/>
     </row>
     <row r="556" spans="2:7">
-      <c r="G556" s="92"/>
+      <c r="G556" s="93"/>
     </row>
     <row r="557" spans="2:7">
       <c r="B557" s="56" t="s">
@@ -32956,10 +32970,10 @@
       <c r="F557" s="49">
         <v>0.52657777777777781</v>
       </c>
-      <c r="G557" s="92"/>
+      <c r="G557" s="93"/>
     </row>
     <row r="558" spans="2:7">
-      <c r="G558" s="92"/>
+      <c r="G558" s="93"/>
     </row>
     <row r="559" spans="2:7">
       <c r="B559" s="56" t="s">
@@ -32974,10 +32988,10 @@
       <c r="F559" s="49">
         <v>0.51718750000000002</v>
       </c>
-      <c r="G559" s="92"/>
+      <c r="G559" s="93"/>
     </row>
     <row r="560" spans="2:7">
-      <c r="G560" s="92"/>
+      <c r="G560" s="93"/>
     </row>
     <row r="561" spans="1:7">
       <c r="B561" s="56" t="s">
@@ -32992,10 +33006,10 @@
       <c r="F561" s="49">
         <v>0.49447656249999999</v>
       </c>
-      <c r="G561" s="92"/>
+      <c r="G561" s="93"/>
     </row>
     <row r="562" spans="1:7">
-      <c r="G562" s="92"/>
+      <c r="G562" s="93"/>
     </row>
     <row r="563" spans="1:7">
       <c r="B563" s="56" t="s">
@@ -33010,10 +33024,10 @@
       <c r="F563" s="49">
         <v>0.53269054054054055</v>
       </c>
-      <c r="G563" s="92"/>
+      <c r="G563" s="93"/>
     </row>
     <row r="564" spans="1:7">
-      <c r="G564" s="92"/>
+      <c r="G564" s="93"/>
     </row>
     <row r="565" spans="1:7">
       <c r="B565" s="56" t="s">
@@ -33028,10 +33042,10 @@
       <c r="F565" s="49">
         <v>0.56650379746835444</v>
       </c>
-      <c r="G565" s="92"/>
+      <c r="G565" s="93"/>
     </row>
     <row r="566" spans="1:7">
-      <c r="G566" s="92"/>
+      <c r="G566" s="93"/>
     </row>
     <row r="567" spans="1:7">
       <c r="B567" s="56" t="s">
@@ -33046,10 +33060,10 @@
       <c r="F567" s="49">
         <v>0.61375250000000003</v>
       </c>
-      <c r="G567" s="92"/>
+      <c r="G567" s="93"/>
     </row>
     <row r="568" spans="1:7">
-      <c r="G568" s="92"/>
+      <c r="G568" s="93"/>
     </row>
     <row r="569" spans="1:7">
       <c r="B569" s="56" t="s">
@@ -33064,13 +33078,13 @@
       <c r="F569" s="49">
         <v>0.58190333333333333</v>
       </c>
-      <c r="G569" s="92"/>
+      <c r="G569" s="93"/>
     </row>
     <row r="570" spans="1:7">
       <c r="A570" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="G570" s="92"/>
+      <c r="G570" s="93"/>
     </row>
     <row r="571" spans="1:7">
       <c r="B571" s="56" t="s">
@@ -33085,7 +33099,7 @@
       <c r="F571" s="49">
         <v>0.61942467532467527</v>
       </c>
-      <c r="G571" s="92"/>
+      <c r="G571" s="93"/>
     </row>
     <row r="572" spans="1:7" s="3" customFormat="1">
       <c r="A572" s="11" t="s">
@@ -33096,7 +33110,7 @@
       <c r="D572" s="24"/>
       <c r="E572" s="24"/>
       <c r="F572" s="24"/>
-      <c r="G572" s="92"/>
+      <c r="G572" s="93"/>
     </row>
     <row r="573" spans="1:7">
       <c r="B573" s="56" t="s">
@@ -33111,10 +33125,10 @@
       <c r="F573" s="49">
         <v>0.62239666666666671</v>
       </c>
-      <c r="G573" s="92"/>
+      <c r="G573" s="93"/>
     </row>
     <row r="574" spans="1:7">
-      <c r="G574" s="92"/>
+      <c r="G574" s="93"/>
     </row>
     <row r="575" spans="1:7">
       <c r="A575" s="13" t="s">
@@ -33132,7 +33146,7 @@
       <c r="F575" s="49">
         <v>0.64385576923076926</v>
       </c>
-      <c r="G575" s="92" t="s">
+      <c r="G575" s="93" t="s">
         <v>189</v>
       </c>
     </row>
@@ -33153,7 +33167,7 @@
         <f>E576/C576</f>
         <v>0.57002986198243411</v>
       </c>
-      <c r="G576" s="92"/>
+      <c r="G576" s="93"/>
     </row>
     <row r="577" spans="2:7">
       <c r="B577" s="59" t="s">
@@ -33211,7 +33225,7 @@
       </c>
     </row>
     <row r="586" spans="2:7">
-      <c r="G586" s="92"/>
+      <c r="G586" s="93"/>
     </row>
     <row r="587" spans="2:7">
       <c r="B587" s="56" t="s">
@@ -33229,10 +33243,10 @@
       <c r="F587" s="49">
         <v>6.4801510202808429E-2</v>
       </c>
-      <c r="G587" s="92"/>
+      <c r="G587" s="93"/>
     </row>
     <row r="588" spans="2:7">
-      <c r="G588" s="92"/>
+      <c r="G588" s="93"/>
     </row>
     <row r="589" spans="2:7">
       <c r="B589" s="56" t="s">
@@ -33250,10 +33264,10 @@
       <c r="F589" s="49">
         <v>6.9848944780797798E-2</v>
       </c>
-      <c r="G589" s="92"/>
+      <c r="G589" s="93"/>
     </row>
     <row r="590" spans="2:7">
-      <c r="G590" s="92"/>
+      <c r="G590" s="93"/>
     </row>
     <row r="591" spans="2:7">
       <c r="B591" s="56" t="s">
@@ -33271,10 +33285,10 @@
       <c r="F591" s="49">
         <v>6.3009090451990296E-2</v>
       </c>
-      <c r="G591" s="92"/>
+      <c r="G591" s="93"/>
     </row>
     <row r="592" spans="2:7">
-      <c r="G592" s="92"/>
+      <c r="G592" s="93"/>
     </row>
     <row r="593" spans="1:7">
       <c r="B593" s="56" t="s">
@@ -33292,10 +33306,10 @@
       <c r="F593" s="49">
         <v>7.3794295805646268E-2</v>
       </c>
-      <c r="G593" s="92"/>
+      <c r="G593" s="93"/>
     </row>
     <row r="594" spans="1:7">
-      <c r="G594" s="92"/>
+      <c r="G594" s="93"/>
     </row>
     <row r="595" spans="1:7">
       <c r="B595" s="56" t="s">
@@ -33313,10 +33327,10 @@
       <c r="F595" s="49">
         <v>6.9194232605885947E-2</v>
       </c>
-      <c r="G595" s="92"/>
+      <c r="G595" s="93"/>
     </row>
     <row r="596" spans="1:7">
-      <c r="G596" s="92"/>
+      <c r="G596" s="93"/>
     </row>
     <row r="597" spans="1:7">
       <c r="B597" s="56" t="s">
@@ -33334,10 +33348,10 @@
       <c r="F597" s="49">
         <v>0.1260649383562743</v>
       </c>
-      <c r="G597" s="92"/>
+      <c r="G597" s="93"/>
     </row>
     <row r="598" spans="1:7">
-      <c r="G598" s="92"/>
+      <c r="G598" s="93"/>
     </row>
     <row r="599" spans="1:7">
       <c r="B599" s="56" t="s">
@@ -33355,10 +33369,10 @@
       <c r="F599" s="49">
         <v>9.6136038819034264E-2</v>
       </c>
-      <c r="G599" s="92"/>
+      <c r="G599" s="93"/>
     </row>
     <row r="600" spans="1:7">
-      <c r="G600" s="92"/>
+      <c r="G600" s="93"/>
     </row>
     <row r="601" spans="1:7">
       <c r="A601" s="4" t="s">
@@ -33379,10 +33393,10 @@
       <c r="F601" s="49">
         <v>9.6362699580370137E-2</v>
       </c>
-      <c r="G601" s="92"/>
+      <c r="G601" s="93"/>
     </row>
     <row r="602" spans="1:7">
-      <c r="G602" s="92"/>
+      <c r="G602" s="93"/>
     </row>
     <row r="603" spans="1:7" s="3" customFormat="1">
       <c r="A603" s="11" t="s">
@@ -33403,10 +33417,10 @@
       <c r="F603" s="49">
         <v>7.5837594335446776E-2</v>
       </c>
-      <c r="G603" s="92"/>
+      <c r="G603" s="93"/>
     </row>
     <row r="604" spans="1:7">
-      <c r="G604" s="92"/>
+      <c r="G604" s="93"/>
     </row>
     <row r="605" spans="1:7">
       <c r="B605" s="56" t="s">
@@ -33424,13 +33438,13 @@
       <c r="F605" s="49">
         <v>9.224643592282393E-2</v>
       </c>
-      <c r="G605" s="92"/>
+      <c r="G605" s="93"/>
     </row>
     <row r="606" spans="1:7">
       <c r="A606" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G606" s="92"/>
+      <c r="G606" s="93"/>
     </row>
     <row r="607" spans="1:7">
       <c r="B607" s="56" t="s">
@@ -33448,7 +33462,7 @@
       <c r="F607" s="49">
         <v>8.4539933129055195E-2</v>
       </c>
-      <c r="G607" s="92"/>
+      <c r="G607" s="93"/>
     </row>
     <row r="608" spans="1:7">
       <c r="C608" s="50">
@@ -33467,7 +33481,7 @@
         <f>E608/C608</f>
         <v>8.2510805159550782E-2</v>
       </c>
-      <c r="G608" s="92"/>
+      <c r="G608" s="93"/>
     </row>
     <row r="609" spans="2:7">
       <c r="B609" s="57"/>
@@ -33496,7 +33510,7 @@
       </c>
     </row>
     <row r="613" spans="2:7">
-      <c r="G613" s="92"/>
+      <c r="G613" s="93"/>
     </row>
     <row r="614" spans="2:7">
       <c r="B614" s="56" t="s">
@@ -33511,10 +33525,10 @@
       <c r="F614" s="49">
         <v>0</v>
       </c>
-      <c r="G614" s="92"/>
+      <c r="G614" s="93"/>
     </row>
     <row r="615" spans="2:7">
-      <c r="G615" s="92"/>
+      <c r="G615" s="93"/>
     </row>
     <row r="616" spans="2:7">
       <c r="B616" s="56" t="s">
@@ -33529,10 +33543,10 @@
       <c r="F616" s="49">
         <v>0.52657786912519067</v>
       </c>
-      <c r="G616" s="92"/>
+      <c r="G616" s="93"/>
     </row>
     <row r="617" spans="2:7">
-      <c r="G617" s="92"/>
+      <c r="G617" s="93"/>
     </row>
     <row r="618" spans="2:7">
       <c r="B618" s="56" t="s">
@@ -33547,10 +33561,10 @@
       <c r="F618" s="49">
         <v>0.51726476190476189</v>
       </c>
-      <c r="G618" s="92"/>
+      <c r="G618" s="93"/>
     </row>
     <row r="619" spans="2:7">
-      <c r="G619" s="92"/>
+      <c r="G619" s="93"/>
     </row>
     <row r="620" spans="2:7">
       <c r="B620" s="56" t="s">
@@ -33565,10 +33579,10 @@
       <c r="F620" s="49">
         <v>0.49447724637681156</v>
       </c>
-      <c r="G620" s="92"/>
+      <c r="G620" s="93"/>
     </row>
     <row r="621" spans="2:7">
-      <c r="G621" s="92"/>
+      <c r="G621" s="93"/>
     </row>
     <row r="622" spans="2:7">
       <c r="B622" s="56" t="s">
@@ -33583,10 +33597,10 @@
       <c r="F622" s="49">
         <v>0.53269011494252871</v>
       </c>
-      <c r="G622" s="92"/>
+      <c r="G622" s="93"/>
     </row>
     <row r="623" spans="2:7">
-      <c r="G623" s="92"/>
+      <c r="G623" s="93"/>
     </row>
     <row r="624" spans="2:7">
       <c r="B624" s="56" t="s">
@@ -33601,10 +33615,10 @@
       <c r="F624" s="49">
         <v>0.56650371584699455</v>
       </c>
-      <c r="G624" s="92"/>
+      <c r="G624" s="93"/>
     </row>
     <row r="625" spans="1:7">
-      <c r="G625" s="92"/>
+      <c r="G625" s="93"/>
     </row>
     <row r="626" spans="1:7">
       <c r="B626" s="56" t="s">
@@ -33619,10 +33633,10 @@
       <c r="F626" s="49">
         <v>0.61375289655172416</v>
       </c>
-      <c r="G626" s="92"/>
+      <c r="G626" s="93"/>
     </row>
     <row r="627" spans="1:7">
-      <c r="G627" s="92"/>
+      <c r="G627" s="93"/>
     </row>
     <row r="628" spans="1:7">
       <c r="B628" s="56" t="s">
@@ -33637,10 +33651,10 @@
       <c r="F628" s="49">
         <v>0.58190318750000003</v>
       </c>
-      <c r="G628" s="92"/>
+      <c r="G628" s="93"/>
     </row>
     <row r="629" spans="1:7">
-      <c r="G629" s="92"/>
+      <c r="G629" s="93"/>
     </row>
     <row r="630" spans="1:7">
       <c r="B630" s="56" t="s">
@@ -33655,10 +33669,10 @@
       <c r="F630" s="49">
         <v>0.61942520000000001</v>
       </c>
-      <c r="G630" s="92"/>
+      <c r="G630" s="93"/>
     </row>
     <row r="631" spans="1:7">
-      <c r="G631" s="92"/>
+      <c r="G631" s="93"/>
     </row>
     <row r="632" spans="1:7">
       <c r="A632" s="13" t="s">
@@ -33676,10 +33690,10 @@
       <c r="F632" s="49">
         <v>0.62239650000000002</v>
       </c>
-      <c r="G632" s="92"/>
+      <c r="G632" s="93"/>
     </row>
     <row r="633" spans="1:7">
-      <c r="G633" s="92" t="s">
+      <c r="G633" s="93" t="s">
         <v>190</v>
       </c>
     </row>
@@ -33696,7 +33710,7 @@
       <c r="F634" s="49">
         <v>0.64385552083333342</v>
       </c>
-      <c r="G634" s="92"/>
+      <c r="G634" s="93"/>
     </row>
     <row r="635" spans="1:7">
       <c r="C635" s="50">
@@ -33715,7 +33729,7 @@
         <f>E635/C635</f>
         <v>0.53612958543154943</v>
       </c>
-      <c r="G635" s="92"/>
+      <c r="G635" s="93"/>
     </row>
     <row r="636" spans="1:7">
       <c r="B636" s="59" t="s">
@@ -33765,7 +33779,7 @@
       <c r="G643" s="89"/>
     </row>
     <row r="644" spans="2:7">
-      <c r="G644" s="92"/>
+      <c r="G644" s="93"/>
     </row>
     <row r="645" spans="2:7">
       <c r="B645" s="56" t="s">
@@ -33783,10 +33797,10 @@
       <c r="F645" s="49">
         <v>6.4801526470306903E-2</v>
       </c>
-      <c r="G645" s="92"/>
+      <c r="G645" s="93"/>
     </row>
     <row r="646" spans="2:7">
-      <c r="G646" s="92"/>
+      <c r="G646" s="93"/>
     </row>
     <row r="647" spans="2:7">
       <c r="B647" s="56" t="s">
@@ -33804,10 +33818,10 @@
       <c r="F647" s="49">
         <v>6.9848971483880667E-2</v>
       </c>
-      <c r="G647" s="92"/>
+      <c r="G647" s="93"/>
     </row>
     <row r="648" spans="2:7">
-      <c r="G648" s="92"/>
+      <c r="G648" s="93"/>
     </row>
     <row r="649" spans="2:7">
       <c r="B649" s="56" t="s">
@@ -33825,10 +33839,10 @@
       <c r="F649" s="49">
         <v>6.3009067362515617E-2</v>
       </c>
-      <c r="G649" s="92"/>
+      <c r="G649" s="93"/>
     </row>
     <row r="650" spans="2:7">
-      <c r="G650" s="92"/>
+      <c r="G650" s="93"/>
     </row>
     <row r="651" spans="2:7">
       <c r="B651" s="56" t="s">
@@ -33846,10 +33860,10 @@
       <c r="F651" s="49">
         <v>7.3794322125675549E-2</v>
       </c>
-      <c r="G651" s="92"/>
+      <c r="G651" s="93"/>
     </row>
     <row r="652" spans="2:7">
-      <c r="G652" s="92"/>
+      <c r="G652" s="93"/>
     </row>
     <row r="653" spans="2:7">
       <c r="B653" s="56" t="s">
@@ -33867,10 +33881,10 @@
       <c r="F653" s="49">
         <v>6.9194234229050772E-2</v>
       </c>
-      <c r="G653" s="92"/>
+      <c r="G653" s="93"/>
     </row>
     <row r="654" spans="2:7">
-      <c r="G654" s="92"/>
+      <c r="G654" s="93"/>
     </row>
     <row r="655" spans="2:7">
       <c r="B655" s="56" t="s">
@@ -33888,10 +33902,10 @@
       <c r="F655" s="49">
         <v>0.12606495230351908</v>
       </c>
-      <c r="G655" s="92"/>
+      <c r="G655" s="93"/>
     </row>
     <row r="656" spans="2:7">
-      <c r="G656" s="92"/>
+      <c r="G656" s="93"/>
     </row>
     <row r="657" spans="1:7">
       <c r="B657" s="56" t="s">
@@ -33909,10 +33923,10 @@
       <c r="F657" s="49">
         <v>9.6136059607656574E-2</v>
       </c>
-      <c r="G657" s="92"/>
+      <c r="G657" s="93"/>
     </row>
     <row r="658" spans="1:7">
-      <c r="G658" s="92"/>
+      <c r="G658" s="93"/>
     </row>
     <row r="659" spans="1:7">
       <c r="A659" s="4" t="s">
@@ -33933,10 +33947,10 @@
       <c r="F659" s="49">
         <v>9.6362711915768923E-2</v>
       </c>
-      <c r="G659" s="92"/>
+      <c r="G659" s="93"/>
     </row>
     <row r="660" spans="1:7">
-      <c r="G660" s="92"/>
+      <c r="G660" s="93"/>
     </row>
     <row r="661" spans="1:7" s="3" customFormat="1">
       <c r="A661" s="11" t="s">
@@ -33957,10 +33971,10 @@
       <c r="F661" s="49">
         <v>7.5837607730531775E-2</v>
       </c>
-      <c r="G661" s="92"/>
+      <c r="G661" s="93"/>
     </row>
     <row r="662" spans="1:7">
-      <c r="G662" s="92"/>
+      <c r="G662" s="93"/>
     </row>
     <row r="663" spans="1:7">
       <c r="B663" s="56" t="s">
@@ -33978,13 +33992,13 @@
       <c r="F663" s="49">
         <v>9.2246445678359379E-2</v>
       </c>
-      <c r="G663" s="92"/>
+      <c r="G663" s="93"/>
     </row>
     <row r="664" spans="1:7">
       <c r="A664" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G664" s="92"/>
+      <c r="G664" s="93"/>
     </row>
     <row r="665" spans="1:7">
       <c r="B665" s="56" t="s">
@@ -34002,7 +34016,7 @@
       <c r="F665" s="49">
         <v>8.4539912472139461E-2</v>
       </c>
-      <c r="G665" s="92"/>
+      <c r="G665" s="93"/>
     </row>
     <row r="666" spans="1:7">
       <c r="C666" s="50">
@@ -34021,7 +34035,7 @@
         <f>E666/C666</f>
         <v>8.2788709920572939E-2</v>
       </c>
-      <c r="G666" s="92"/>
+      <c r="G666" s="93"/>
     </row>
     <row r="667" spans="1:7">
       <c r="B667" s="57"/>
@@ -34050,7 +34064,7 @@
       </c>
     </row>
     <row r="671" spans="1:7">
-      <c r="G671" s="92"/>
+      <c r="G671" s="93"/>
     </row>
     <row r="672" spans="1:7">
       <c r="B672" s="56" t="s">
@@ -34065,10 +34079,10 @@
       <c r="F672" s="49">
         <v>0.54271818181818177</v>
       </c>
-      <c r="G672" s="92"/>
+      <c r="G672" s="93"/>
     </row>
     <row r="673" spans="2:7">
-      <c r="G673" s="92"/>
+      <c r="G673" s="93"/>
     </row>
     <row r="674" spans="2:7">
       <c r="B674" s="56" t="s">
@@ -34083,10 +34097,10 @@
       <c r="F674" s="49">
         <v>0.52658333333333329</v>
       </c>
-      <c r="G674" s="92"/>
+      <c r="G674" s="93"/>
     </row>
     <row r="675" spans="2:7">
-      <c r="G675" s="92"/>
+      <c r="G675" s="93"/>
     </row>
     <row r="676" spans="2:7">
       <c r="B676" s="56" t="s">
@@ -34101,10 +34115,10 @@
       <c r="F676" s="49">
         <v>0.51726666666666665</v>
       </c>
-      <c r="G676" s="92"/>
+      <c r="G676" s="93"/>
     </row>
     <row r="677" spans="2:7">
-      <c r="G677" s="92"/>
+      <c r="G677" s="93"/>
     </row>
     <row r="678" spans="2:7">
       <c r="B678" s="56" t="s">
@@ -34119,10 +34133,10 @@
       <c r="F678" s="49">
         <v>0.49448333333333333</v>
       </c>
-      <c r="G678" s="92"/>
+      <c r="G678" s="93"/>
     </row>
     <row r="679" spans="2:7">
-      <c r="G679" s="92"/>
+      <c r="G679" s="93"/>
     </row>
     <row r="680" spans="2:7">
       <c r="B680" s="56" t="s">
@@ -34137,10 +34151,10 @@
       <c r="F680" s="49">
         <v>0.53269999999999995</v>
       </c>
-      <c r="G680" s="92"/>
+      <c r="G680" s="93"/>
     </row>
     <row r="681" spans="2:7">
-      <c r="G681" s="92"/>
+      <c r="G681" s="93"/>
     </row>
     <row r="682" spans="2:7">
       <c r="B682" s="56" t="s">
@@ -34155,10 +34169,10 @@
       <c r="F682" s="49">
         <v>0.5665</v>
       </c>
-      <c r="G682" s="92"/>
+      <c r="G682" s="93"/>
     </row>
     <row r="683" spans="2:7">
-      <c r="G683" s="92"/>
+      <c r="G683" s="93"/>
     </row>
     <row r="684" spans="2:7">
       <c r="B684" s="56" t="s">
@@ -34173,10 +34187,10 @@
       <c r="F684" s="49">
         <v>0.61375999999999997</v>
       </c>
-      <c r="G684" s="92"/>
+      <c r="G684" s="93"/>
     </row>
     <row r="685" spans="2:7">
-      <c r="G685" s="92"/>
+      <c r="G685" s="93"/>
     </row>
     <row r="686" spans="2:7">
       <c r="B686" s="56" t="s">
@@ -34191,10 +34205,10 @@
       <c r="F686" s="49">
         <v>0.58189999999999997</v>
       </c>
-      <c r="G686" s="92"/>
+      <c r="G686" s="93"/>
     </row>
     <row r="687" spans="2:7">
-      <c r="G687" s="92"/>
+      <c r="G687" s="93"/>
     </row>
     <row r="688" spans="2:7">
       <c r="B688" s="56" t="s">
@@ -34209,10 +34223,10 @@
       <c r="F688" s="49">
         <v>0.61942857142857144</v>
       </c>
-      <c r="G688" s="92"/>
+      <c r="G688" s="93"/>
     </row>
     <row r="689" spans="1:7">
-      <c r="G689" s="92"/>
+      <c r="G689" s="93"/>
     </row>
     <row r="690" spans="1:7">
       <c r="A690" s="13" t="s">
@@ -34230,10 +34244,10 @@
       <c r="F690" s="49">
         <v>0.62239999999999995</v>
       </c>
-      <c r="G690" s="92"/>
+      <c r="G690" s="93"/>
     </row>
     <row r="691" spans="1:7">
-      <c r="G691" s="92" t="s">
+      <c r="G691" s="93" t="s">
         <v>218</v>
       </c>
     </row>
@@ -34250,7 +34264,7 @@
       <c r="F692" s="49">
         <v>0.64385714285714291</v>
       </c>
-      <c r="G692" s="92"/>
+      <c r="G692" s="93"/>
     </row>
     <row r="693" spans="1:7">
       <c r="C693" s="50">
@@ -34269,7 +34283,7 @@
         <f>E693/C693</f>
         <v>0.56456774193548387</v>
       </c>
-      <c r="G693" s="92"/>
+      <c r="G693" s="93"/>
     </row>
     <row r="694" spans="1:7">
       <c r="B694" s="59" t="s">
@@ -34318,7 +34332,7 @@
       </c>
     </row>
     <row r="702" spans="1:7">
-      <c r="G702" s="92"/>
+      <c r="G702" s="93"/>
     </row>
     <row r="703" spans="1:7">
       <c r="B703" s="56" t="s">
@@ -34333,10 +34347,10 @@
       <c r="F703" s="49">
         <v>0.54271999999999998</v>
       </c>
-      <c r="G703" s="92"/>
+      <c r="G703" s="93"/>
     </row>
     <row r="704" spans="1:7">
-      <c r="G704" s="92"/>
+      <c r="G704" s="93"/>
     </row>
     <row r="705" spans="1:7">
       <c r="B705" s="56" t="s">
@@ -34351,10 +34365,10 @@
       <c r="F705" s="49">
         <v>0.52657647058823531</v>
       </c>
-      <c r="G705" s="92"/>
+      <c r="G705" s="93"/>
     </row>
     <row r="706" spans="1:7">
-      <c r="G706" s="92"/>
+      <c r="G706" s="93"/>
     </row>
     <row r="707" spans="1:7">
       <c r="B707" s="56" t="s">
@@ -34369,10 +34383,10 @@
       <c r="F707" s="49">
         <v>0.51726666666666665</v>
       </c>
-      <c r="G707" s="92"/>
+      <c r="G707" s="93"/>
     </row>
     <row r="708" spans="1:7">
-      <c r="G708" s="92"/>
+      <c r="G708" s="93"/>
     </row>
     <row r="709" spans="1:7">
       <c r="B709" s="56" t="s">
@@ -34387,10 +34401,10 @@
       <c r="F709" s="49">
         <v>0.49447631578947365</v>
       </c>
-      <c r="G709" s="92"/>
+      <c r="G709" s="93"/>
     </row>
     <row r="710" spans="1:7">
-      <c r="G710" s="92"/>
+      <c r="G710" s="93"/>
     </row>
     <row r="711" spans="1:7">
       <c r="B711" s="56" t="s">
@@ -34405,10 +34419,10 @@
       <c r="F711" s="49">
         <v>0.53268965517241385</v>
       </c>
-      <c r="G711" s="92"/>
+      <c r="G711" s="93"/>
     </row>
     <row r="712" spans="1:7">
-      <c r="G712" s="92"/>
+      <c r="G712" s="93"/>
     </row>
     <row r="713" spans="1:7">
       <c r="B713" s="56" t="s">
@@ -34423,10 +34437,10 @@
       <c r="F713" s="49">
         <v>0.56650263157894731</v>
       </c>
-      <c r="G713" s="92"/>
+      <c r="G713" s="93"/>
     </row>
     <row r="714" spans="1:7">
-      <c r="G714" s="92"/>
+      <c r="G714" s="93"/>
     </row>
     <row r="715" spans="1:7">
       <c r="B715" s="56" t="s">
@@ -34441,10 +34455,10 @@
       <c r="F715" s="49">
         <v>0.61375185185185188</v>
       </c>
-      <c r="G715" s="92"/>
+      <c r="G715" s="93"/>
     </row>
     <row r="716" spans="1:7">
-      <c r="G716" s="92"/>
+      <c r="G716" s="93"/>
     </row>
     <row r="717" spans="1:7">
       <c r="A717" s="4" t="s">
@@ -34462,10 +34476,10 @@
       <c r="F717" s="49">
         <v>0.58190232558139532</v>
       </c>
-      <c r="G717" s="92"/>
+      <c r="G717" s="93"/>
     </row>
     <row r="718" spans="1:7">
-      <c r="G718" s="92"/>
+      <c r="G718" s="93"/>
     </row>
     <row r="719" spans="1:7" s="3" customFormat="1">
       <c r="A719" s="11" t="s">
@@ -34484,10 +34498,10 @@
       <c r="F719" s="49">
         <v>0.61942564102564102</v>
       </c>
-      <c r="G719" s="92"/>
+      <c r="G719" s="93"/>
     </row>
     <row r="720" spans="1:7">
-      <c r="G720" s="92"/>
+      <c r="G720" s="93"/>
     </row>
     <row r="721" spans="1:7">
       <c r="B721" s="56" t="s">
@@ -34502,13 +34516,13 @@
       <c r="F721" s="49">
         <v>0.62239666666666671</v>
       </c>
-      <c r="G721" s="92"/>
+      <c r="G721" s="93"/>
     </row>
     <row r="722" spans="1:7">
       <c r="A722" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G722" s="92"/>
+      <c r="G722" s="93"/>
     </row>
     <row r="723" spans="1:7">
       <c r="B723" s="56" t="s">
@@ -34523,7 +34537,7 @@
       <c r="F723" s="49">
         <v>0.64385714285714291</v>
       </c>
-      <c r="G723" s="92"/>
+      <c r="G723" s="93"/>
     </row>
     <row r="724" spans="1:7">
       <c r="C724" s="50">
@@ -34542,7 +34556,7 @@
         <f>E724/C724</f>
         <v>0.57208666666666663</v>
       </c>
-      <c r="G724" s="92"/>
+      <c r="G724" s="93"/>
     </row>
     <row r="725" spans="1:7">
       <c r="B725" s="59" t="s">
@@ -34596,7 +34610,7 @@
       <c r="G732" s="89"/>
     </row>
     <row r="733" spans="1:7">
-      <c r="G733" s="92"/>
+      <c r="G733" s="93"/>
     </row>
     <row r="734" spans="1:7">
       <c r="B734" s="56" t="s">
@@ -34614,10 +34628,10 @@
       <c r="F734" s="49">
         <v>6.4801485542488282E-2</v>
       </c>
-      <c r="G734" s="92"/>
+      <c r="G734" s="93"/>
     </row>
     <row r="735" spans="1:7">
-      <c r="G735" s="92"/>
+      <c r="G735" s="93"/>
     </row>
     <row r="736" spans="1:7">
       <c r="B736" s="56" t="s">
@@ -34635,10 +34649,10 @@
       <c r="F736" s="49">
         <v>6.984898342467584E-2</v>
       </c>
-      <c r="G736" s="92"/>
+      <c r="G736" s="93"/>
     </row>
     <row r="737" spans="1:7">
-      <c r="G737" s="92"/>
+      <c r="G737" s="93"/>
     </row>
     <row r="738" spans="1:7">
       <c r="B738" s="56" t="s">
@@ -34656,10 +34670,10 @@
       <c r="F738" s="49">
         <v>6.3009075341410981E-2</v>
       </c>
-      <c r="G738" s="92"/>
+      <c r="G738" s="93"/>
     </row>
     <row r="739" spans="1:7">
-      <c r="G739" s="92"/>
+      <c r="G739" s="93"/>
     </row>
     <row r="740" spans="1:7">
       <c r="B740" s="56" t="s">
@@ -34677,10 +34691,10 @@
       <c r="F740" s="49">
         <v>7.3794313438045364E-2</v>
       </c>
-      <c r="G740" s="92"/>
+      <c r="G740" s="93"/>
     </row>
     <row r="741" spans="1:7">
-      <c r="G741" s="92"/>
+      <c r="G741" s="93"/>
     </row>
     <row r="742" spans="1:7">
       <c r="B742" s="56" t="s">
@@ -34698,10 +34712,10 @@
       <c r="F742" s="49">
         <v>6.9222721590954911E-2</v>
       </c>
-      <c r="G742" s="92"/>
+      <c r="G742" s="93"/>
     </row>
     <row r="743" spans="1:7">
-      <c r="G743" s="92"/>
+      <c r="G743" s="93"/>
     </row>
     <row r="744" spans="1:7">
       <c r="B744" s="56" t="s">
@@ -34719,10 +34733,10 @@
       <c r="F744" s="49">
         <v>0.1260649376539108</v>
       </c>
-      <c r="G744" s="92"/>
+      <c r="G744" s="93"/>
     </row>
     <row r="745" spans="1:7">
-      <c r="G745" s="92"/>
+      <c r="G745" s="93"/>
     </row>
     <row r="746" spans="1:7">
       <c r="B746" s="56" t="s">
@@ -34740,10 +34754,10 @@
       <c r="F746" s="49">
         <v>9.6136034058926206E-2</v>
       </c>
-      <c r="G746" s="92"/>
+      <c r="G746" s="93"/>
     </row>
     <row r="747" spans="1:7">
-      <c r="G747" s="92"/>
+      <c r="G747" s="93"/>
     </row>
     <row r="748" spans="1:7">
       <c r="A748" s="4" t="s">
@@ -34764,10 +34778,10 @@
       <c r="F748" s="49">
         <v>9.6362716722692601E-2</v>
       </c>
-      <c r="G748" s="92"/>
+      <c r="G748" s="93"/>
     </row>
     <row r="749" spans="1:7">
-      <c r="G749" s="92"/>
+      <c r="G749" s="93"/>
     </row>
     <row r="750" spans="1:7" s="3" customFormat="1">
       <c r="A750" s="11" t="s">
@@ -34788,10 +34802,10 @@
       <c r="F750" s="49">
         <v>7.5837634450967251E-2</v>
       </c>
-      <c r="G750" s="92"/>
+      <c r="G750" s="93"/>
     </row>
     <row r="751" spans="1:7">
-      <c r="G751" s="92"/>
+      <c r="G751" s="93"/>
     </row>
     <row r="752" spans="1:7">
       <c r="B752" s="56" t="s">
@@ -34809,13 +34823,13 @@
       <c r="F752" s="49">
         <v>9.224648263509122E-2</v>
       </c>
-      <c r="G752" s="92"/>
+      <c r="G752" s="93"/>
     </row>
     <row r="753" spans="1:7">
       <c r="A753" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G753" s="92" t="s">
+      <c r="G753" s="93" t="s">
         <v>192</v>
       </c>
     </row>
@@ -34835,7 +34849,7 @@
       <c r="F754" s="49">
         <v>8.4539915639461075E-2</v>
       </c>
-      <c r="G754" s="92"/>
+      <c r="G754" s="93"/>
     </row>
     <row r="755" spans="1:7">
       <c r="C755" s="50">
@@ -34854,7 +34868,7 @@
         <f>E755/C755</f>
         <v>8.16962556905724E-2</v>
       </c>
-      <c r="G755" s="92"/>
+      <c r="G755" s="93"/>
     </row>
     <row r="756" spans="1:7">
       <c r="B756" s="57"/>
@@ -34878,7 +34892,7 @@
       <c r="F759" s="49">
         <v>0.56747297297297294</v>
       </c>
-      <c r="G759" s="93" t="s">
+      <c r="G759" s="94" t="s">
         <v>306</v>
       </c>
     </row>
@@ -35146,7 +35160,7 @@
       <c r="G790" s="89"/>
     </row>
     <row r="791" spans="2:7">
-      <c r="G791" s="92"/>
+      <c r="G791" s="93"/>
     </row>
     <row r="792" spans="2:7">
       <c r="B792" s="56" t="s">
@@ -35161,10 +35175,10 @@
       <c r="F792" s="49">
         <v>6.4801632352489952E-2</v>
       </c>
-      <c r="G792" s="92"/>
+      <c r="G792" s="93"/>
     </row>
     <row r="793" spans="2:7">
-      <c r="G793" s="92"/>
+      <c r="G793" s="93"/>
     </row>
     <row r="794" spans="2:7">
       <c r="B794" s="56" t="s">
@@ -35179,10 +35193,10 @@
       <c r="F794" s="49">
         <v>6.9848981077147015E-2</v>
       </c>
-      <c r="G794" s="92"/>
+      <c r="G794" s="93"/>
     </row>
     <row r="795" spans="2:7">
-      <c r="G795" s="92"/>
+      <c r="G795" s="93"/>
     </row>
     <row r="796" spans="2:7">
       <c r="B796" s="56" t="s">
@@ -35197,10 +35211,10 @@
       <c r="F796" s="49">
         <v>6.3009100612325147E-2</v>
       </c>
-      <c r="G796" s="92"/>
+      <c r="G796" s="93"/>
     </row>
     <row r="797" spans="2:7">
-      <c r="G797" s="92"/>
+      <c r="G797" s="93"/>
     </row>
     <row r="798" spans="2:7">
       <c r="B798" s="56" t="s">
@@ -35215,10 +35229,10 @@
       <c r="F798" s="49">
         <v>7.3794356227880609E-2</v>
       </c>
-      <c r="G798" s="92"/>
+      <c r="G798" s="93"/>
     </row>
     <row r="799" spans="2:7">
-      <c r="G799" s="92"/>
+      <c r="G799" s="93"/>
     </row>
     <row r="800" spans="2:7">
       <c r="B800" s="56" t="s">
@@ -35233,10 +35247,10 @@
       <c r="F800" s="49">
         <v>6.9222807142349005E-2</v>
       </c>
-      <c r="G800" s="92"/>
+      <c r="G800" s="93"/>
     </row>
     <row r="801" spans="1:7">
-      <c r="G801" s="92"/>
+      <c r="G801" s="93"/>
     </row>
     <row r="802" spans="1:7">
       <c r="B802" s="56" t="s">
@@ -35251,10 +35265,10 @@
       <c r="F802" s="49">
         <v>0.12606489015459724</v>
       </c>
-      <c r="G802" s="92"/>
+      <c r="G802" s="93"/>
     </row>
     <row r="803" spans="1:7">
-      <c r="G803" s="92"/>
+      <c r="G803" s="93"/>
     </row>
     <row r="804" spans="1:7">
       <c r="B804" s="56" t="s">
@@ -35269,10 +35283,10 @@
       <c r="F804" s="49">
         <v>9.6136211245569786E-2</v>
       </c>
-      <c r="G804" s="92"/>
+      <c r="G804" s="93"/>
     </row>
     <row r="805" spans="1:7">
-      <c r="G805" s="92"/>
+      <c r="G805" s="93"/>
     </row>
     <row r="806" spans="1:7">
       <c r="A806" s="4" t="s">
@@ -35290,10 +35304,10 @@
       <c r="F806" s="49">
         <v>9.6362809943261962E-2</v>
       </c>
-      <c r="G806" s="92"/>
+      <c r="G806" s="93"/>
     </row>
     <row r="807" spans="1:7">
-      <c r="G807" s="92"/>
+      <c r="G807" s="93"/>
     </row>
     <row r="808" spans="1:7" s="3" customFormat="1">
       <c r="A808" s="11" t="s">
@@ -35312,10 +35326,10 @@
       <c r="F808" s="49">
         <v>7.5837609692405786E-2</v>
       </c>
-      <c r="G808" s="92"/>
+      <c r="G808" s="93"/>
     </row>
     <row r="809" spans="1:7">
-      <c r="G809" s="92"/>
+      <c r="G809" s="93"/>
     </row>
     <row r="810" spans="1:7">
       <c r="B810" s="56" t="s">
@@ -35330,13 +35344,13 @@
       <c r="F810" s="49">
         <v>9.2246528818299853E-2</v>
       </c>
-      <c r="G810" s="92"/>
+      <c r="G810" s="93"/>
     </row>
     <row r="811" spans="1:7">
       <c r="A811" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G811" s="92"/>
+      <c r="G811" s="93"/>
     </row>
     <row r="812" spans="1:7">
       <c r="B812" s="56" t="s">
@@ -35351,7 +35365,7 @@
       <c r="F812" s="49">
         <v>8.4540081270779457E-2</v>
       </c>
-      <c r="G812" s="92"/>
+      <c r="G812" s="93"/>
     </row>
     <row r="813" spans="1:7">
       <c r="C813" s="50">
@@ -35370,7 +35384,7 @@
         <f>E813/C813</f>
         <v>8.2099042321152005E-2</v>
       </c>
-      <c r="G813" s="92"/>
+      <c r="G813" s="93"/>
     </row>
     <row r="814" spans="1:7">
       <c r="B814" s="59" t="s">
@@ -35421,7 +35435,7 @@
       </c>
     </row>
     <row r="822" spans="2:7">
-      <c r="G822" s="92"/>
+      <c r="G822" s="93"/>
     </row>
     <row r="823" spans="2:7">
       <c r="B823" s="56" t="s">
@@ -35439,10 +35453,10 @@
       <c r="F823" s="49">
         <v>6.4801534170153413E-2</v>
       </c>
-      <c r="G823" s="92"/>
+      <c r="G823" s="93"/>
     </row>
     <row r="824" spans="2:7">
-      <c r="G824" s="92"/>
+      <c r="G824" s="93"/>
     </row>
     <row r="825" spans="2:7">
       <c r="B825" s="56" t="s">
@@ -35460,10 +35474,10 @@
       <c r="F825" s="49">
         <v>6.9848972332015813E-2</v>
       </c>
-      <c r="G825" s="92"/>
+      <c r="G825" s="93"/>
     </row>
     <row r="826" spans="2:7">
-      <c r="G826" s="92"/>
+      <c r="G826" s="93"/>
     </row>
     <row r="827" spans="2:7">
       <c r="B827" s="56" t="s">
@@ -35481,10 +35495,10 @@
       <c r="F827" s="49">
         <v>6.3009060895084373E-2</v>
       </c>
-      <c r="G827" s="92"/>
+      <c r="G827" s="93"/>
     </row>
     <row r="828" spans="2:7">
-      <c r="G828" s="92"/>
+      <c r="G828" s="93"/>
     </row>
     <row r="829" spans="2:7">
       <c r="B829" s="56" t="s">
@@ -35502,10 +35516,10 @@
       <c r="F829" s="49">
         <v>7.3794321291735077E-2</v>
       </c>
-      <c r="G829" s="92"/>
+      <c r="G829" s="93"/>
     </row>
     <row r="830" spans="2:7">
-      <c r="G830" s="92"/>
+      <c r="G830" s="93"/>
     </row>
     <row r="831" spans="2:7">
       <c r="B831" s="56" t="s">
@@ -35523,10 +35537,10 @@
       <c r="F831" s="49">
         <v>6.9194230526448686E-2</v>
       </c>
-      <c r="G831" s="92"/>
+      <c r="G831" s="93"/>
     </row>
     <row r="832" spans="2:7">
-      <c r="G832" s="92"/>
+      <c r="G832" s="93"/>
     </row>
     <row r="833" spans="1:7">
       <c r="B833" s="56" t="s">
@@ -35544,10 +35558,10 @@
       <c r="F833" s="49">
         <v>0.12606494976472085</v>
       </c>
-      <c r="G833" s="92"/>
+      <c r="G833" s="93"/>
     </row>
     <row r="834" spans="1:7">
-      <c r="G834" s="92"/>
+      <c r="G834" s="93"/>
     </row>
     <row r="835" spans="1:7">
       <c r="B835" s="56" t="s">
@@ -35565,10 +35579,10 @@
       <c r="F835" s="49">
         <v>9.6136062717770032E-2</v>
       </c>
-      <c r="G835" s="92"/>
+      <c r="G835" s="93"/>
     </row>
     <row r="836" spans="1:7">
-      <c r="G836" s="92"/>
+      <c r="G836" s="93"/>
     </row>
     <row r="837" spans="1:7">
       <c r="A837" s="13" t="s">
@@ -35589,10 +35603,10 @@
       <c r="F837" s="49">
         <v>9.6362715038033925E-2</v>
       </c>
-      <c r="G837" s="92"/>
+      <c r="G837" s="93"/>
     </row>
     <row r="838" spans="1:7">
-      <c r="G838" s="92"/>
+      <c r="G838" s="93"/>
     </row>
     <row r="839" spans="1:7">
       <c r="B839" s="56" t="s">
@@ -35610,10 +35624,10 @@
       <c r="F839" s="49">
         <v>7.5837603758809713E-2</v>
       </c>
-      <c r="G839" s="92"/>
+      <c r="G839" s="93"/>
     </row>
     <row r="840" spans="1:7">
-      <c r="G840" s="92"/>
+      <c r="G840" s="93"/>
     </row>
     <row r="841" spans="1:7">
       <c r="B841" s="56" t="s">
@@ -35631,10 +35645,10 @@
       <c r="F841" s="49">
         <v>9.2246454021038329E-2</v>
       </c>
-      <c r="G841" s="92"/>
+      <c r="G841" s="93"/>
     </row>
     <row r="842" spans="1:7">
-      <c r="G842" s="92"/>
+      <c r="G842" s="93"/>
     </row>
     <row r="843" spans="1:7">
       <c r="B843" s="56" t="s">
@@ -35652,7 +35666,7 @@
       <c r="F843" s="49">
         <v>8.4539907746142826E-2</v>
       </c>
-      <c r="G843" s="92"/>
+      <c r="G843" s="93"/>
     </row>
     <row r="844" spans="1:7">
       <c r="C844" s="50">
@@ -35671,7 +35685,7 @@
         <f>E844/C844</f>
         <v>8.4279519250566204E-2</v>
       </c>
-      <c r="G844" s="92"/>
+      <c r="G844" s="93"/>
     </row>
     <row r="845" spans="1:7">
       <c r="B845" s="57"/>
@@ -35701,7 +35715,7 @@
       </c>
     </row>
     <row r="849" spans="1:7">
-      <c r="G849" s="92"/>
+      <c r="G849" s="93"/>
     </row>
     <row r="850" spans="1:7">
       <c r="B850" s="56" t="s">
@@ -35716,10 +35730,10 @@
       <c r="F850" s="49">
         <v>0</v>
       </c>
-      <c r="G850" s="92"/>
+      <c r="G850" s="93"/>
     </row>
     <row r="851" spans="1:7">
-      <c r="G851" s="92"/>
+      <c r="G851" s="93"/>
     </row>
     <row r="852" spans="1:7">
       <c r="B852" s="56" t="s">
@@ -35734,10 +35748,10 @@
       <c r="F852" s="49">
         <v>0</v>
       </c>
-      <c r="G852" s="92"/>
+      <c r="G852" s="93"/>
     </row>
     <row r="853" spans="1:7">
-      <c r="G853" s="92"/>
+      <c r="G853" s="93"/>
     </row>
     <row r="854" spans="1:7">
       <c r="B854" s="56" t="s">
@@ -35752,10 +35766,10 @@
       <c r="F854" s="49">
         <v>0</v>
       </c>
-      <c r="G854" s="92"/>
+      <c r="G854" s="93"/>
     </row>
     <row r="855" spans="1:7">
-      <c r="G855" s="92"/>
+      <c r="G855" s="93"/>
     </row>
     <row r="856" spans="1:7">
       <c r="B856" s="56" t="s">
@@ -35770,10 +35784,10 @@
       <c r="F856" s="49">
         <v>0.49447722691364748</v>
       </c>
-      <c r="G856" s="92"/>
+      <c r="G856" s="93"/>
     </row>
     <row r="857" spans="1:7">
-      <c r="G857" s="92"/>
+      <c r="G857" s="93"/>
     </row>
     <row r="858" spans="1:7">
       <c r="B858" s="56" t="s">
@@ -35788,10 +35802,10 @@
       <c r="F858" s="49">
         <v>0.53269013042387758</v>
       </c>
-      <c r="G858" s="92"/>
+      <c r="G858" s="93"/>
     </row>
     <row r="859" spans="1:7">
-      <c r="G859" s="92"/>
+      <c r="G859" s="93"/>
     </row>
     <row r="860" spans="1:7">
       <c r="B860" s="56" t="s">
@@ -35806,10 +35820,10 @@
       <c r="F860" s="49">
         <v>0.56650373761208117</v>
       </c>
-      <c r="G860" s="92"/>
+      <c r="G860" s="93"/>
     </row>
     <row r="861" spans="1:7">
-      <c r="G861" s="92"/>
+      <c r="G861" s="93"/>
     </row>
     <row r="862" spans="1:7">
       <c r="B862" s="56" t="s">
@@ -35824,10 +35838,10 @@
       <c r="F862" s="49">
         <v>0.61375290000000005</v>
       </c>
-      <c r="G862" s="92"/>
+      <c r="G862" s="93"/>
     </row>
     <row r="863" spans="1:7">
-      <c r="G863" s="92"/>
+      <c r="G863" s="93"/>
     </row>
     <row r="864" spans="1:7">
       <c r="A864" s="4" t="s">
@@ -35845,10 +35859,10 @@
       <c r="F864" s="49">
         <v>0.58190319111732824</v>
       </c>
-      <c r="G864" s="92"/>
+      <c r="G864" s="93"/>
     </row>
     <row r="865" spans="1:7">
-      <c r="G865" s="92"/>
+      <c r="G865" s="93"/>
     </row>
     <row r="866" spans="1:7" s="3" customFormat="1">
       <c r="A866" s="11" t="s">
@@ -35867,10 +35881,10 @@
       <c r="F866" s="49">
         <v>0.61942523659305992</v>
       </c>
-      <c r="G866" s="92"/>
+      <c r="G866" s="93"/>
     </row>
     <row r="867" spans="1:7">
-      <c r="G867" s="92"/>
+      <c r="G867" s="93"/>
     </row>
     <row r="868" spans="1:7">
       <c r="B868" s="56" t="s">
@@ -35885,13 +35899,13 @@
       <c r="F868" s="49">
         <v>0</v>
       </c>
-      <c r="G868" s="92"/>
+      <c r="G868" s="93"/>
     </row>
     <row r="869" spans="1:7">
       <c r="A869" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G869" s="92"/>
+      <c r="G869" s="93"/>
     </row>
     <row r="870" spans="1:7">
       <c r="B870" s="56" t="s">
@@ -35906,7 +35920,7 @@
       <c r="F870" s="49">
         <v>0</v>
       </c>
-      <c r="G870" s="92"/>
+      <c r="G870" s="93"/>
     </row>
     <row r="871" spans="1:7">
       <c r="C871" s="50">
@@ -35925,7 +35939,7 @@
         <f>E871/C871</f>
         <v>0.56927450206516739</v>
       </c>
-      <c r="G871" s="92"/>
+      <c r="G871" s="93"/>
     </row>
     <row r="872" spans="1:7">
       <c r="B872" s="59" t="s">
@@ -35976,7 +35990,7 @@
       </c>
     </row>
     <row r="880" spans="1:7">
-      <c r="G880" s="92"/>
+      <c r="G880" s="93"/>
     </row>
     <row r="881" spans="1:7">
       <c r="B881" s="56" t="s">
@@ -35994,10 +36008,10 @@
       <c r="F881" s="49">
         <v>6.4801526021758302E-2</v>
       </c>
-      <c r="G881" s="92"/>
+      <c r="G881" s="93"/>
     </row>
     <row r="882" spans="1:7">
-      <c r="G882" s="92"/>
+      <c r="G882" s="93"/>
     </row>
     <row r="883" spans="1:7">
       <c r="B883" s="56" t="s">
@@ -36015,10 +36029,10 @@
       <c r="F883" s="49">
         <v>6.9848970405455332E-2</v>
       </c>
-      <c r="G883" s="92"/>
+      <c r="G883" s="93"/>
     </row>
     <row r="884" spans="1:7">
-      <c r="G884" s="92"/>
+      <c r="G884" s="93"/>
     </row>
     <row r="885" spans="1:7">
       <c r="B885" s="56" t="s">
@@ -36036,10 +36050,10 @@
       <c r="F885" s="49">
         <v>6.3009066139024947E-2</v>
       </c>
-      <c r="G885" s="92"/>
+      <c r="G885" s="93"/>
     </row>
     <row r="886" spans="1:7">
-      <c r="G886" s="92"/>
+      <c r="G886" s="93"/>
     </row>
     <row r="887" spans="1:7">
       <c r="B887" s="56" t="s">
@@ -36057,10 +36071,10 @@
       <c r="F887" s="49">
         <v>7.3794322549647656E-2</v>
       </c>
-      <c r="G887" s="92"/>
+      <c r="G887" s="93"/>
     </row>
     <row r="888" spans="1:7">
-      <c r="G888" s="92"/>
+      <c r="G888" s="93"/>
     </row>
     <row r="889" spans="1:7">
       <c r="B889" s="56" t="s">
@@ -36078,10 +36092,10 @@
       <c r="F889" s="49">
         <v>6.9194235484809435E-2</v>
       </c>
-      <c r="G889" s="92"/>
+      <c r="G889" s="93"/>
     </row>
     <row r="890" spans="1:7">
-      <c r="G890" s="92"/>
+      <c r="G890" s="93"/>
     </row>
     <row r="891" spans="1:7">
       <c r="B891" s="56" t="s">
@@ -36099,10 +36113,10 @@
       <c r="F891" s="49">
         <v>0.12606495343074425</v>
       </c>
-      <c r="G891" s="92"/>
+      <c r="G891" s="93"/>
     </row>
     <row r="892" spans="1:7">
-      <c r="G892" s="92"/>
+      <c r="G892" s="93"/>
     </row>
     <row r="893" spans="1:7">
       <c r="B893" s="56" t="s">
@@ -36120,10 +36134,10 @@
       <c r="F893" s="49">
         <v>9.61360591309008E-2</v>
       </c>
-      <c r="G893" s="92"/>
+      <c r="G893" s="93"/>
     </row>
     <row r="894" spans="1:7">
-      <c r="G894" s="92"/>
+      <c r="G894" s="93"/>
     </row>
     <row r="895" spans="1:7">
       <c r="A895" s="13" t="s">
@@ -36144,10 +36158,10 @@
       <c r="F895" s="49">
         <v>9.6362712367071973E-2</v>
       </c>
-      <c r="G895" s="92"/>
+      <c r="G895" s="93"/>
     </row>
     <row r="896" spans="1:7">
-      <c r="G896" s="92" t="s">
+      <c r="G896" s="93" t="s">
         <v>193</v>
       </c>
     </row>
@@ -36167,10 +36181,10 @@
       <c r="F897" s="49">
         <v>7.5837608339657303E-2</v>
       </c>
-      <c r="G897" s="92"/>
+      <c r="G897" s="93"/>
     </row>
     <row r="898" spans="2:7">
-      <c r="G898" s="92"/>
+      <c r="G898" s="93"/>
     </row>
     <row r="899" spans="2:7">
       <c r="B899" s="56" t="s">
@@ -36188,10 +36202,10 @@
       <c r="F899" s="49">
         <v>9.2246445249747816E-2</v>
       </c>
-      <c r="G899" s="92"/>
+      <c r="G899" s="93"/>
     </row>
     <row r="900" spans="2:7">
-      <c r="G900" s="92"/>
+      <c r="G900" s="93"/>
     </row>
     <row r="901" spans="2:7">
       <c r="B901" s="56" t="s">
@@ -36209,7 +36223,7 @@
       <c r="F901" s="49">
         <v>8.4539913501190209E-2</v>
       </c>
-      <c r="G901" s="92"/>
+      <c r="G901" s="93"/>
     </row>
     <row r="902" spans="2:7">
       <c r="C902" s="50">
@@ -36228,7 +36242,7 @@
         <f>E902/C902</f>
         <v>8.1199175409821314E-2</v>
       </c>
-      <c r="G902" s="92"/>
+      <c r="G902" s="93"/>
     </row>
     <row r="903" spans="2:7">
       <c r="B903" s="59" t="s">
@@ -36284,7 +36298,7 @@
       </c>
     </row>
     <row r="911" spans="2:7">
-      <c r="G911" s="92"/>
+      <c r="G911" s="93"/>
     </row>
     <row r="912" spans="2:7">
       <c r="B912" s="56" t="s">
@@ -36302,10 +36316,10 @@
       <c r="F912" s="49">
         <v>6.4801526468159246E-2</v>
       </c>
-      <c r="G912" s="92"/>
+      <c r="G912" s="93"/>
     </row>
     <row r="913" spans="1:7">
-      <c r="G913" s="92"/>
+      <c r="G913" s="93"/>
     </row>
     <row r="914" spans="1:7">
       <c r="B914" s="56" t="s">
@@ -36323,10 +36337,10 @@
       <c r="F914" s="49">
         <v>6.9848971525369036E-2</v>
       </c>
-      <c r="G914" s="92"/>
+      <c r="G914" s="93"/>
     </row>
     <row r="915" spans="1:7">
-      <c r="G915" s="92"/>
+      <c r="G915" s="93"/>
     </row>
     <row r="916" spans="1:7">
       <c r="B916" s="56" t="s">
@@ -36344,10 +36358,10 @@
       <c r="F916" s="49">
         <v>6.3009067334523106E-2</v>
       </c>
-      <c r="G916" s="92"/>
+      <c r="G916" s="93"/>
     </row>
     <row r="917" spans="1:7">
-      <c r="G917" s="92"/>
+      <c r="G917" s="93"/>
     </row>
     <row r="918" spans="1:7">
       <c r="B918" s="56" t="s">
@@ -36365,10 +36379,10 @@
       <c r="F918" s="49">
         <v>7.3794322402034707E-2</v>
       </c>
-      <c r="G918" s="92"/>
+      <c r="G918" s="93"/>
     </row>
     <row r="919" spans="1:7">
-      <c r="G919" s="92"/>
+      <c r="G919" s="93"/>
     </row>
     <row r="920" spans="1:7">
       <c r="B920" s="56" t="s">
@@ -36386,10 +36400,10 @@
       <c r="F920" s="49">
         <v>6.9194233644754743E-2</v>
       </c>
-      <c r="G920" s="92"/>
+      <c r="G920" s="93"/>
     </row>
     <row r="921" spans="1:7">
-      <c r="G921" s="92"/>
+      <c r="G921" s="93"/>
     </row>
     <row r="922" spans="1:7">
       <c r="A922" s="4" t="s">
@@ -36410,10 +36424,10 @@
       <c r="F922" s="49">
         <v>0.12606495146609345</v>
       </c>
-      <c r="G922" s="92"/>
+      <c r="G922" s="93"/>
     </row>
     <row r="923" spans="1:7">
-      <c r="G923" s="92"/>
+      <c r="G923" s="93"/>
     </row>
     <row r="924" spans="1:7" s="3" customFormat="1" ht="12.75" customHeight="1">
       <c r="A924" s="11" t="s">
@@ -36434,10 +36448,10 @@
       <c r="F924" s="49">
         <v>9.6136059605863494E-2</v>
       </c>
-      <c r="G924" s="92"/>
+      <c r="G924" s="93"/>
     </row>
     <row r="925" spans="1:7">
-      <c r="G925" s="92"/>
+      <c r="G925" s="93"/>
     </row>
     <row r="926" spans="1:7">
       <c r="B926" s="56" t="s">
@@ -36455,13 +36469,13 @@
       <c r="F926" s="49">
         <v>9.6362711161099401E-2</v>
       </c>
-      <c r="G926" s="92"/>
+      <c r="G926" s="93"/>
     </row>
     <row r="927" spans="1:7">
       <c r="A927" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G927" s="92"/>
+      <c r="G927" s="93"/>
     </row>
     <row r="928" spans="1:7">
       <c r="B928" s="56" t="s">
@@ -36479,10 +36493,10 @@
       <c r="F928" s="49">
         <v>7.5837607017933475E-2</v>
       </c>
-      <c r="G928" s="92"/>
+      <c r="G928" s="93"/>
     </row>
     <row r="929" spans="2:7">
-      <c r="G929" s="92"/>
+      <c r="G929" s="93"/>
     </row>
     <row r="930" spans="2:7">
       <c r="B930" s="56" t="s">
@@ -36500,10 +36514,10 @@
       <c r="F930" s="49">
         <v>9.2246446426512654E-2</v>
       </c>
-      <c r="G930" s="92"/>
+      <c r="G930" s="93"/>
     </row>
     <row r="931" spans="2:7">
-      <c r="G931" s="92"/>
+      <c r="G931" s="93"/>
     </row>
     <row r="932" spans="2:7">
       <c r="B932" s="56" t="s">
@@ -36521,7 +36535,7 @@
       <c r="F932" s="49">
         <v>8.4539912009806248E-2</v>
       </c>
-      <c r="G932" s="92"/>
+      <c r="G932" s="93"/>
     </row>
     <row r="933" spans="2:7">
       <c r="C933" s="50">
@@ -36540,7 +36554,7 @@
         <f>E933/C933</f>
         <v>8.1910899105956295E-2</v>
       </c>
-      <c r="G933" s="92"/>
+      <c r="G933" s="93"/>
     </row>
     <row r="934" spans="2:7">
       <c r="B934" s="59" t="s">
@@ -36596,7 +36610,7 @@
       </c>
     </row>
     <row r="942" spans="2:7">
-      <c r="G942" s="92"/>
+      <c r="G942" s="93"/>
     </row>
     <row r="943" spans="2:7">
       <c r="B943" s="56" t="s">
@@ -36614,10 +36628,10 @@
       <c r="F943" s="49">
         <v>6.4801523196567443E-2</v>
       </c>
-      <c r="G943" s="92"/>
+      <c r="G943" s="93"/>
     </row>
     <row r="944" spans="2:7">
-      <c r="G944" s="92"/>
+      <c r="G944" s="93"/>
     </row>
     <row r="945" spans="1:7">
       <c r="B945" s="56" t="s">
@@ -36635,10 +36649,10 @@
       <c r="F945" s="49">
         <v>6.9848966205618132E-2</v>
       </c>
-      <c r="G945" s="92"/>
+      <c r="G945" s="93"/>
     </row>
     <row r="946" spans="1:7">
-      <c r="G946" s="92"/>
+      <c r="G946" s="93"/>
     </row>
     <row r="947" spans="1:7">
       <c r="B947" s="56" t="s">
@@ -36656,10 +36670,10 @@
       <c r="F947" s="49">
         <v>6.3009068010075567E-2</v>
       </c>
-      <c r="G947" s="92"/>
+      <c r="G947" s="93"/>
     </row>
     <row r="948" spans="1:7">
-      <c r="G948" s="92"/>
+      <c r="G948" s="93"/>
     </row>
     <row r="949" spans="1:7">
       <c r="B949" s="56" t="s">
@@ -36677,10 +36691,10 @@
       <c r="F949" s="49">
         <v>7.3794318801089914E-2</v>
       </c>
-      <c r="G949" s="92"/>
+      <c r="G949" s="93"/>
     </row>
     <row r="950" spans="1:7">
-      <c r="G950" s="92"/>
+      <c r="G950" s="93"/>
     </row>
     <row r="951" spans="1:7">
       <c r="B951" s="56" t="s">
@@ -36698,10 +36712,10 @@
       <c r="F951" s="49">
         <v>6.9194238683127574E-2</v>
       </c>
-      <c r="G951" s="92"/>
+      <c r="G951" s="93"/>
     </row>
     <row r="952" spans="1:7">
-      <c r="G952" s="92"/>
+      <c r="G952" s="93"/>
     </row>
     <row r="953" spans="1:7">
       <c r="A953" s="13" t="s">
@@ -36722,10 +36736,10 @@
       <c r="F953" s="49">
         <v>0.12606495123957231</v>
       </c>
-      <c r="G953" s="92"/>
+      <c r="G953" s="93"/>
     </row>
     <row r="954" spans="1:7">
-      <c r="G954" s="92"/>
+      <c r="G954" s="93"/>
     </row>
     <row r="955" spans="1:7">
       <c r="B955" s="56" t="s">
@@ -36743,10 +36757,10 @@
       <c r="F955" s="49">
         <v>9.6136056630731256E-2</v>
       </c>
-      <c r="G955" s="92"/>
+      <c r="G955" s="93"/>
     </row>
     <row r="956" spans="1:7">
-      <c r="G956" s="92"/>
+      <c r="G956" s="93"/>
     </row>
     <row r="957" spans="1:7">
       <c r="B957" s="56" t="s">
@@ -36764,10 +36778,10 @@
       <c r="F957" s="49">
         <v>9.6362709326072146E-2</v>
       </c>
-      <c r="G957" s="92"/>
+      <c r="G957" s="93"/>
     </row>
     <row r="958" spans="1:7">
-      <c r="G958" s="92"/>
+      <c r="G958" s="93"/>
     </row>
     <row r="959" spans="1:7">
       <c r="B959" s="56" t="s">
@@ -36785,10 +36799,10 @@
       <c r="F959" s="49">
         <v>7.5837611332598184E-2</v>
       </c>
-      <c r="G959" s="92"/>
+      <c r="G959" s="93"/>
     </row>
     <row r="960" spans="1:7">
-      <c r="G960" s="92"/>
+      <c r="G960" s="93"/>
     </row>
     <row r="961" spans="2:7">
       <c r="B961" s="56" t="s">
@@ -36806,10 +36820,10 @@
       <c r="F961" s="49">
         <v>9.2246447199657966E-2</v>
       </c>
-      <c r="G961" s="92"/>
+      <c r="G961" s="93"/>
     </row>
     <row r="962" spans="2:7">
-      <c r="G962" s="92"/>
+      <c r="G962" s="93"/>
     </row>
     <row r="963" spans="2:7">
       <c r="B963" s="56" t="s">
@@ -36827,7 +36841,7 @@
       <c r="F963" s="49">
         <v>8.4539913961673832E-2</v>
       </c>
-      <c r="G963" s="92"/>
+      <c r="G963" s="93"/>
     </row>
     <row r="964" spans="2:7">
       <c r="C964" s="50">
@@ -36846,7 +36860,7 @@
         <f>E964/C964</f>
         <v>8.2627146825154832E-2</v>
       </c>
-      <c r="G964" s="92"/>
+      <c r="G964" s="93"/>
     </row>
     <row r="965" spans="2:7">
       <c r="B965" s="57"/>
@@ -36874,7 +36888,7 @@
       <c r="G968" s="89"/>
     </row>
     <row r="969" spans="2:7">
-      <c r="G969" s="92"/>
+      <c r="G969" s="93"/>
     </row>
     <row r="970" spans="2:7">
       <c r="B970" s="56" t="s">
@@ -36889,10 +36903,10 @@
       <c r="F970" s="49">
         <v>0.54269999999999996</v>
       </c>
-      <c r="G970" s="92"/>
+      <c r="G970" s="93"/>
     </row>
     <row r="971" spans="2:7">
-      <c r="G971" s="92"/>
+      <c r="G971" s="93"/>
     </row>
     <row r="972" spans="2:7">
       <c r="B972" s="56" t="s">
@@ -36907,10 +36921,10 @@
       <c r="F972" s="49">
         <v>0</v>
       </c>
-      <c r="G972" s="92"/>
+      <c r="G972" s="93"/>
     </row>
     <row r="973" spans="2:7">
-      <c r="G973" s="92"/>
+      <c r="G973" s="93"/>
     </row>
     <row r="974" spans="2:7">
       <c r="B974" s="56" t="s">
@@ -36925,10 +36939,10 @@
       <c r="F974" s="49">
         <v>0.51729999999999998</v>
       </c>
-      <c r="G974" s="92"/>
+      <c r="G974" s="93"/>
     </row>
     <row r="975" spans="2:7">
-      <c r="G975" s="92"/>
+      <c r="G975" s="93"/>
     </row>
     <row r="976" spans="2:7">
       <c r="B976" s="56" t="s">
@@ -36943,10 +36957,10 @@
       <c r="F976" s="49">
         <v>0.49450000000000005</v>
       </c>
-      <c r="G976" s="92"/>
+      <c r="G976" s="93"/>
     </row>
     <row r="977" spans="1:7">
-      <c r="G977" s="92"/>
+      <c r="G977" s="93"/>
     </row>
     <row r="978" spans="1:7">
       <c r="B978" s="56" t="s">
@@ -36961,10 +36975,10 @@
       <c r="F978" s="49">
         <v>0</v>
       </c>
-      <c r="G978" s="92"/>
+      <c r="G978" s="93"/>
     </row>
     <row r="979" spans="1:7">
-      <c r="G979" s="92"/>
+      <c r="G979" s="93"/>
     </row>
     <row r="980" spans="1:7">
       <c r="A980" s="4" t="s">
@@ -36982,10 +36996,10 @@
       <c r="F980" s="49">
         <v>0.5665</v>
       </c>
-      <c r="G980" s="92"/>
+      <c r="G980" s="93"/>
     </row>
     <row r="981" spans="1:7">
-      <c r="G981" s="92"/>
+      <c r="G981" s="93"/>
     </row>
     <row r="982" spans="1:7" s="3" customFormat="1">
       <c r="A982" s="11" t="s">
@@ -37004,10 +37018,10 @@
       <c r="F982" s="49">
         <v>0</v>
       </c>
-      <c r="G982" s="92"/>
+      <c r="G982" s="93"/>
     </row>
     <row r="983" spans="1:7">
-      <c r="G983" s="92"/>
+      <c r="G983" s="93"/>
     </row>
     <row r="984" spans="1:7">
       <c r="B984" s="56" t="s">
@@ -37022,13 +37036,13 @@
       <c r="F984" s="49">
         <v>0.58189999999999997</v>
       </c>
-      <c r="G984" s="92"/>
+      <c r="G984" s="93"/>
     </row>
     <row r="985" spans="1:7">
       <c r="A985" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G985" s="92"/>
+      <c r="G985" s="93"/>
     </row>
     <row r="986" spans="1:7">
       <c r="B986" s="56" t="s">
@@ -37043,10 +37057,10 @@
       <c r="F986" s="49">
         <v>0</v>
       </c>
-      <c r="G986" s="92"/>
+      <c r="G986" s="93"/>
     </row>
     <row r="987" spans="1:7">
-      <c r="G987" s="92"/>
+      <c r="G987" s="93"/>
     </row>
     <row r="988" spans="1:7">
       <c r="B988" s="56" t="s">
@@ -37061,10 +37075,10 @@
       <c r="F988" s="49">
         <v>0.62239999999999995</v>
       </c>
-      <c r="G988" s="92"/>
+      <c r="G988" s="93"/>
     </row>
     <row r="989" spans="1:7">
-      <c r="G989" s="92"/>
+      <c r="G989" s="93"/>
     </row>
     <row r="990" spans="1:7">
       <c r="B990" s="56" t="s">
@@ -37079,7 +37093,7 @@
       <c r="F990" s="49">
         <v>0</v>
       </c>
-      <c r="G990" s="92"/>
+      <c r="G990" s="93"/>
     </row>
     <row r="991" spans="1:7">
       <c r="C991" s="50">
@@ -37098,7 +37112,7 @@
         <f>E991/C991</f>
         <v>0.55611428571428567</v>
       </c>
-      <c r="G991" s="92"/>
+      <c r="G991" s="93"/>
     </row>
     <row r="992" spans="1:7">
       <c r="B992" s="59" t="s">
@@ -37149,7 +37163,7 @@
       </c>
     </row>
     <row r="1000" spans="2:7">
-      <c r="G1000" s="92"/>
+      <c r="G1000" s="93"/>
     </row>
     <row r="1001" spans="2:7">
       <c r="B1001" s="56" t="s">
@@ -37167,10 +37181,10 @@
       <c r="F1001" s="49">
         <v>6.4801526241579185E-2</v>
       </c>
-      <c r="G1001" s="92"/>
+      <c r="G1001" s="93"/>
     </row>
     <row r="1002" spans="2:7">
-      <c r="G1002" s="92"/>
+      <c r="G1002" s="93"/>
     </row>
     <row r="1003" spans="2:7">
       <c r="B1003" s="56" t="s">
@@ -37188,10 +37202,10 @@
       <c r="F1003" s="49">
         <v>6.9848971179001657E-2</v>
       </c>
-      <c r="G1003" s="92"/>
+      <c r="G1003" s="93"/>
     </row>
     <row r="1004" spans="2:7">
-      <c r="G1004" s="92"/>
+      <c r="G1004" s="93"/>
     </row>
     <row r="1005" spans="2:7">
       <c r="B1005" s="56" t="s">
@@ -37209,10 +37223,10 @@
       <c r="F1005" s="49">
         <v>6.3009067137784314E-2</v>
       </c>
-      <c r="G1005" s="92"/>
+      <c r="G1005" s="93"/>
     </row>
     <row r="1006" spans="2:7">
-      <c r="G1006" s="92"/>
+      <c r="G1006" s="93"/>
     </row>
     <row r="1007" spans="2:7">
       <c r="B1007" s="56" t="s">
@@ -37230,10 +37244,10 @@
       <c r="F1007" s="49">
         <v>7.3794322098146431E-2</v>
       </c>
-      <c r="G1007" s="92"/>
+      <c r="G1007" s="93"/>
     </row>
     <row r="1008" spans="2:7">
-      <c r="G1008" s="92"/>
+      <c r="G1008" s="93"/>
     </row>
     <row r="1009" spans="1:7">
       <c r="B1009" s="56" t="s">
@@ -37251,10 +37265,10 @@
       <c r="F1009" s="49">
         <v>6.9194234293794635E-2</v>
       </c>
-      <c r="G1009" s="92"/>
+      <c r="G1009" s="93"/>
     </row>
     <row r="1010" spans="1:7">
-      <c r="G1010" s="92"/>
+      <c r="G1010" s="93"/>
     </row>
     <row r="1011" spans="1:7">
       <c r="A1011" s="13" t="s">
@@ -37275,10 +37289,10 @@
       <c r="F1011" s="49">
         <v>0.12606495190690306</v>
       </c>
-      <c r="G1011" s="92"/>
+      <c r="G1011" s="93"/>
     </row>
     <row r="1012" spans="1:7">
-      <c r="G1012" s="92" t="s">
+      <c r="G1012" s="93" t="s">
         <v>193</v>
       </c>
     </row>
@@ -37298,10 +37312,10 @@
       <c r="F1013" s="49">
         <v>9.6136059975237081E-2</v>
       </c>
-      <c r="G1013" s="92"/>
+      <c r="G1013" s="93"/>
     </row>
     <row r="1014" spans="1:7">
-      <c r="G1014" s="92"/>
+      <c r="G1014" s="93"/>
     </row>
     <row r="1015" spans="1:7">
       <c r="B1015" s="56" t="s">
@@ -37319,10 +37333,10 @@
       <c r="F1015" s="49">
         <v>9.6362711408191637E-2</v>
       </c>
-      <c r="G1015" s="92"/>
+      <c r="G1015" s="93"/>
     </row>
     <row r="1016" spans="1:7">
-      <c r="G1016" s="92"/>
+      <c r="G1016" s="93"/>
     </row>
     <row r="1017" spans="1:7">
       <c r="B1017" s="56" t="s">
@@ -37340,10 +37354,10 @@
       <c r="F1017" s="49">
         <v>7.5837607474391514E-2</v>
       </c>
-      <c r="G1017" s="92"/>
+      <c r="G1017" s="93"/>
     </row>
     <row r="1018" spans="1:7">
-      <c r="G1018" s="92"/>
+      <c r="G1018" s="93"/>
     </row>
     <row r="1019" spans="1:7">
       <c r="B1019" s="56" t="s">
@@ -37361,10 +37375,10 @@
       <c r="F1019" s="49">
         <v>9.2246446143837188E-2</v>
       </c>
-      <c r="G1019" s="92"/>
+      <c r="G1019" s="93"/>
     </row>
     <row r="1020" spans="1:7">
-      <c r="G1020" s="92"/>
+      <c r="G1020" s="93"/>
     </row>
     <row r="1021" spans="1:7">
       <c r="B1021" s="56" t="s">
@@ -37382,7 +37396,7 @@
       <c r="F1021" s="49">
         <v>8.4539912524181998E-2</v>
       </c>
-      <c r="G1021" s="92"/>
+      <c r="G1021" s="93"/>
     </row>
     <row r="1022" spans="1:7">
       <c r="C1022" s="50">
@@ -37401,7 +37415,7 @@
         <f>E1022/C1022</f>
         <v>8.1706524509053316E-2</v>
       </c>
-      <c r="G1022" s="92"/>
+      <c r="G1022" s="93"/>
     </row>
     <row r="1023" spans="1:7">
       <c r="B1023" s="59" t="s">
@@ -37450,7 +37464,7 @@
       </c>
     </row>
     <row r="1031" spans="1:7">
-      <c r="G1031" s="92"/>
+      <c r="G1031" s="93"/>
     </row>
     <row r="1032" spans="1:7">
       <c r="B1032" s="56" t="s">
@@ -37465,10 +37479,10 @@
       <c r="F1032" s="49">
         <v>6.4801491588756421E-2</v>
       </c>
-      <c r="G1032" s="92"/>
+      <c r="G1032" s="93"/>
     </row>
     <row r="1033" spans="1:7">
-      <c r="G1033" s="92"/>
+      <c r="G1033" s="93"/>
     </row>
     <row r="1034" spans="1:7">
       <c r="B1034" s="56" t="s">
@@ -37483,10 +37497,10 @@
       <c r="F1034" s="49">
         <v>6.9848973889584734E-2</v>
       </c>
-      <c r="G1034" s="92"/>
+      <c r="G1034" s="93"/>
     </row>
     <row r="1035" spans="1:7">
-      <c r="G1035" s="92"/>
+      <c r="G1035" s="93"/>
     </row>
     <row r="1036" spans="1:7">
       <c r="B1036" s="56" t="s">
@@ -37501,10 +37515,10 @@
       <c r="F1036" s="49">
         <v>6.3009092026047417E-2</v>
       </c>
-      <c r="G1036" s="92"/>
+      <c r="G1036" s="93"/>
     </row>
     <row r="1037" spans="1:7">
-      <c r="G1037" s="92"/>
+      <c r="G1037" s="93"/>
     </row>
     <row r="1038" spans="1:7">
       <c r="A1038" s="4" t="s">
@@ -37522,10 +37536,10 @@
       <c r="F1038" s="49">
         <v>7.3794300904264712E-2</v>
       </c>
-      <c r="G1038" s="92"/>
+      <c r="G1038" s="93"/>
     </row>
     <row r="1039" spans="1:7">
-      <c r="G1039" s="92"/>
+      <c r="G1039" s="93"/>
     </row>
     <row r="1040" spans="1:7" s="3" customFormat="1">
       <c r="A1040" s="11" t="s">
@@ -37544,10 +37558,10 @@
       <c r="F1040" s="49">
         <v>6.9222694215243644E-2</v>
       </c>
-      <c r="G1040" s="92"/>
+      <c r="G1040" s="93"/>
     </row>
     <row r="1041" spans="1:7">
-      <c r="G1041" s="92"/>
+      <c r="G1041" s="93"/>
     </row>
     <row r="1042" spans="1:7">
       <c r="B1042" s="56" t="s">
@@ -37562,13 +37576,13 @@
       <c r="F1042" s="49">
         <v>0.12606496988315946</v>
       </c>
-      <c r="G1042" s="92"/>
+      <c r="G1042" s="93"/>
     </row>
     <row r="1043" spans="1:7">
       <c r="A1043" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G1043" s="92"/>
+      <c r="G1043" s="93"/>
     </row>
     <row r="1044" spans="1:7">
       <c r="B1044" s="56" t="s">
@@ -37583,10 +37597,10 @@
       <c r="F1044" s="49">
         <v>9.6136086630414397E-2</v>
       </c>
-      <c r="G1044" s="92"/>
+      <c r="G1044" s="93"/>
     </row>
     <row r="1045" spans="1:7">
-      <c r="G1045" s="92"/>
+      <c r="G1045" s="93"/>
     </row>
     <row r="1046" spans="1:7">
       <c r="B1046" s="56" t="s">
@@ -37601,10 +37615,10 @@
       <c r="F1046" s="49">
         <v>9.6362695161948522E-2</v>
       </c>
-      <c r="G1046" s="92"/>
+      <c r="G1046" s="93"/>
     </row>
     <row r="1047" spans="1:7">
-      <c r="G1047" s="92"/>
+      <c r="G1047" s="93"/>
     </row>
     <row r="1048" spans="1:7">
       <c r="B1048" s="56" t="s">
@@ -37619,10 +37633,10 @@
       <c r="F1048" s="49">
         <v>7.5837569240795044E-2</v>
       </c>
-      <c r="G1048" s="92"/>
+      <c r="G1048" s="93"/>
     </row>
     <row r="1049" spans="1:7">
-      <c r="G1049" s="92"/>
+      <c r="G1049" s="93"/>
     </row>
     <row r="1050" spans="1:7">
       <c r="B1050" s="56" t="s">
@@ -37637,10 +37651,10 @@
       <c r="F1050" s="49">
         <v>9.2246420387134515E-2</v>
       </c>
-      <c r="G1050" s="92"/>
+      <c r="G1050" s="93"/>
     </row>
     <row r="1051" spans="1:7">
-      <c r="G1051" s="92"/>
+      <c r="G1051" s="93"/>
     </row>
     <row r="1052" spans="1:7">
       <c r="B1052" s="56" t="s">
@@ -37655,7 +37669,7 @@
       <c r="F1052" s="49">
         <v>8.4539937440403515E-2</v>
       </c>
-      <c r="G1052" s="92"/>
+      <c r="G1052" s="93"/>
     </row>
     <row r="1053" spans="1:7">
       <c r="C1053" s="50">
@@ -37674,7 +37688,7 @@
         <f>E1053/C1053</f>
         <v>8.2449801395673691E-2</v>
       </c>
-      <c r="G1053" s="92"/>
+      <c r="G1053" s="93"/>
     </row>
     <row r="1054" spans="1:7">
       <c r="B1054" s="57"/>
@@ -37702,7 +37716,7 @@
       <c r="G1057" s="89"/>
     </row>
     <row r="1058" spans="1:7">
-      <c r="G1058" s="92"/>
+      <c r="G1058" s="93"/>
     </row>
     <row r="1059" spans="1:7">
       <c r="B1059" s="56" t="s">
@@ -37717,10 +37731,10 @@
       <c r="F1059" s="49">
         <v>0.54271666666666663</v>
       </c>
-      <c r="G1059" s="92"/>
+      <c r="G1059" s="93"/>
     </row>
     <row r="1060" spans="1:7">
-      <c r="G1060" s="92"/>
+      <c r="G1060" s="93"/>
     </row>
     <row r="1061" spans="1:7">
       <c r="B1061" s="56" t="s">
@@ -37735,10 +37749,10 @@
       <c r="F1061" s="49">
         <v>0.52657766990291266</v>
       </c>
-      <c r="G1061" s="92"/>
+      <c r="G1061" s="93"/>
     </row>
     <row r="1062" spans="1:7">
-      <c r="G1062" s="92"/>
+      <c r="G1062" s="93"/>
     </row>
     <row r="1063" spans="1:7">
       <c r="B1063" s="56" t="s">
@@ -37753,10 +37767,10 @@
       <c r="F1063" s="49">
         <v>0.51726499999999997</v>
       </c>
-      <c r="G1063" s="92"/>
+      <c r="G1063" s="93"/>
     </row>
     <row r="1064" spans="1:7">
-      <c r="G1064" s="92"/>
+      <c r="G1064" s="93"/>
     </row>
     <row r="1065" spans="1:7">
       <c r="B1065" s="56" t="s">
@@ -37771,10 +37785,10 @@
       <c r="F1065" s="49">
         <v>0.49447730496453901</v>
       </c>
-      <c r="G1065" s="92"/>
+      <c r="G1065" s="93"/>
     </row>
     <row r="1066" spans="1:7">
-      <c r="G1066" s="92"/>
+      <c r="G1066" s="93"/>
     </row>
     <row r="1067" spans="1:7">
       <c r="B1067" s="56" t="s">
@@ -37789,10 +37803,10 @@
       <c r="F1067" s="49">
         <v>0.53269035087719296</v>
       </c>
-      <c r="G1067" s="92"/>
+      <c r="G1067" s="93"/>
     </row>
     <row r="1068" spans="1:7">
-      <c r="G1068" s="92"/>
+      <c r="G1068" s="93"/>
     </row>
     <row r="1069" spans="1:7">
       <c r="A1069" s="4" t="s">
@@ -37810,10 +37824,10 @@
       <c r="F1069" s="49">
         <v>0.5665039215686275</v>
       </c>
-      <c r="G1069" s="92"/>
+      <c r="G1069" s="93"/>
     </row>
     <row r="1070" spans="1:7">
-      <c r="G1070" s="92"/>
+      <c r="G1070" s="93"/>
     </row>
     <row r="1071" spans="1:7" s="3" customFormat="1">
       <c r="A1071" s="11" t="s">
@@ -37832,10 +37846,10 @@
       <c r="F1071" s="49">
         <v>0.61375299999999999</v>
       </c>
-      <c r="G1071" s="92"/>
+      <c r="G1071" s="93"/>
     </row>
     <row r="1072" spans="1:7">
-      <c r="G1072" s="92"/>
+      <c r="G1072" s="93"/>
     </row>
     <row r="1073" spans="1:7">
       <c r="B1073" s="56" t="s">
@@ -37850,13 +37864,13 @@
       <c r="F1073" s="49">
         <v>0.58190352112676058</v>
       </c>
-      <c r="G1073" s="92"/>
+      <c r="G1073" s="93"/>
     </row>
     <row r="1074" spans="1:7">
       <c r="A1074" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G1074" s="92"/>
+      <c r="G1074" s="93"/>
     </row>
     <row r="1075" spans="1:7">
       <c r="B1075" s="56" t="s">
@@ -37871,10 +37885,10 @@
       <c r="F1075" s="49">
         <v>0.61942520661157019</v>
       </c>
-      <c r="G1075" s="92"/>
+      <c r="G1075" s="93"/>
     </row>
     <row r="1076" spans="1:7">
-      <c r="G1076" s="92"/>
+      <c r="G1076" s="93"/>
     </row>
     <row r="1077" spans="1:7">
       <c r="B1077" s="56" t="s">
@@ -37889,10 +37903,10 @@
       <c r="F1077" s="49">
         <v>0.62239690721649488</v>
       </c>
-      <c r="G1077" s="92"/>
+      <c r="G1077" s="93"/>
     </row>
     <row r="1078" spans="1:7">
-      <c r="G1078" s="92"/>
+      <c r="G1078" s="93"/>
     </row>
     <row r="1079" spans="1:7">
       <c r="B1079" s="56" t="s">
@@ -37907,7 +37921,7 @@
       <c r="F1079" s="49">
         <v>0.64385543478260876</v>
       </c>
-      <c r="G1079" s="92"/>
+      <c r="G1079" s="93"/>
     </row>
     <row r="1080" spans="1:7">
       <c r="C1080" s="50">
@@ -37926,7 +37940,7 @@
         <f>E1080/C1080</f>
         <v>0.57167360226468522</v>
       </c>
-      <c r="G1080" s="92"/>
+      <c r="G1080" s="93"/>
     </row>
     <row r="1081" spans="1:7">
       <c r="B1081" s="59" t="s">
@@ -37982,7 +37996,7 @@
       </c>
     </row>
     <row r="1089" spans="1:7">
-      <c r="G1089" s="92"/>
+      <c r="G1089" s="93"/>
     </row>
     <row r="1090" spans="1:7">
       <c r="B1090" s="56" t="s">
@@ -38000,10 +38014,10 @@
       <c r="F1090" s="49">
         <v>6.4801632901222497E-2</v>
       </c>
-      <c r="G1090" s="92"/>
+      <c r="G1090" s="93"/>
     </row>
     <row r="1091" spans="1:7">
-      <c r="G1091" s="92"/>
+      <c r="G1091" s="93"/>
     </row>
     <row r="1092" spans="1:7">
       <c r="B1092" s="56" t="s">
@@ -38021,10 +38035,10 @@
       <c r="F1092" s="49">
         <v>6.9848971231300336E-2</v>
       </c>
-      <c r="G1092" s="92"/>
+      <c r="G1092" s="93"/>
     </row>
     <row r="1093" spans="1:7">
-      <c r="G1093" s="92"/>
+      <c r="G1093" s="93"/>
     </row>
     <row r="1094" spans="1:7">
       <c r="B1094" s="56" t="s">
@@ -38042,10 +38056,10 @@
       <c r="F1094" s="49">
         <v>6.3009065821749796E-2</v>
       </c>
-      <c r="G1094" s="92"/>
+      <c r="G1094" s="93"/>
     </row>
     <row r="1095" spans="1:7">
-      <c r="G1095" s="92"/>
+      <c r="G1095" s="93"/>
     </row>
     <row r="1096" spans="1:7">
       <c r="B1096" s="56" t="s">
@@ -38063,10 +38077,10 @@
       <c r="F1096" s="49">
         <v>7.3794322569005949E-2</v>
       </c>
-      <c r="G1096" s="92"/>
+      <c r="G1096" s="93"/>
     </row>
     <row r="1097" spans="1:7">
-      <c r="G1097" s="92"/>
+      <c r="G1097" s="93"/>
     </row>
     <row r="1098" spans="1:7">
       <c r="B1098" s="56" t="s">
@@ -38084,10 +38098,10 @@
       <c r="F1098" s="49">
         <v>6.9194233685033205E-2</v>
       </c>
-      <c r="G1098" s="92"/>
+      <c r="G1098" s="93"/>
     </row>
     <row r="1099" spans="1:7">
-      <c r="G1099" s="92"/>
+      <c r="G1099" s="93"/>
     </row>
     <row r="1100" spans="1:7">
       <c r="A1100" s="13" t="s">
@@ -38108,10 +38122,10 @@
       <c r="F1100" s="49">
         <v>0.12606495172256185</v>
       </c>
-      <c r="G1100" s="92"/>
+      <c r="G1100" s="93"/>
     </row>
     <row r="1101" spans="1:7">
-      <c r="G1101" s="92" t="s">
+      <c r="G1101" s="93" t="s">
         <v>194</v>
       </c>
     </row>
@@ -38131,10 +38145,10 @@
       <c r="F1102" s="49">
         <v>9.6136059761197643E-2</v>
       </c>
-      <c r="G1102" s="92"/>
+      <c r="G1102" s="93"/>
     </row>
     <row r="1103" spans="1:7">
-      <c r="G1103" s="92"/>
+      <c r="G1103" s="93"/>
     </row>
     <row r="1104" spans="1:7">
       <c r="B1104" s="56" t="s">
@@ -38152,10 +38166,10 @@
       <c r="F1104" s="49">
         <v>9.6362712499331066E-2</v>
       </c>
-      <c r="G1104" s="92"/>
+      <c r="G1104" s="93"/>
     </row>
     <row r="1105" spans="2:7">
-      <c r="G1105" s="92"/>
+      <c r="G1105" s="93"/>
     </row>
     <row r="1106" spans="2:7">
       <c r="B1106" s="56" t="s">
@@ -38173,10 +38187,10 @@
       <c r="F1106" s="49">
         <v>7.5837606611435654E-2</v>
       </c>
-      <c r="G1106" s="92"/>
+      <c r="G1106" s="93"/>
     </row>
     <row r="1107" spans="2:7">
-      <c r="G1107" s="92"/>
+      <c r="G1107" s="93"/>
     </row>
     <row r="1108" spans="2:7">
       <c r="B1108" s="56" t="s">
@@ -38194,10 +38208,10 @@
       <c r="F1108" s="49">
         <v>9.2246445021720622E-2</v>
       </c>
-      <c r="G1108" s="92"/>
+      <c r="G1108" s="93"/>
     </row>
     <row r="1109" spans="2:7">
-      <c r="G1109" s="92"/>
+      <c r="G1109" s="93"/>
     </row>
     <row r="1110" spans="2:7">
       <c r="B1110" s="56" t="s">
@@ -38215,7 +38229,7 @@
       <c r="F1110" s="49">
         <v>8.4539912605197443E-2</v>
       </c>
-      <c r="G1110" s="92"/>
+      <c r="G1110" s="93"/>
     </row>
     <row r="1111" spans="2:7">
       <c r="C1111" s="50">
@@ -38234,7 +38248,7 @@
         <f>E1111/C1111</f>
         <v>8.4351032987939972E-2</v>
       </c>
-      <c r="G1111" s="92"/>
+      <c r="G1111" s="93"/>
     </row>
     <row r="1112" spans="2:7">
       <c r="B1112" s="57"/>
@@ -38264,7 +38278,7 @@
       </c>
     </row>
     <row r="1116" spans="2:7">
-      <c r="G1116" s="92"/>
+      <c r="G1116" s="93"/>
     </row>
     <row r="1117" spans="2:7">
       <c r="B1117" s="56" t="s">
@@ -38279,10 +38293,10 @@
       <c r="F1117" s="49">
         <v>0.54271722343047701</v>
       </c>
-      <c r="G1117" s="92"/>
+      <c r="G1117" s="93"/>
     </row>
     <row r="1118" spans="2:7">
-      <c r="G1118" s="92"/>
+      <c r="G1118" s="93"/>
     </row>
     <row r="1119" spans="2:7">
       <c r="B1119" s="56" t="s">
@@ -38297,10 +38311,10 @@
       <c r="F1119" s="49">
         <v>0.52657786917834148</v>
       </c>
-      <c r="G1119" s="92"/>
+      <c r="G1119" s="93"/>
     </row>
     <row r="1120" spans="2:7">
-      <c r="G1120" s="92"/>
+      <c r="G1120" s="93"/>
     </row>
     <row r="1121" spans="1:7">
       <c r="B1121" s="56" t="s">
@@ -38315,10 +38329,10 @@
       <c r="F1121" s="49">
         <v>0.51726481918511835</v>
       </c>
-      <c r="G1121" s="92"/>
+      <c r="G1121" s="93"/>
     </row>
     <row r="1122" spans="1:7">
-      <c r="G1122" s="92"/>
+      <c r="G1122" s="93"/>
     </row>
     <row r="1123" spans="1:7">
       <c r="B1123" s="56" t="s">
@@ -38333,10 +38347,10 @@
       <c r="F1123" s="49">
         <v>0.49447723261849474</v>
       </c>
-      <c r="G1123" s="92"/>
+      <c r="G1123" s="93"/>
     </row>
     <row r="1124" spans="1:7">
-      <c r="G1124" s="92"/>
+      <c r="G1124" s="93"/>
     </row>
     <row r="1125" spans="1:7">
       <c r="B1125" s="56" t="s">
@@ -38351,10 +38365,10 @@
       <c r="F1125" s="49">
         <v>0.53269013190375269</v>
       </c>
-      <c r="G1125" s="92"/>
+      <c r="G1125" s="93"/>
     </row>
     <row r="1126" spans="1:7">
-      <c r="G1126" s="92"/>
+      <c r="G1126" s="93"/>
     </row>
     <row r="1127" spans="1:7">
       <c r="A1127" s="4" t="s">
@@ -38372,10 +38386,10 @@
       <c r="F1127" s="49">
         <v>0.56650373928609032</v>
       </c>
-      <c r="G1127" s="92"/>
+      <c r="G1127" s="93"/>
     </row>
     <row r="1128" spans="1:7">
-      <c r="G1128" s="92"/>
+      <c r="G1128" s="93"/>
     </row>
     <row r="1129" spans="1:7" s="3" customFormat="1">
       <c r="A1129" s="11" t="s">
@@ -38394,10 +38408,10 @@
       <c r="F1129" s="49">
         <v>0.61375290311396191</v>
       </c>
-      <c r="G1129" s="92"/>
+      <c r="G1129" s="93"/>
     </row>
     <row r="1130" spans="1:7">
-      <c r="G1130" s="92"/>
+      <c r="G1130" s="93"/>
     </row>
     <row r="1131" spans="1:7">
       <c r="B1131" s="56" t="s">
@@ -38412,13 +38426,13 @@
       <c r="F1131" s="49">
         <v>0.58190319558368575</v>
       </c>
-      <c r="G1131" s="92"/>
+      <c r="G1131" s="93"/>
     </row>
     <row r="1132" spans="1:7">
       <c r="A1132" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G1132" s="92"/>
+      <c r="G1132" s="93"/>
     </row>
     <row r="1133" spans="1:7">
       <c r="B1133" s="56" t="s">
@@ -38433,12 +38447,12 @@
       <c r="F1133" s="49">
         <v>0.61942521092870728</v>
       </c>
-      <c r="G1133" s="92" t="s">
+      <c r="G1133" s="93" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="1134" spans="1:7">
-      <c r="G1134" s="92"/>
+      <c r="G1134" s="93"/>
     </row>
     <row r="1135" spans="1:7">
       <c r="B1135" s="56" t="s">
@@ -38453,10 +38467,10 @@
       <c r="F1135" s="49">
         <v>0.62239651112484551</v>
       </c>
-      <c r="G1135" s="92"/>
+      <c r="G1135" s="93"/>
     </row>
     <row r="1136" spans="1:7">
-      <c r="G1136" s="92"/>
+      <c r="G1136" s="93"/>
     </row>
     <row r="1137" spans="2:7">
       <c r="B1137" s="56" t="s">
@@ -38471,7 +38485,7 @@
       <c r="F1137" s="49">
         <v>0.64385551957831322</v>
       </c>
-      <c r="G1137" s="92"/>
+      <c r="G1137" s="93"/>
     </row>
     <row r="1138" spans="2:7">
       <c r="C1138" s="50">
@@ -38490,7 +38504,7 @@
         <f>E1138/C1138</f>
         <v>0.56887077510441131</v>
       </c>
-      <c r="G1138" s="92"/>
+      <c r="G1138" s="93"/>
     </row>
     <row r="1139" spans="2:7">
       <c r="B1139" s="59" t="s">
@@ -38542,7 +38556,7 @@
       </c>
     </row>
     <row r="1147" spans="2:7">
-      <c r="G1147" s="92"/>
+      <c r="G1147" s="93"/>
     </row>
     <row r="1148" spans="2:7">
       <c r="B1148" s="56" t="s">
@@ -38560,10 +38574,10 @@
       <c r="F1148" s="49">
         <v>6.4801562500000007E-2</v>
       </c>
-      <c r="G1148" s="92"/>
+      <c r="G1148" s="93"/>
     </row>
     <row r="1149" spans="2:7">
-      <c r="G1149" s="92"/>
+      <c r="G1149" s="93"/>
     </row>
     <row r="1150" spans="2:7">
       <c r="B1150" s="56" t="s">
@@ -38581,10 +38595,10 @@
       <c r="F1150" s="49">
         <v>6.9848999999999994E-2</v>
       </c>
-      <c r="G1150" s="92"/>
+      <c r="G1150" s="93"/>
     </row>
     <row r="1151" spans="2:7">
-      <c r="G1151" s="92"/>
+      <c r="G1151" s="93"/>
     </row>
     <row r="1152" spans="2:7">
       <c r="B1152" s="56" t="s">
@@ -38602,10 +38616,10 @@
       <c r="F1152" s="49">
         <v>6.3009038461538464E-2</v>
       </c>
-      <c r="G1152" s="92"/>
+      <c r="G1152" s="93"/>
     </row>
     <row r="1153" spans="1:7">
-      <c r="G1153" s="92"/>
+      <c r="G1153" s="93"/>
     </row>
     <row r="1154" spans="1:7">
       <c r="B1154" s="56" t="s">
@@ -38623,10 +38637,10 @@
       <c r="F1154" s="49">
         <v>7.3794326923076914E-2</v>
       </c>
-      <c r="G1154" s="92"/>
+      <c r="G1154" s="93"/>
     </row>
     <row r="1155" spans="1:7">
-      <c r="G1155" s="92"/>
+      <c r="G1155" s="93"/>
     </row>
     <row r="1156" spans="1:7">
       <c r="B1156" s="56" t="s">
@@ -38644,10 +38658,10 @@
       <c r="F1156" s="49">
         <v>6.9194224137931026E-2</v>
       </c>
-      <c r="G1156" s="92"/>
+      <c r="G1156" s="93"/>
     </row>
     <row r="1157" spans="1:7">
-      <c r="G1157" s="92"/>
+      <c r="G1157" s="93"/>
     </row>
     <row r="1158" spans="1:7">
       <c r="A1158" s="13" t="s">
@@ -38668,10 +38682,10 @@
       <c r="F1158" s="49">
         <v>0.12606491935483871</v>
       </c>
-      <c r="G1158" s="92"/>
+      <c r="G1158" s="93"/>
     </row>
     <row r="1159" spans="1:7">
-      <c r="G1159" s="92" t="s">
+      <c r="G1159" s="93" t="s">
         <v>195</v>
       </c>
     </row>
@@ -38691,10 +38705,10 @@
       <c r="F1160" s="49">
         <v>9.6136100000000002E-2</v>
       </c>
-      <c r="G1160" s="92"/>
+      <c r="G1160" s="93"/>
     </row>
     <row r="1161" spans="1:7">
-      <c r="G1161" s="92"/>
+      <c r="G1161" s="93"/>
     </row>
     <row r="1162" spans="1:7">
       <c r="B1162" s="56" t="s">
@@ -38712,10 +38726,10 @@
       <c r="F1162" s="49">
         <v>9.6362749999999997E-2</v>
       </c>
-      <c r="G1162" s="92"/>
+      <c r="G1162" s="93"/>
     </row>
     <row r="1163" spans="1:7">
-      <c r="G1163" s="92"/>
+      <c r="G1163" s="93"/>
     </row>
     <row r="1164" spans="1:7">
       <c r="B1164" s="56" t="s">
@@ -38733,10 +38747,10 @@
       <c r="F1164" s="49">
         <v>7.5837613636363627E-2</v>
       </c>
-      <c r="G1164" s="92"/>
+      <c r="G1164" s="93"/>
     </row>
     <row r="1165" spans="1:7">
-      <c r="G1165" s="92"/>
+      <c r="G1165" s="93"/>
     </row>
     <row r="1166" spans="1:7">
       <c r="B1166" s="56" t="s">
@@ -38754,10 +38768,10 @@
       <c r="F1166" s="49">
         <v>9.2246428571428576E-2</v>
       </c>
-      <c r="G1166" s="92"/>
+      <c r="G1166" s="93"/>
     </row>
     <row r="1167" spans="1:7">
-      <c r="G1167" s="92"/>
+      <c r="G1167" s="93"/>
     </row>
     <row r="1168" spans="1:7">
       <c r="B1168" s="56" t="s">
@@ -38775,7 +38789,7 @@
       <c r="F1168" s="49">
         <v>8.4539868421052627E-2</v>
       </c>
-      <c r="G1168" s="92"/>
+      <c r="G1168" s="93"/>
     </row>
     <row r="1169" spans="2:7">
       <c r="C1169" s="50">
@@ -38794,7 +38808,7 @@
         <f>E1169/C1169</f>
         <v>8.2880218855218846E-2</v>
       </c>
-      <c r="G1169" s="92"/>
+      <c r="G1169" s="93"/>
     </row>
     <row r="1170" spans="2:7">
       <c r="B1170" s="59" t="s">
@@ -38850,7 +38864,7 @@
       </c>
     </row>
     <row r="1178" spans="2:7">
-      <c r="G1178" s="92"/>
+      <c r="G1178" s="93"/>
     </row>
     <row r="1179" spans="2:7">
       <c r="B1179" s="56" t="s">
@@ -38868,10 +38882,10 @@
       <c r="F1179" s="49">
         <v>6.4801519243754213E-2</v>
       </c>
-      <c r="G1179" s="92"/>
+      <c r="G1179" s="93"/>
     </row>
     <row r="1180" spans="2:7">
-      <c r="G1180" s="92"/>
+      <c r="G1180" s="93"/>
     </row>
     <row r="1181" spans="2:7">
       <c r="B1181" s="56" t="s">
@@ -38889,10 +38903,10 @@
       <c r="F1181" s="49">
         <v>6.9848986486486478E-2</v>
       </c>
-      <c r="G1181" s="92"/>
+      <c r="G1181" s="93"/>
     </row>
     <row r="1182" spans="2:7">
-      <c r="G1182" s="92"/>
+      <c r="G1182" s="93"/>
     </row>
     <row r="1183" spans="2:7">
       <c r="B1183" s="56" t="s">
@@ -38910,10 +38924,10 @@
       <c r="F1183" s="49">
         <v>6.3009062980030714E-2</v>
       </c>
-      <c r="G1183" s="92"/>
+      <c r="G1183" s="93"/>
     </row>
     <row r="1184" spans="2:7">
-      <c r="G1184" s="92"/>
+      <c r="G1184" s="93"/>
     </row>
     <row r="1185" spans="1:7">
       <c r="A1185" s="4" t="s">
@@ -38934,10 +38948,10 @@
       <c r="F1185" s="49">
         <v>7.3794330786295284E-2</v>
       </c>
-      <c r="G1185" s="92"/>
+      <c r="G1185" s="93"/>
     </row>
     <row r="1186" spans="1:7">
-      <c r="G1186" s="92"/>
+      <c r="G1186" s="93"/>
     </row>
     <row r="1187" spans="1:7" s="3" customFormat="1">
       <c r="A1187" s="11" t="s">
@@ -38958,10 +38972,10 @@
       <c r="F1187" s="49">
         <v>6.9194230335812484E-2</v>
       </c>
-      <c r="G1187" s="92"/>
+      <c r="G1187" s="93"/>
     </row>
     <row r="1188" spans="1:7">
-      <c r="G1188" s="92"/>
+      <c r="G1188" s="93"/>
     </row>
     <row r="1189" spans="1:7">
       <c r="B1189" s="56" t="s">
@@ -38979,13 +38993,13 @@
       <c r="F1189" s="49">
         <v>0.12606494913754976</v>
       </c>
-      <c r="G1189" s="92"/>
+      <c r="G1189" s="93"/>
     </row>
     <row r="1190" spans="1:7">
       <c r="A1190" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G1190" s="92" t="s">
+      <c r="G1190" s="93" t="s">
         <v>195</v>
       </c>
     </row>
@@ -39005,10 +39019,10 @@
       <c r="F1191" s="49">
         <v>9.6136051606621239E-2</v>
       </c>
-      <c r="G1191" s="92"/>
+      <c r="G1191" s="93"/>
     </row>
     <row r="1192" spans="1:7">
-      <c r="G1192" s="92"/>
+      <c r="G1192" s="93"/>
     </row>
     <row r="1193" spans="1:7">
       <c r="B1193" s="56" t="s">
@@ -39026,10 +39040,10 @@
       <c r="F1193" s="49">
         <v>9.6363636363636374E-2</v>
       </c>
-      <c r="G1193" s="92"/>
+      <c r="G1193" s="93"/>
     </row>
     <row r="1194" spans="1:7">
-      <c r="G1194" s="92"/>
+      <c r="G1194" s="93"/>
     </row>
     <row r="1195" spans="1:7">
       <c r="B1195" s="56" t="s">
@@ -39047,10 +39061,10 @@
       <c r="F1195" s="49">
         <v>7.5837612163509469E-2</v>
       </c>
-      <c r="G1195" s="92"/>
+      <c r="G1195" s="93"/>
     </row>
     <row r="1196" spans="1:7">
-      <c r="G1196" s="92"/>
+      <c r="G1196" s="93"/>
     </row>
     <row r="1197" spans="1:7">
       <c r="B1197" s="56" t="s">
@@ -39068,10 +39082,10 @@
       <c r="F1197" s="49">
         <v>9.2247014456316764E-2</v>
       </c>
-      <c r="G1197" s="92"/>
+      <c r="G1197" s="93"/>
     </row>
     <row r="1198" spans="1:7">
-      <c r="G1198" s="92"/>
+      <c r="G1198" s="93"/>
     </row>
     <row r="1199" spans="1:7">
       <c r="B1199" s="56" t="s">
@@ -39089,7 +39103,7 @@
       <c r="F1199" s="49">
         <v>8.4539411206077872E-2</v>
       </c>
-      <c r="G1199" s="92"/>
+      <c r="G1199" s="93"/>
     </row>
     <row r="1200" spans="1:7">
       <c r="C1200" s="50">
@@ -39108,7 +39122,7 @@
         <f>E1200/C1200</f>
         <v>8.3492029261943768E-2</v>
       </c>
-      <c r="G1200" s="92"/>
+      <c r="G1200" s="93"/>
     </row>
     <row r="1201" spans="1:7">
       <c r="B1201" s="57"/>
@@ -39137,7 +39151,7 @@
       </c>
     </row>
     <row r="1205" spans="1:7">
-      <c r="G1205" s="92"/>
+      <c r="G1205" s="93"/>
     </row>
     <row r="1206" spans="1:7">
       <c r="B1206" s="56" t="s">
@@ -39152,10 +39166,10 @@
       <c r="F1206" s="49">
         <v>0.54271739130434782</v>
       </c>
-      <c r="G1206" s="92"/>
+      <c r="G1206" s="93"/>
     </row>
     <row r="1207" spans="1:7">
-      <c r="G1207" s="92"/>
+      <c r="G1207" s="93"/>
     </row>
     <row r="1208" spans="1:7">
       <c r="B1208" s="56" t="s">
@@ -39170,10 +39184,10 @@
       <c r="F1208" s="49">
         <v>0.52657843137254901</v>
       </c>
-      <c r="G1208" s="92"/>
+      <c r="G1208" s="93"/>
     </row>
     <row r="1209" spans="1:7">
-      <c r="G1209" s="92"/>
+      <c r="G1209" s="93"/>
     </row>
     <row r="1210" spans="1:7">
       <c r="B1210" s="56" t="s">
@@ -39188,10 +39202,10 @@
       <c r="F1210" s="49">
         <v>0.51726415094339617</v>
       </c>
-      <c r="G1210" s="92"/>
+      <c r="G1210" s="93"/>
     </row>
     <row r="1211" spans="1:7">
-      <c r="G1211" s="92"/>
+      <c r="G1211" s="93"/>
     </row>
     <row r="1212" spans="1:7">
       <c r="B1212" s="56" t="s">
@@ -39206,10 +39220,10 @@
       <c r="F1212" s="49">
         <v>0.49447704918032787</v>
       </c>
-      <c r="G1212" s="92"/>
+      <c r="G1212" s="93"/>
     </row>
     <row r="1213" spans="1:7">
-      <c r="G1213" s="92"/>
+      <c r="G1213" s="93"/>
     </row>
     <row r="1214" spans="1:7">
       <c r="B1214" s="56" t="s">
@@ -39224,10 +39238,10 @@
       <c r="F1214" s="49">
         <v>0.53269024390243902</v>
       </c>
-      <c r="G1214" s="92"/>
+      <c r="G1214" s="93"/>
     </row>
     <row r="1215" spans="1:7">
-      <c r="G1215" s="92"/>
+      <c r="G1215" s="93"/>
     </row>
     <row r="1216" spans="1:7">
       <c r="A1216" s="13" t="s">
@@ -39245,10 +39259,10 @@
       <c r="F1216" s="49">
         <v>0.56650370370370373</v>
       </c>
-      <c r="G1216" s="92"/>
+      <c r="G1216" s="93"/>
     </row>
     <row r="1217" spans="2:7">
-      <c r="G1217" s="92" t="s">
+      <c r="G1217" s="93" t="s">
         <v>195</v>
       </c>
     </row>
@@ -39265,10 +39279,10 @@
       <c r="F1218" s="49">
         <v>0.61375333333333337</v>
       </c>
-      <c r="G1218" s="92"/>
+      <c r="G1218" s="93"/>
     </row>
     <row r="1219" spans="2:7">
-      <c r="G1219" s="92"/>
+      <c r="G1219" s="93"/>
     </row>
     <row r="1220" spans="2:7">
       <c r="B1220" s="56" t="s">
@@ -39283,10 +39297,10 @@
       <c r="F1220" s="49">
         <v>0.58190377358490564</v>
       </c>
-      <c r="G1220" s="92"/>
+      <c r="G1220" s="93"/>
     </row>
     <row r="1221" spans="2:7">
-      <c r="G1221" s="92"/>
+      <c r="G1221" s="93"/>
     </row>
     <row r="1222" spans="2:7">
       <c r="B1222" s="56" t="s">
@@ -39301,10 +39315,10 @@
       <c r="F1222" s="49">
         <v>0.61942592592592594</v>
       </c>
-      <c r="G1222" s="92"/>
+      <c r="G1222" s="93"/>
     </row>
     <row r="1223" spans="2:7">
-      <c r="G1223" s="92"/>
+      <c r="G1223" s="93"/>
     </row>
     <row r="1224" spans="2:7">
       <c r="B1224" s="56" t="s">
@@ -39319,10 +39333,10 @@
       <c r="F1224" s="49">
         <v>0.62239545454545453</v>
       </c>
-      <c r="G1224" s="92"/>
+      <c r="G1224" s="93"/>
     </row>
     <row r="1225" spans="2:7">
-      <c r="G1225" s="92"/>
+      <c r="G1225" s="93"/>
     </row>
     <row r="1226" spans="2:7">
       <c r="B1226" s="56" t="s">
@@ -39337,7 +39351,7 @@
       <c r="F1226" s="49">
         <v>0</v>
       </c>
-      <c r="G1226" s="92"/>
+      <c r="G1226" s="93"/>
     </row>
     <row r="1227" spans="2:7">
       <c r="C1227" s="50">
@@ -39356,7 +39370,7 @@
         <f>E1227/C1227</f>
         <v>0.55817579737335832</v>
       </c>
-      <c r="G1227" s="92"/>
+      <c r="G1227" s="93"/>
     </row>
     <row r="1228" spans="2:7">
       <c r="B1228" s="59" t="s">
@@ -39405,7 +39419,7 @@
       <c r="G1235" s="89"/>
     </row>
     <row r="1236" spans="1:7">
-      <c r="G1236" s="92"/>
+      <c r="G1236" s="93"/>
     </row>
     <row r="1237" spans="1:7">
       <c r="B1237" s="56" t="s">
@@ -39423,10 +39437,10 @@
       <c r="F1237" s="49">
         <v>6.4801525868561263E-2</v>
       </c>
-      <c r="G1237" s="92"/>
+      <c r="G1237" s="93"/>
     </row>
     <row r="1238" spans="1:7">
-      <c r="G1238" s="92"/>
+      <c r="G1238" s="93"/>
     </row>
     <row r="1239" spans="1:7">
       <c r="B1239" s="56" t="s">
@@ -39444,10 +39458,10 @@
       <c r="F1239" s="49">
         <v>6.9848971288933623E-2</v>
       </c>
-      <c r="G1239" s="92"/>
+      <c r="G1239" s="93"/>
     </row>
     <row r="1240" spans="1:7">
-      <c r="G1240" s="92"/>
+      <c r="G1240" s="93"/>
     </row>
     <row r="1241" spans="1:7">
       <c r="B1241" s="56" t="s">
@@ -39465,10 +39479,10 @@
       <c r="F1241" s="49">
         <v>6.3009067101601188E-2</v>
       </c>
-      <c r="G1241" s="92"/>
+      <c r="G1241" s="93"/>
     </row>
     <row r="1242" spans="1:7">
-      <c r="G1242" s="92"/>
+      <c r="G1242" s="93"/>
     </row>
     <row r="1243" spans="1:7">
       <c r="A1243" s="4" t="s">
@@ -39489,10 +39503,10 @@
       <c r="F1243" s="49">
         <v>7.3794322406205329E-2</v>
       </c>
-      <c r="G1243" s="92"/>
+      <c r="G1243" s="93"/>
     </row>
     <row r="1244" spans="1:7">
-      <c r="G1244" s="92"/>
+      <c r="G1244" s="93"/>
     </row>
     <row r="1245" spans="1:7" s="3" customFormat="1">
       <c r="A1245" s="11" t="s">
@@ -39513,10 +39527,10 @@
       <c r="F1245" s="49">
         <v>6.9194233918017087E-2</v>
       </c>
-      <c r="G1245" s="92"/>
+      <c r="G1245" s="93"/>
     </row>
     <row r="1246" spans="1:7">
-      <c r="G1246" s="92"/>
+      <c r="G1246" s="93"/>
     </row>
     <row r="1247" spans="1:7">
       <c r="B1247" s="56" t="s">
@@ -39534,13 +39548,13 @@
       <c r="F1247" s="49">
         <v>0.12606495223119565</v>
       </c>
-      <c r="G1247" s="92"/>
+      <c r="G1247" s="93"/>
     </row>
     <row r="1248" spans="1:7">
       <c r="A1248" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G1248" s="92"/>
+      <c r="G1248" s="93"/>
     </row>
     <row r="1249" spans="2:7">
       <c r="B1249" s="56" t="s">
@@ -39558,10 +39572,10 @@
       <c r="F1249" s="49">
         <v>9.6136059993376946E-2</v>
       </c>
-      <c r="G1249" s="92"/>
+      <c r="G1249" s="93"/>
     </row>
     <row r="1250" spans="2:7">
-      <c r="G1250" s="92"/>
+      <c r="G1250" s="93"/>
     </row>
     <row r="1251" spans="2:7">
       <c r="B1251" s="56" t="s">
@@ -39579,10 +39593,10 @@
       <c r="F1251" s="49">
         <v>9.6362711805294363E-2</v>
       </c>
-      <c r="G1251" s="92"/>
+      <c r="G1251" s="93"/>
     </row>
     <row r="1252" spans="2:7">
-      <c r="G1252" s="92"/>
+      <c r="G1252" s="93"/>
     </row>
     <row r="1253" spans="2:7">
       <c r="B1253" s="56" t="s">
@@ -39600,10 +39614,10 @@
       <c r="F1253" s="49">
         <v>7.5837607486034686E-2</v>
       </c>
-      <c r="G1253" s="92"/>
+      <c r="G1253" s="93"/>
     </row>
     <row r="1254" spans="2:7">
-      <c r="G1254" s="92"/>
+      <c r="G1254" s="93"/>
     </row>
     <row r="1255" spans="2:7">
       <c r="B1255" s="56" t="s">
@@ -39621,10 +39635,10 @@
       <c r="F1255" s="49">
         <v>9.2246445628157189E-2</v>
       </c>
-      <c r="G1255" s="92"/>
+      <c r="G1255" s="93"/>
     </row>
     <row r="1256" spans="2:7">
-      <c r="G1256" s="92"/>
+      <c r="G1256" s="93"/>
     </row>
     <row r="1257" spans="2:7">
       <c r="B1257" s="56" t="s">
@@ -39642,7 +39656,7 @@
       <c r="F1257" s="49">
         <v>8.4539912171292822E-2</v>
       </c>
-      <c r="G1257" s="92"/>
+      <c r="G1257" s="93"/>
     </row>
     <row r="1258" spans="2:7">
       <c r="C1258" s="50">
@@ -39661,7 +39675,7 @@
         <f>E1258/C1258</f>
         <v>8.1786552565141557E-2</v>
       </c>
-      <c r="G1258" s="92"/>
+      <c r="G1258" s="93"/>
     </row>
     <row r="1259" spans="2:7">
       <c r="B1259" s="57"/>
@@ -39688,7 +39702,7 @@
       <c r="G1262" s="89"/>
     </row>
     <row r="1263" spans="2:7">
-      <c r="G1263" s="92"/>
+      <c r="G1263" s="93"/>
     </row>
     <row r="1264" spans="2:7">
       <c r="B1264" s="56" t="s">
@@ -39703,10 +39717,10 @@
       <c r="F1264" s="49">
         <v>0</v>
       </c>
-      <c r="G1264" s="92"/>
+      <c r="G1264" s="93"/>
     </row>
     <row r="1265" spans="1:7">
-      <c r="G1265" s="92"/>
+      <c r="G1265" s="93"/>
     </row>
     <row r="1266" spans="1:7">
       <c r="B1266" s="56" t="s">
@@ -39721,10 +39735,10 @@
       <c r="F1266" s="49">
         <v>0</v>
       </c>
-      <c r="G1266" s="92"/>
+      <c r="G1266" s="93"/>
     </row>
     <row r="1267" spans="1:7">
-      <c r="G1267" s="92"/>
+      <c r="G1267" s="93"/>
     </row>
     <row r="1268" spans="1:7">
       <c r="B1268" s="56" t="s">
@@ -39739,10 +39753,10 @@
       <c r="F1268" s="49">
         <v>0</v>
       </c>
-      <c r="G1268" s="92"/>
+      <c r="G1268" s="93"/>
     </row>
     <row r="1269" spans="1:7">
-      <c r="G1269" s="92"/>
+      <c r="G1269" s="93"/>
     </row>
     <row r="1270" spans="1:7">
       <c r="B1270" s="56" t="s">
@@ -39757,10 +39771,10 @@
       <c r="F1270" s="49">
         <v>0</v>
       </c>
-      <c r="G1270" s="92"/>
+      <c r="G1270" s="93"/>
     </row>
     <row r="1271" spans="1:7">
-      <c r="G1271" s="92"/>
+      <c r="G1271" s="93"/>
     </row>
     <row r="1272" spans="1:7">
       <c r="B1272" s="56" t="s">
@@ -39775,10 +39789,10 @@
       <c r="F1272" s="49">
         <v>0.53269</v>
       </c>
-      <c r="G1272" s="92"/>
+      <c r="G1272" s="93"/>
     </row>
     <row r="1273" spans="1:7">
-      <c r="G1273" s="92"/>
+      <c r="G1273" s="93"/>
     </row>
     <row r="1274" spans="1:7">
       <c r="A1274" s="13" t="s">
@@ -39796,10 +39810,10 @@
       <c r="F1274" s="49">
         <v>0</v>
       </c>
-      <c r="G1274" s="92"/>
+      <c r="G1274" s="93"/>
     </row>
     <row r="1275" spans="1:7">
-      <c r="G1275" s="92" t="s">
+      <c r="G1275" s="93" t="s">
         <v>197</v>
       </c>
     </row>
@@ -39816,10 +39830,10 @@
       <c r="F1276" s="49">
         <v>0</v>
       </c>
-      <c r="G1276" s="92"/>
+      <c r="G1276" s="93"/>
     </row>
     <row r="1277" spans="1:7">
-      <c r="G1277" s="92"/>
+      <c r="G1277" s="93"/>
     </row>
     <row r="1278" spans="1:7">
       <c r="B1278" s="56" t="s">
@@ -39834,10 +39848,10 @@
       <c r="F1278" s="49">
         <v>0.58190333333333333</v>
       </c>
-      <c r="G1278" s="92"/>
+      <c r="G1278" s="93"/>
     </row>
     <row r="1279" spans="1:7">
-      <c r="G1279" s="92"/>
+      <c r="G1279" s="93"/>
     </row>
     <row r="1280" spans="1:7">
       <c r="B1280" s="56" t="s">
@@ -39852,10 +39866,10 @@
       <c r="F1280" s="49">
         <v>0.61942666666666668</v>
       </c>
-      <c r="G1280" s="92"/>
+      <c r="G1280" s="93"/>
     </row>
     <row r="1281" spans="2:7">
-      <c r="G1281" s="92"/>
+      <c r="G1281" s="93"/>
     </row>
     <row r="1282" spans="2:7">
       <c r="B1282" s="56" t="s">
@@ -39870,10 +39884,10 @@
       <c r="F1282" s="49">
         <v>0.62239500000000003</v>
       </c>
-      <c r="G1282" s="92"/>
+      <c r="G1282" s="93"/>
     </row>
     <row r="1283" spans="2:7">
-      <c r="G1283" s="92"/>
+      <c r="G1283" s="93"/>
     </row>
     <row r="1284" spans="2:7">
       <c r="B1284" s="56" t="s">
@@ -39888,7 +39902,7 @@
       <c r="F1284" s="49">
         <v>0</v>
       </c>
-      <c r="G1284" s="92"/>
+      <c r="G1284" s="93"/>
     </row>
     <row r="1285" spans="2:7">
       <c r="C1285" s="50">
@@ -39907,7 +39921,7 @@
         <f>E1285/C1285</f>
         <v>0.59393166666666664</v>
       </c>
-      <c r="G1285" s="92"/>
+      <c r="G1285" s="93"/>
     </row>
     <row r="1286" spans="2:7">
       <c r="B1286" s="59" t="s">
@@ -39954,7 +39968,7 @@
       </c>
     </row>
     <row r="1294" spans="2:7">
-      <c r="G1294" s="92"/>
+      <c r="G1294" s="93"/>
     </row>
     <row r="1295" spans="2:7">
       <c r="B1295" s="56" t="s">
@@ -39972,10 +39986,10 @@
       <c r="F1295" s="49">
         <v>6.4801525423728815E-2</v>
       </c>
-      <c r="G1295" s="92"/>
+      <c r="G1295" s="93"/>
     </row>
     <row r="1296" spans="2:7">
-      <c r="G1296" s="92"/>
+      <c r="G1296" s="93"/>
     </row>
     <row r="1297" spans="1:7">
       <c r="B1297" s="56" t="s">
@@ -39993,10 +40007,10 @@
       <c r="F1297" s="49">
         <v>6.9848980263157889E-2</v>
       </c>
-      <c r="G1297" s="92"/>
+      <c r="G1297" s="93"/>
     </row>
     <row r="1298" spans="1:7">
-      <c r="G1298" s="92"/>
+      <c r="G1298" s="93"/>
     </row>
     <row r="1299" spans="1:7">
       <c r="B1299" s="56" t="s">
@@ -40014,10 +40028,10 @@
       <c r="F1299" s="49">
         <v>6.3009075342465748E-2</v>
       </c>
-      <c r="G1299" s="92"/>
+      <c r="G1299" s="93"/>
     </row>
     <row r="1300" spans="1:7">
-      <c r="G1300" s="92"/>
+      <c r="G1300" s="93"/>
     </row>
     <row r="1301" spans="1:7">
       <c r="A1301" s="4" t="s">
@@ -40038,10 +40052,10 @@
       <c r="F1301" s="49">
         <v>7.379430555555555E-2</v>
       </c>
-      <c r="G1301" s="92"/>
+      <c r="G1301" s="93"/>
     </row>
     <row r="1302" spans="1:7">
-      <c r="G1302" s="92"/>
+      <c r="G1302" s="93"/>
     </row>
     <row r="1303" spans="1:7" s="3" customFormat="1">
       <c r="A1303" s="11" t="s">
@@ -40062,10 +40076,10 @@
       <c r="F1303" s="49">
         <v>6.919422535211267E-2</v>
       </c>
-      <c r="G1303" s="92"/>
+      <c r="G1303" s="93"/>
     </row>
     <row r="1304" spans="1:7">
-      <c r="G1304" s="92"/>
+      <c r="G1304" s="93"/>
     </row>
     <row r="1305" spans="1:7">
       <c r="B1305" s="56" t="s">
@@ -40083,13 +40097,13 @@
       <c r="F1305" s="49">
         <v>0.12606493670886074</v>
       </c>
-      <c r="G1305" s="92"/>
+      <c r="G1305" s="93"/>
     </row>
     <row r="1306" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1306" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G1306" s="92" t="s">
+      <c r="G1306" s="93" t="s">
         <v>195</v>
       </c>
     </row>
@@ -40109,10 +40123,10 @@
       <c r="F1307" s="49">
         <v>9.6136044776119395E-2</v>
       </c>
-      <c r="G1307" s="92"/>
+      <c r="G1307" s="93"/>
     </row>
     <row r="1308" spans="1:7">
-      <c r="G1308" s="92"/>
+      <c r="G1308" s="93"/>
     </row>
     <row r="1309" spans="1:7">
       <c r="B1309" s="56" t="s">
@@ -40130,10 +40144,10 @@
       <c r="F1309" s="49">
         <v>9.6362715517241376E-2</v>
       </c>
-      <c r="G1309" s="92"/>
+      <c r="G1309" s="93"/>
     </row>
     <row r="1310" spans="1:7">
-      <c r="G1310" s="92"/>
+      <c r="G1310" s="93"/>
     </row>
     <row r="1311" spans="1:7">
       <c r="B1311" s="56" t="s">
@@ -40151,10 +40165,10 @@
       <c r="F1311" s="49">
         <v>7.5837613636363627E-2</v>
       </c>
-      <c r="G1311" s="92"/>
+      <c r="G1311" s="93"/>
     </row>
     <row r="1312" spans="1:7">
-      <c r="G1312" s="92"/>
+      <c r="G1312" s="93"/>
     </row>
     <row r="1313" spans="2:7">
       <c r="B1313" s="56" t="s">
@@ -40172,10 +40186,10 @@
       <c r="F1313" s="49">
         <v>9.224645454545452E-2</v>
       </c>
-      <c r="G1313" s="92"/>
+      <c r="G1313" s="93"/>
     </row>
     <row r="1314" spans="2:7">
-      <c r="G1314" s="92"/>
+      <c r="G1314" s="93"/>
     </row>
     <row r="1315" spans="2:7">
       <c r="B1315" s="56" t="s">
@@ -40193,7 +40207,7 @@
       <c r="F1315" s="49">
         <v>8.4539913793103438E-2</v>
       </c>
-      <c r="G1315" s="92"/>
+      <c r="G1315" s="93"/>
     </row>
     <row r="1316" spans="2:7">
       <c r="C1316" s="50">
@@ -40212,7 +40226,7 @@
         <f>E1316/C1316</f>
         <v>8.2662030864197517E-2</v>
       </c>
-      <c r="G1316" s="92"/>
+      <c r="G1316" s="93"/>
     </row>
     <row r="1317" spans="2:7">
       <c r="B1317" s="59" t="s">
@@ -40267,7 +40281,7 @@
       </c>
     </row>
     <row r="1325" spans="2:7">
-      <c r="G1325" s="92"/>
+      <c r="G1325" s="93"/>
     </row>
     <row r="1326" spans="2:7">
       <c r="B1326" s="56" t="s">
@@ -40285,10 +40299,10 @@
       <c r="F1326" s="49">
         <v>6.4801527092323188E-2</v>
       </c>
-      <c r="G1326" s="92"/>
+      <c r="G1326" s="93"/>
     </row>
     <row r="1327" spans="2:7">
-      <c r="G1327" s="92"/>
+      <c r="G1327" s="93"/>
     </row>
     <row r="1328" spans="2:7">
       <c r="B1328" s="56" t="s">
@@ -40306,10 +40320,10 @@
       <c r="F1328" s="49">
         <v>6.9848971980310481E-2</v>
       </c>
-      <c r="G1328" s="92"/>
+      <c r="G1328" s="93"/>
     </row>
     <row r="1329" spans="1:7">
-      <c r="G1329" s="92"/>
+      <c r="G1329" s="93"/>
     </row>
     <row r="1330" spans="1:7">
       <c r="B1330" s="56" t="s">
@@ -40327,10 +40341,10 @@
       <c r="F1330" s="49">
         <v>6.3009065892923988E-2</v>
       </c>
-      <c r="G1330" s="92"/>
+      <c r="G1330" s="93"/>
     </row>
     <row r="1331" spans="1:7">
-      <c r="G1331" s="92"/>
+      <c r="G1331" s="93"/>
     </row>
     <row r="1332" spans="1:7">
       <c r="A1332" s="13" t="s">
@@ -40351,10 +40365,10 @@
       <c r="F1332" s="49">
         <v>7.3794322525838868E-2</v>
       </c>
-      <c r="G1332" s="92"/>
+      <c r="G1332" s="93"/>
     </row>
     <row r="1333" spans="1:7">
-      <c r="G1333" s="92" t="s">
+      <c r="G1333" s="93" t="s">
         <v>198</v>
       </c>
     </row>
@@ -40374,10 +40388,10 @@
       <c r="F1334" s="49">
         <v>6.9194232938930192E-2</v>
       </c>
-      <c r="G1334" s="92"/>
+      <c r="G1334" s="93"/>
     </row>
     <row r="1335" spans="1:7">
-      <c r="G1335" s="92"/>
+      <c r="G1335" s="93"/>
     </row>
     <row r="1336" spans="1:7">
       <c r="B1336" s="56" t="s">
@@ -40395,10 +40409,10 @@
       <c r="F1336" s="49">
         <v>0.1260649523485364</v>
       </c>
-      <c r="G1336" s="92"/>
+      <c r="G1336" s="93"/>
     </row>
     <row r="1337" spans="1:7">
-      <c r="G1337" s="92"/>
+      <c r="G1337" s="93"/>
     </row>
     <row r="1338" spans="1:7">
       <c r="B1338" s="56" t="s">
@@ -40416,10 +40430,10 @@
       <c r="F1338" s="49">
         <v>9.6136060798446415E-2</v>
       </c>
-      <c r="G1338" s="92"/>
+      <c r="G1338" s="93"/>
     </row>
     <row r="1339" spans="1:7">
-      <c r="G1339" s="92"/>
+      <c r="G1339" s="93"/>
     </row>
     <row r="1340" spans="1:7">
       <c r="B1340" s="56" t="s">
@@ -40437,10 +40451,10 @@
       <c r="F1340" s="49">
         <v>9.6362712583316495E-2</v>
       </c>
-      <c r="G1340" s="92"/>
+      <c r="G1340" s="93"/>
     </row>
     <row r="1341" spans="1:7">
-      <c r="G1341" s="92"/>
+      <c r="G1341" s="93"/>
     </row>
     <row r="1342" spans="1:7">
       <c r="B1342" s="56" t="s">
@@ -40458,10 +40472,10 @@
       <c r="F1342" s="49">
         <v>7.5837607623900169E-2</v>
       </c>
-      <c r="G1342" s="92"/>
+      <c r="G1342" s="93"/>
     </row>
     <row r="1343" spans="1:7">
-      <c r="G1343" s="92"/>
+      <c r="G1343" s="93"/>
     </row>
     <row r="1344" spans="1:7">
       <c r="B1344" s="56" t="s">
@@ -40479,10 +40493,10 @@
       <c r="F1344" s="49">
         <v>9.2246445804401556E-2</v>
       </c>
-      <c r="G1344" s="92"/>
+      <c r="G1344" s="93"/>
     </row>
     <row r="1345" spans="1:7">
-      <c r="G1345" s="92"/>
+      <c r="G1345" s="93"/>
     </row>
     <row r="1346" spans="1:7">
       <c r="B1346" s="56" t="s">
@@ -40500,7 +40514,7 @@
       <c r="F1346" s="49">
         <v>8.4539910029587564E-2</v>
       </c>
-      <c r="G1346" s="92"/>
+      <c r="G1346" s="93"/>
     </row>
     <row r="1347" spans="1:7">
       <c r="C1347" s="50">
@@ -40519,7 +40533,7 @@
         <f>E1347/C1347</f>
         <v>8.2659442007714662E-2</v>
       </c>
-      <c r="G1347" s="92"/>
+      <c r="G1347" s="93"/>
     </row>
     <row r="1348" spans="1:7">
       <c r="B1348" s="59" t="s">
@@ -40567,7 +40581,7 @@
       </c>
     </row>
     <row r="1354" spans="1:7">
-      <c r="G1354" s="92"/>
+      <c r="G1354" s="93"/>
     </row>
     <row r="1355" spans="1:7">
       <c r="B1355" s="56" t="s">
@@ -40585,10 +40599,10 @@
       <c r="F1355" s="49">
         <v>6.4801458333333326E-2</v>
       </c>
-      <c r="G1355" s="92"/>
+      <c r="G1355" s="93"/>
     </row>
     <row r="1356" spans="1:7">
-      <c r="G1356" s="92"/>
+      <c r="G1356" s="93"/>
     </row>
     <row r="1357" spans="1:7">
       <c r="B1357" s="56" t="s">
@@ -40606,10 +40620,10 @@
       <c r="F1357" s="49">
         <v>6.9848958333333336E-2</v>
       </c>
-      <c r="G1357" s="92"/>
+      <c r="G1357" s="93"/>
     </row>
     <row r="1358" spans="1:7">
-      <c r="G1358" s="92"/>
+      <c r="G1358" s="93"/>
     </row>
     <row r="1359" spans="1:7">
       <c r="A1359" s="4" t="s">
@@ -40630,10 +40644,10 @@
       <c r="F1359" s="49">
         <v>6.3009021739130436E-2</v>
       </c>
-      <c r="G1359" s="92"/>
+      <c r="G1359" s="93"/>
     </row>
     <row r="1360" spans="1:7">
-      <c r="G1360" s="92"/>
+      <c r="G1360" s="93"/>
     </row>
     <row r="1361" spans="1:7" s="3" customFormat="1">
       <c r="A1361" s="11" t="s">
@@ -40654,10 +40668,10 @@
       <c r="F1361" s="49">
         <v>7.3794318181818183E-2</v>
       </c>
-      <c r="G1361" s="92"/>
+      <c r="G1361" s="93"/>
     </row>
     <row r="1362" spans="1:7">
-      <c r="G1362" s="92"/>
+      <c r="G1362" s="93"/>
     </row>
     <row r="1363" spans="1:7">
       <c r="B1363" s="56" t="s">
@@ -40675,13 +40689,13 @@
       <c r="F1363" s="49">
         <v>6.9193749999999998E-2</v>
       </c>
-      <c r="G1363" s="92"/>
+      <c r="G1363" s="93"/>
     </row>
     <row r="1364" spans="1:7">
       <c r="A1364" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G1364" s="92"/>
+      <c r="G1364" s="93"/>
     </row>
     <row r="1365" spans="1:7">
       <c r="B1365" s="56" t="s">
@@ -40699,10 +40713,10 @@
       <c r="F1365" s="49">
         <v>0.12606500000000001</v>
       </c>
-      <c r="G1365" s="92"/>
+      <c r="G1365" s="93"/>
     </row>
     <row r="1366" spans="1:7">
-      <c r="G1366" s="92" t="s">
+      <c r="G1366" s="93" t="s">
         <v>195</v>
       </c>
     </row>
@@ -40722,10 +40736,10 @@
       <c r="F1367" s="49">
         <v>9.6136041666666644E-2</v>
       </c>
-      <c r="G1367" s="92"/>
+      <c r="G1367" s="93"/>
     </row>
     <row r="1368" spans="1:7">
-      <c r="G1368" s="92"/>
+      <c r="G1368" s="93"/>
     </row>
     <row r="1369" spans="1:7">
       <c r="B1369" s="56" t="s">
@@ -40743,10 +40757,10 @@
       <c r="F1369" s="49">
         <v>9.6362749999999997E-2</v>
       </c>
-      <c r="G1369" s="92"/>
+      <c r="G1369" s="93"/>
     </row>
     <row r="1370" spans="1:7">
-      <c r="G1370" s="92"/>
+      <c r="G1370" s="93"/>
     </row>
     <row r="1371" spans="1:7">
       <c r="B1371" s="56" t="s">
@@ -40764,10 +40778,10 @@
       <c r="F1371" s="49">
         <v>7.5837500000000002E-2</v>
       </c>
-      <c r="G1371" s="92"/>
+      <c r="G1371" s="93"/>
     </row>
     <row r="1372" spans="1:7">
-      <c r="G1372" s="92"/>
+      <c r="G1372" s="93"/>
     </row>
     <row r="1373" spans="1:7">
       <c r="B1373" s="56" t="s">
@@ -40785,10 +40799,10 @@
       <c r="F1373" s="49">
         <v>9.2246562500000004E-2</v>
       </c>
-      <c r="G1373" s="92"/>
+      <c r="G1373" s="93"/>
     </row>
     <row r="1374" spans="1:7">
-      <c r="G1374" s="92"/>
+      <c r="G1374" s="93"/>
     </row>
     <row r="1375" spans="1:7">
       <c r="B1375" s="56" t="s">
@@ -40806,7 +40820,7 @@
       <c r="F1375" s="49">
         <v>8.4540000000000004E-2</v>
       </c>
-      <c r="G1375" s="92"/>
+      <c r="G1375" s="93"/>
     </row>
     <row r="1376" spans="1:7">
       <c r="C1376" s="50">
@@ -40825,7 +40839,7 @@
         <f>E1376/C1376</f>
         <v>8.0839280303030295E-2</v>
       </c>
-      <c r="G1376" s="92"/>
+      <c r="G1376" s="93"/>
     </row>
     <row r="1377" spans="1:7">
       <c r="B1377" s="59" t="s">
@@ -40874,7 +40888,7 @@
       <c r="G1384" s="89"/>
     </row>
     <row r="1385" spans="1:7">
-      <c r="G1385" s="92"/>
+      <c r="G1385" s="93"/>
     </row>
     <row r="1386" spans="1:7">
       <c r="B1386" s="56" t="s">
@@ -40892,10 +40906,10 @@
       <c r="F1386" s="49">
         <v>6.4801605769702716E-2</v>
       </c>
-      <c r="G1386" s="92"/>
+      <c r="G1386" s="93"/>
     </row>
     <row r="1387" spans="1:7">
-      <c r="G1387" s="92"/>
+      <c r="G1387" s="93"/>
     </row>
     <row r="1388" spans="1:7">
       <c r="B1388" s="56" t="s">
@@ -40913,10 +40927,10 @@
       <c r="F1388" s="49">
         <v>6.9849133237026337E-2</v>
       </c>
-      <c r="G1388" s="92"/>
+      <c r="G1388" s="93"/>
     </row>
     <row r="1389" spans="1:7">
-      <c r="G1389" s="92"/>
+      <c r="G1389" s="93"/>
     </row>
     <row r="1390" spans="1:7">
       <c r="A1390" s="4" t="s">
@@ -40937,10 +40951,10 @@
       <c r="F1390" s="49">
         <v>6.3008953647659113E-2</v>
       </c>
-      <c r="G1390" s="92"/>
+      <c r="G1390" s="93"/>
     </row>
     <row r="1391" spans="1:7">
-      <c r="G1391" s="92"/>
+      <c r="G1391" s="93"/>
     </row>
     <row r="1392" spans="1:7" s="3" customFormat="1">
       <c r="A1392" s="11" t="s">
@@ -40961,10 +40975,10 @@
       <c r="F1392" s="49">
         <v>7.3794466728144076E-2</v>
       </c>
-      <c r="G1392" s="92"/>
+      <c r="G1392" s="93"/>
     </row>
     <row r="1393" spans="1:7">
-      <c r="G1393" s="92"/>
+      <c r="G1393" s="93"/>
     </row>
     <row r="1394" spans="1:7">
       <c r="B1394" s="56" t="s">
@@ -40982,13 +40996,13 @@
       <c r="F1394" s="49">
         <v>6.9194246311842553E-2</v>
       </c>
-      <c r="G1394" s="92"/>
+      <c r="G1394" s="93"/>
     </row>
     <row r="1395" spans="1:7">
       <c r="A1395" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G1395" s="92"/>
+      <c r="G1395" s="93"/>
     </row>
     <row r="1396" spans="1:7">
       <c r="B1396" s="56" t="s">
@@ -41006,10 +41020,10 @@
       <c r="F1396" s="49">
         <v>0.12606498344271216</v>
       </c>
-      <c r="G1396" s="92"/>
+      <c r="G1396" s="93"/>
     </row>
     <row r="1397" spans="1:7">
-      <c r="G1397" s="92"/>
+      <c r="G1397" s="93"/>
     </row>
     <row r="1398" spans="1:7">
       <c r="B1398" s="56" t="s">
@@ -41027,10 +41041,10 @@
       <c r="F1398" s="49">
         <v>9.6136143783817574E-2</v>
       </c>
-      <c r="G1398" s="92"/>
+      <c r="G1398" s="93"/>
     </row>
     <row r="1399" spans="1:7">
-      <c r="G1399" s="92"/>
+      <c r="G1399" s="93"/>
     </row>
     <row r="1400" spans="1:7">
       <c r="B1400" s="56" t="s">
@@ -41048,10 +41062,10 @@
       <c r="F1400" s="49">
         <v>9.6362741672216951E-2</v>
       </c>
-      <c r="G1400" s="92"/>
+      <c r="G1400" s="93"/>
     </row>
     <row r="1401" spans="1:7">
-      <c r="G1401" s="92"/>
+      <c r="G1401" s="93"/>
     </row>
     <row r="1402" spans="1:7">
       <c r="B1402" s="56" t="s">
@@ -41069,10 +41083,10 @@
       <c r="F1402" s="49">
         <v>7.5837648962856163E-2</v>
       </c>
-      <c r="G1402" s="92"/>
+      <c r="G1402" s="93"/>
     </row>
     <row r="1403" spans="1:7">
-      <c r="G1403" s="92"/>
+      <c r="G1403" s="93"/>
     </row>
     <row r="1404" spans="1:7">
       <c r="B1404" s="56" t="s">
@@ -41090,10 +41104,10 @@
       <c r="F1404" s="49">
         <v>9.2246535380564432E-2</v>
       </c>
-      <c r="G1404" s="92"/>
+      <c r="G1404" s="93"/>
     </row>
     <row r="1405" spans="1:7">
-      <c r="G1405" s="92"/>
+      <c r="G1405" s="93"/>
     </row>
     <row r="1406" spans="1:7">
       <c r="B1406" s="56" t="s">
@@ -41111,7 +41125,7 @@
       <c r="F1406" s="49">
         <v>8.4539812138843567E-2</v>
       </c>
-      <c r="G1406" s="92"/>
+      <c r="G1406" s="93"/>
     </row>
     <row r="1407" spans="1:7">
       <c r="C1407" s="50">
@@ -41130,7 +41144,7 @@
         <f>E1407/C1407</f>
         <v>8.249727964017374E-2</v>
       </c>
-      <c r="G1407" s="92"/>
+      <c r="G1407" s="93"/>
     </row>
     <row r="1408" spans="1:7">
       <c r="B1408" s="59" t="s">
@@ -41179,7 +41193,7 @@
       <c r="G1415" s="89"/>
     </row>
     <row r="1416" spans="1:7">
-      <c r="G1416" s="92"/>
+      <c r="G1416" s="93"/>
     </row>
     <row r="1417" spans="1:7">
       <c r="B1417" s="56" t="s">
@@ -41197,10 +41211,10 @@
       <c r="F1417" s="49">
         <v>6.4801510721288078E-2</v>
       </c>
-      <c r="G1417" s="92"/>
+      <c r="G1417" s="93"/>
     </row>
     <row r="1418" spans="1:7">
-      <c r="G1418" s="92"/>
+      <c r="G1418" s="93"/>
     </row>
     <row r="1419" spans="1:7">
       <c r="B1419" s="56" t="s">
@@ -41218,10 +41232,10 @@
       <c r="F1419" s="49">
         <v>6.9848972793145767E-2</v>
       </c>
-      <c r="G1419" s="92"/>
+      <c r="G1419" s="93"/>
     </row>
     <row r="1420" spans="1:7">
-      <c r="G1420" s="92"/>
+      <c r="G1420" s="93"/>
     </row>
     <row r="1421" spans="1:7">
       <c r="A1421" s="4" t="s">
@@ -41242,10 +41256,10 @@
       <c r="F1421" s="49">
         <v>6.3009071443494144E-2</v>
       </c>
-      <c r="G1421" s="92"/>
+      <c r="G1421" s="93"/>
     </row>
     <row r="1422" spans="1:7">
-      <c r="G1422" s="92"/>
+      <c r="G1422" s="93"/>
     </row>
     <row r="1423" spans="1:7" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A1423" s="11" t="s">
@@ -41266,10 +41280,10 @@
       <c r="F1423" s="49">
         <v>7.3794318152444957E-2</v>
       </c>
-      <c r="G1423" s="92"/>
+      <c r="G1423" s="93"/>
     </row>
     <row r="1424" spans="1:7">
-      <c r="G1424" s="92"/>
+      <c r="G1424" s="93"/>
     </row>
     <row r="1425" spans="1:7">
       <c r="B1425" s="56" t="s">
@@ -41287,13 +41301,13 @@
       <c r="F1425" s="49">
         <v>6.9222709448184164E-2</v>
       </c>
-      <c r="G1425" s="92"/>
+      <c r="G1425" s="93"/>
     </row>
     <row r="1426" spans="1:7">
       <c r="A1426" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G1426" s="92"/>
+      <c r="G1426" s="93"/>
     </row>
     <row r="1427" spans="1:7">
       <c r="B1427" s="56" t="s">
@@ -41311,10 +41325,10 @@
       <c r="F1427" s="49">
         <v>0.12606493800999433</v>
       </c>
-      <c r="G1427" s="92"/>
+      <c r="G1427" s="93"/>
     </row>
     <row r="1428" spans="1:7">
-      <c r="G1428" s="92"/>
+      <c r="G1428" s="93"/>
     </row>
     <row r="1429" spans="1:7">
       <c r="B1429" s="56" t="s">
@@ -41332,10 +41346,10 @@
       <c r="F1429" s="49">
         <v>9.6136047907803487E-2</v>
       </c>
-      <c r="G1429" s="92"/>
+      <c r="G1429" s="93"/>
     </row>
     <row r="1430" spans="1:7">
-      <c r="G1430" s="92"/>
+      <c r="G1430" s="93"/>
     </row>
     <row r="1431" spans="1:7">
       <c r="B1431" s="56" t="s">
@@ -41353,10 +41367,10 @@
       <c r="F1431" s="49">
         <v>9.6362528807601044E-2</v>
       </c>
-      <c r="G1431" s="92"/>
+      <c r="G1431" s="93"/>
     </row>
     <row r="1432" spans="1:7">
-      <c r="G1432" s="92"/>
+      <c r="G1432" s="93"/>
     </row>
     <row r="1433" spans="1:7">
       <c r="B1433" s="56" t="s">
@@ -41374,10 +41388,10 @@
       <c r="F1433" s="49">
         <v>7.5837625062477584E-2</v>
       </c>
-      <c r="G1433" s="92"/>
+      <c r="G1433" s="93"/>
     </row>
     <row r="1434" spans="1:7">
-      <c r="G1434" s="92"/>
+      <c r="G1434" s="93"/>
     </row>
     <row r="1435" spans="1:7">
       <c r="B1435" s="56" t="s">
@@ -41395,10 +41409,10 @@
       <c r="F1435" s="49">
         <v>9.2246443987249058E-2</v>
       </c>
-      <c r="G1435" s="92"/>
+      <c r="G1435" s="93"/>
     </row>
     <row r="1436" spans="1:7">
-      <c r="G1436" s="92"/>
+      <c r="G1436" s="93"/>
     </row>
     <row r="1437" spans="1:7">
       <c r="B1437" s="56" t="s">
@@ -41416,7 +41430,7 @@
       <c r="F1437" s="49">
         <v>8.4539921293954323E-2</v>
       </c>
-      <c r="G1437" s="92"/>
+      <c r="G1437" s="93"/>
     </row>
     <row r="1438" spans="1:7">
       <c r="C1438" s="50">
@@ -41435,7 +41449,7 @@
         <f>E1438/C1438</f>
         <v>8.2625368936855473E-2</v>
       </c>
-      <c r="G1438" s="92"/>
+      <c r="G1438" s="93"/>
     </row>
     <row r="1439" spans="1:7">
       <c r="B1439" s="57"/>
@@ -41464,7 +41478,7 @@
       </c>
     </row>
     <row r="1443" spans="1:7">
-      <c r="G1443" s="92"/>
+      <c r="G1443" s="93"/>
     </row>
     <row r="1444" spans="1:7">
       <c r="B1444" s="56" t="s">
@@ -41479,10 +41493,10 @@
       <c r="F1444" s="49">
         <v>0.5427175438596491</v>
       </c>
-      <c r="G1444" s="92"/>
+      <c r="G1444" s="93"/>
     </row>
     <row r="1445" spans="1:7">
-      <c r="G1445" s="92"/>
+      <c r="G1445" s="93"/>
     </row>
     <row r="1446" spans="1:7">
       <c r="B1446" s="56" t="s">
@@ -41497,10 +41511,10 @@
       <c r="F1446" s="49">
         <v>0.52657816091954024</v>
       </c>
-      <c r="G1446" s="92"/>
+      <c r="G1446" s="93"/>
     </row>
     <row r="1447" spans="1:7">
-      <c r="G1447" s="92"/>
+      <c r="G1447" s="93"/>
     </row>
     <row r="1448" spans="1:7">
       <c r="B1448" s="56" t="s">
@@ -41515,10 +41529,10 @@
       <c r="F1448" s="49">
         <v>0.51726484245439464</v>
       </c>
-      <c r="G1448" s="92"/>
+      <c r="G1448" s="93"/>
     </row>
     <row r="1449" spans="1:7">
-      <c r="G1449" s="92"/>
+      <c r="G1449" s="93"/>
     </row>
     <row r="1450" spans="1:7">
       <c r="B1450" s="56" t="s">
@@ -41533,10 +41547,10 @@
       <c r="F1450" s="49">
         <v>0.49447750000000001</v>
       </c>
-      <c r="G1450" s="92"/>
+      <c r="G1450" s="93"/>
     </row>
     <row r="1451" spans="1:7">
-      <c r="G1451" s="92"/>
+      <c r="G1451" s="93"/>
     </row>
     <row r="1452" spans="1:7">
       <c r="A1452" s="4" t="s">
@@ -41554,10 +41568,10 @@
       <c r="F1452" s="49">
         <v>0.53269</v>
       </c>
-      <c r="G1452" s="92"/>
+      <c r="G1452" s="93"/>
     </row>
     <row r="1453" spans="1:7">
-      <c r="G1453" s="92"/>
+      <c r="G1453" s="93"/>
     </row>
     <row r="1454" spans="1:7" s="3" customFormat="1">
       <c r="A1454" s="11" t="s">
@@ -41576,10 +41590,10 @@
       <c r="F1454" s="49">
         <v>0.56650403225806456</v>
       </c>
-      <c r="G1454" s="92"/>
+      <c r="G1454" s="93"/>
     </row>
     <row r="1455" spans="1:7">
-      <c r="G1455" s="92"/>
+      <c r="G1455" s="93"/>
     </row>
     <row r="1456" spans="1:7">
       <c r="B1456" s="56" t="s">
@@ -41594,13 +41608,13 @@
       <c r="F1456" s="49">
         <v>0.61375294117647061</v>
       </c>
-      <c r="G1456" s="92"/>
+      <c r="G1456" s="93"/>
     </row>
     <row r="1457" spans="1:7">
       <c r="A1457" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G1457" s="92" t="s">
+      <c r="G1457" s="93" t="s">
         <v>201</v>
       </c>
     </row>
@@ -41617,10 +41631,10 @@
       <c r="F1458" s="49">
         <v>0.58189999999999997</v>
       </c>
-      <c r="G1458" s="92"/>
+      <c r="G1458" s="93"/>
     </row>
     <row r="1459" spans="1:7">
-      <c r="G1459" s="92"/>
+      <c r="G1459" s="93"/>
     </row>
     <row r="1460" spans="1:7">
       <c r="B1460" s="56" t="s">
@@ -41635,10 +41649,10 @@
       <c r="F1460" s="49">
         <v>0.61942727272727272</v>
       </c>
-      <c r="G1460" s="92"/>
+      <c r="G1460" s="93"/>
     </row>
     <row r="1461" spans="1:7">
-      <c r="G1461" s="92"/>
+      <c r="G1461" s="93"/>
     </row>
     <row r="1462" spans="1:7">
       <c r="B1462" s="56" t="s">
@@ -41653,10 +41667,10 @@
       <c r="F1462" s="49">
         <v>0</v>
       </c>
-      <c r="G1462" s="92"/>
+      <c r="G1462" s="93"/>
     </row>
     <row r="1463" spans="1:7">
-      <c r="G1463" s="92"/>
+      <c r="G1463" s="93"/>
     </row>
     <row r="1464" spans="1:7">
       <c r="B1464" s="56" t="s">
@@ -41671,7 +41685,7 @@
       <c r="F1464" s="49">
         <v>0</v>
       </c>
-      <c r="G1464" s="92"/>
+      <c r="G1464" s="93"/>
     </row>
     <row r="1465" spans="1:7">
       <c r="C1465" s="50">
@@ -41690,7 +41704,7 @@
         <f>E1465/C1465</f>
         <v>0.52817740555951542</v>
       </c>
-      <c r="G1465" s="92"/>
+      <c r="G1465" s="93"/>
     </row>
     <row r="1466" spans="1:7">
       <c r="B1466" s="59" t="s">
@@ -41736,7 +41750,7 @@
       <c r="G1472" s="89"/>
     </row>
     <row r="1473" spans="1:7">
-      <c r="G1473" s="92"/>
+      <c r="G1473" s="93"/>
     </row>
     <row r="1474" spans="1:7">
       <c r="B1474" s="56" t="s">
@@ -41754,10 +41768,10 @@
       <c r="F1474" s="49">
         <v>6.4801526625214712E-2</v>
       </c>
-      <c r="G1474" s="92"/>
+      <c r="G1474" s="93"/>
     </row>
     <row r="1475" spans="1:7">
-      <c r="G1475" s="92"/>
+      <c r="G1475" s="93"/>
     </row>
     <row r="1476" spans="1:7">
       <c r="B1476" s="56" t="s">
@@ -41775,10 +41789,10 @@
       <c r="F1476" s="49">
         <v>6.9848971159634426E-2</v>
       </c>
-      <c r="G1476" s="92"/>
+      <c r="G1476" s="93"/>
     </row>
     <row r="1477" spans="1:7">
-      <c r="G1477" s="92"/>
+      <c r="G1477" s="93"/>
     </row>
     <row r="1478" spans="1:7">
       <c r="B1478" s="56" t="s">
@@ -41796,10 +41810,10 @@
       <c r="F1478" s="49">
         <v>6.3009065833026845E-2</v>
       </c>
-      <c r="G1478" s="92"/>
+      <c r="G1478" s="93"/>
     </row>
     <row r="1479" spans="1:7">
-      <c r="G1479" s="92"/>
+      <c r="G1479" s="93"/>
     </row>
     <row r="1480" spans="1:7">
       <c r="B1480" s="56" t="s">
@@ -41817,10 +41831,10 @@
       <c r="F1480" s="49">
         <v>7.3794322950528984E-2</v>
       </c>
-      <c r="G1480" s="92"/>
+      <c r="G1480" s="93"/>
     </row>
     <row r="1481" spans="1:7">
-      <c r="G1481" s="92"/>
+      <c r="G1481" s="93"/>
     </row>
     <row r="1482" spans="1:7">
       <c r="B1482" s="56" t="s">
@@ -41838,13 +41852,13 @@
       <c r="F1482" s="49">
         <v>6.9194233338070205E-2</v>
       </c>
-      <c r="G1482" s="92"/>
+      <c r="G1482" s="93"/>
     </row>
     <row r="1483" spans="1:7">
       <c r="A1483" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G1483" s="92"/>
+      <c r="G1483" s="93"/>
     </row>
     <row r="1484" spans="1:7">
       <c r="B1484" s="56" t="s">
@@ -41862,12 +41876,12 @@
       <c r="F1484" s="49">
         <v>0.12606495139927365</v>
       </c>
-      <c r="G1484" s="92" t="s">
+      <c r="G1484" s="93" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="1485" spans="1:7" ht="15.75" customHeight="1">
-      <c r="G1485" s="92"/>
+      <c r="G1485" s="93"/>
     </row>
     <row r="1486" spans="1:7">
       <c r="B1486" s="56" t="s">
@@ -41885,10 +41899,10 @@
       <c r="F1486" s="49">
         <v>9.6136058634697874E-2</v>
       </c>
-      <c r="G1486" s="92"/>
+      <c r="G1486" s="93"/>
     </row>
     <row r="1487" spans="1:7">
-      <c r="G1487" s="92"/>
+      <c r="G1487" s="93"/>
     </row>
     <row r="1488" spans="1:7">
       <c r="B1488" s="56" t="s">
@@ -41906,10 +41920,10 @@
       <c r="F1488" s="49">
         <v>9.63627124736815E-2</v>
       </c>
-      <c r="G1488" s="92"/>
+      <c r="G1488" s="93"/>
     </row>
     <row r="1489" spans="2:7">
-      <c r="G1489" s="92"/>
+      <c r="G1489" s="93"/>
     </row>
     <row r="1490" spans="2:7">
       <c r="B1490" s="56" t="s">
@@ -41927,10 +41941,10 @@
       <c r="F1490" s="49">
         <v>7.5837607482681466E-2</v>
       </c>
-      <c r="G1490" s="92"/>
+      <c r="G1490" s="93"/>
     </row>
     <row r="1491" spans="2:7">
-      <c r="G1491" s="92"/>
+      <c r="G1491" s="93"/>
     </row>
     <row r="1492" spans="2:7">
       <c r="B1492" s="56" t="s">
@@ -41948,10 +41962,10 @@
       <c r="F1492" s="49">
         <v>9.2246446529469714E-2</v>
       </c>
-      <c r="G1492" s="92"/>
+      <c r="G1492" s="93"/>
     </row>
     <row r="1493" spans="2:7">
-      <c r="G1493" s="92"/>
+      <c r="G1493" s="93"/>
     </row>
     <row r="1494" spans="2:7">
       <c r="B1494" s="56" t="s">
@@ -41969,7 +41983,7 @@
       <c r="F1494" s="49">
         <v>8.4539913029620009E-2</v>
       </c>
-      <c r="G1494" s="92"/>
+      <c r="G1494" s="93"/>
     </row>
     <row r="1495" spans="2:7">
       <c r="C1495" s="50">
@@ -41988,7 +42002,7 @@
         <f>E1495/C1495</f>
         <v>8.2572826134285446E-2</v>
       </c>
-      <c r="G1495" s="92"/>
+      <c r="G1495" s="93"/>
     </row>
     <row r="1496" spans="2:7">
       <c r="B1496" s="57"/>
@@ -42017,7 +42031,7 @@
       </c>
     </row>
     <row r="1500" spans="2:7">
-      <c r="G1500" s="92"/>
+      <c r="G1500" s="93"/>
     </row>
     <row r="1501" spans="2:7">
       <c r="B1501" s="56" t="s">
@@ -42032,10 +42046,10 @@
       <c r="F1501" s="49">
         <v>0.54271666666666663</v>
       </c>
-      <c r="G1501" s="92"/>
+      <c r="G1501" s="93"/>
     </row>
     <row r="1502" spans="2:7">
-      <c r="G1502" s="92"/>
+      <c r="G1502" s="93"/>
     </row>
     <row r="1503" spans="2:7">
       <c r="B1503" s="56" t="s">
@@ -42050,10 +42064,10 @@
       <c r="F1503" s="49">
         <v>0.52657818181818183</v>
       </c>
-      <c r="G1503" s="92"/>
+      <c r="G1503" s="93"/>
     </row>
     <row r="1504" spans="2:7">
-      <c r="G1504" s="92"/>
+      <c r="G1504" s="93"/>
     </row>
     <row r="1505" spans="1:7">
       <c r="B1505" s="56" t="s">
@@ -42068,10 +42082,10 @@
       <c r="F1505" s="49">
         <v>0.51726551724137926</v>
       </c>
-      <c r="G1505" s="92"/>
+      <c r="G1505" s="93"/>
     </row>
     <row r="1506" spans="1:7">
-      <c r="G1506" s="92"/>
+      <c r="G1506" s="93"/>
     </row>
     <row r="1507" spans="1:7">
       <c r="B1507" s="56" t="s">
@@ -42086,10 +42100,10 @@
       <c r="F1507" s="49">
         <v>0.49431034482758618</v>
       </c>
-      <c r="G1507" s="92"/>
+      <c r="G1507" s="93"/>
     </row>
     <row r="1508" spans="1:7">
-      <c r="G1508" s="92"/>
+      <c r="G1508" s="93"/>
     </row>
     <row r="1509" spans="1:7">
       <c r="B1509" s="56" t="s">
@@ -42104,13 +42118,13 @@
       <c r="F1509" s="49">
         <v>0.53269076923076919</v>
       </c>
-      <c r="G1509" s="92"/>
+      <c r="G1509" s="93"/>
     </row>
     <row r="1510" spans="1:7">
       <c r="A1510" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="G1510" s="92"/>
+      <c r="G1510" s="93"/>
     </row>
     <row r="1511" spans="1:7">
       <c r="B1511" s="56" t="s">
@@ -42125,7 +42139,7 @@
       <c r="F1511" s="49">
         <v>0.56650410958904107</v>
       </c>
-      <c r="G1511" s="92"/>
+      <c r="G1511" s="93"/>
     </row>
     <row r="1512" spans="1:7" s="3" customFormat="1">
       <c r="A1512" s="11" t="s">
@@ -42136,7 +42150,7 @@
       <c r="D1512" s="24"/>
       <c r="E1512" s="24"/>
       <c r="F1512" s="24"/>
-      <c r="G1512" s="92"/>
+      <c r="G1512" s="93"/>
     </row>
     <row r="1513" spans="1:7">
       <c r="B1513" s="56" t="s">
@@ -42151,10 +42165,10 @@
       <c r="F1513" s="49">
         <v>0.61375230769230771</v>
       </c>
-      <c r="G1513" s="92"/>
+      <c r="G1513" s="93"/>
     </row>
     <row r="1514" spans="1:7">
-      <c r="G1514" s="92"/>
+      <c r="G1514" s="93"/>
     </row>
     <row r="1515" spans="1:7">
       <c r="A1515" s="13" t="s">
@@ -42172,12 +42186,12 @@
       <c r="F1515" s="49">
         <v>0.58190365853658532</v>
       </c>
-      <c r="G1515" s="92" t="s">
+      <c r="G1515" s="93" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="1516" spans="1:7">
-      <c r="G1516" s="92"/>
+      <c r="G1516" s="93"/>
     </row>
     <row r="1517" spans="1:7">
       <c r="B1517" s="56" t="s">
@@ -42192,10 +42206,10 @@
       <c r="F1517" s="49">
         <v>0.61942465753424658</v>
       </c>
-      <c r="G1517" s="92"/>
+      <c r="G1517" s="93"/>
     </row>
     <row r="1518" spans="1:7">
-      <c r="G1518" s="92"/>
+      <c r="G1518" s="93"/>
     </row>
     <row r="1519" spans="1:7">
       <c r="B1519" s="56" t="s">
@@ -42210,10 +42224,10 @@
       <c r="F1519" s="49">
         <v>0.62239583333333337</v>
       </c>
-      <c r="G1519" s="92"/>
+      <c r="G1519" s="93"/>
     </row>
     <row r="1520" spans="1:7">
-      <c r="G1520" s="92"/>
+      <c r="G1520" s="93"/>
     </row>
     <row r="1521" spans="1:7">
       <c r="B1521" s="56" t="s">
@@ -42228,7 +42242,7 @@
       <c r="F1521" s="49">
         <v>0.6438560606060606</v>
       </c>
-      <c r="G1521" s="92"/>
+      <c r="G1521" s="93"/>
     </row>
     <row r="1522" spans="1:7">
       <c r="C1522" s="50">
@@ -42247,7 +42261,7 @@
         <f>E1522/C1522</f>
         <v>0.57115679676985187</v>
       </c>
-      <c r="G1522" s="92"/>
+      <c r="G1522" s="93"/>
     </row>
     <row r="1523" spans="1:7">
       <c r="B1523" s="59" t="s">
@@ -42296,13 +42310,13 @@
       <c r="F1528" s="49">
         <v>7.9307297355672796E-2</v>
       </c>
-      <c r="G1528" s="94" t="s">
+      <c r="G1528" s="92" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="1529" spans="1:7">
       <c r="A1529" s="13"/>
-      <c r="G1529" s="92"/>
+      <c r="G1529" s="93"/>
     </row>
     <row r="1530" spans="1:7">
       <c r="B1530" s="56" t="s">
@@ -42320,7 +42334,7 @@
       <c r="F1530" s="49">
         <v>6.4801526861451464E-2</v>
       </c>
-      <c r="G1530" s="92"/>
+      <c r="G1530" s="93"/>
     </row>
     <row r="1531" spans="1:7">
       <c r="B1531" s="56"/>
@@ -42328,7 +42342,7 @@
       <c r="D1531" s="47"/>
       <c r="E1531" s="48"/>
       <c r="F1531" s="49"/>
-      <c r="G1531" s="92"/>
+      <c r="G1531" s="93"/>
     </row>
     <row r="1532" spans="1:7">
       <c r="B1532" s="56" t="s">
@@ -42346,10 +42360,10 @@
       <c r="F1532" s="49">
         <v>6.9848971540744806E-2</v>
       </c>
-      <c r="G1532" s="92"/>
+      <c r="G1532" s="93"/>
     </row>
     <row r="1533" spans="1:7">
-      <c r="G1533" s="92"/>
+      <c r="G1533" s="93"/>
     </row>
     <row r="1534" spans="1:7">
       <c r="B1534" s="56" t="s">
@@ -42367,10 +42381,10 @@
       <c r="F1534" s="49">
         <v>6.3009066681170456E-2</v>
       </c>
-      <c r="G1534" s="92"/>
+      <c r="G1534" s="93"/>
     </row>
     <row r="1535" spans="1:7">
-      <c r="G1535" s="92"/>
+      <c r="G1535" s="93"/>
     </row>
     <row r="1536" spans="1:7">
       <c r="B1536" s="56" t="s">
@@ -42388,10 +42402,10 @@
       <c r="F1536" s="49">
         <v>7.3794321236559129E-2</v>
       </c>
-      <c r="G1536" s="92"/>
+      <c r="G1536" s="93"/>
     </row>
     <row r="1537" spans="2:7">
-      <c r="G1537" s="92"/>
+      <c r="G1537" s="93"/>
     </row>
     <row r="1538" spans="2:7">
       <c r="B1538" s="56" t="s">
@@ -42409,10 +42423,10 @@
       <c r="F1538" s="49">
         <v>6.9194232884826942E-2</v>
       </c>
-      <c r="G1538" s="92"/>
+      <c r="G1538" s="93"/>
     </row>
     <row r="1539" spans="2:7">
-      <c r="G1539" s="92"/>
+      <c r="G1539" s="93"/>
     </row>
     <row r="1540" spans="2:7">
       <c r="B1540" s="56" t="s">
@@ -42430,10 +42444,10 @@
       <c r="F1540" s="49">
         <v>0.12606495118384126</v>
       </c>
-      <c r="G1540" s="92"/>
+      <c r="G1540" s="93"/>
     </row>
     <row r="1541" spans="2:7">
-      <c r="G1541" s="92"/>
+      <c r="G1541" s="93"/>
     </row>
     <row r="1542" spans="2:7">
       <c r="B1542" s="56" t="s">
@@ -42451,10 +42465,10 @@
       <c r="F1542" s="49">
         <v>9.613605884523152E-2</v>
       </c>
-      <c r="G1542" s="92"/>
+      <c r="G1542" s="93"/>
     </row>
     <row r="1543" spans="2:7">
-      <c r="G1543" s="92"/>
+      <c r="G1543" s="93"/>
     </row>
     <row r="1544" spans="2:7">
       <c r="B1544" s="56" t="s">
@@ -42472,10 +42486,10 @@
       <c r="F1544" s="49">
         <v>9.6362712623097563E-2</v>
       </c>
-      <c r="G1544" s="92"/>
+      <c r="G1544" s="93"/>
     </row>
     <row r="1545" spans="2:7">
-      <c r="G1545" s="92"/>
+      <c r="G1545" s="93"/>
     </row>
     <row r="1546" spans="2:7">
       <c r="B1546" s="56" t="s">
@@ -42493,10 +42507,10 @@
       <c r="F1546" s="49">
         <v>7.5837604617604609E-2</v>
       </c>
-      <c r="G1546" s="92"/>
+      <c r="G1546" s="93"/>
     </row>
     <row r="1547" spans="2:7">
-      <c r="G1547" s="92"/>
+      <c r="G1547" s="93"/>
     </row>
     <row r="1548" spans="2:7">
       <c r="B1548" s="56" t="s">
@@ -42514,10 +42528,10 @@
       <c r="F1548" s="49">
         <v>9.2246448816272086E-2</v>
       </c>
-      <c r="G1548" s="92"/>
+      <c r="G1548" s="93"/>
     </row>
     <row r="1549" spans="2:7">
-      <c r="G1549" s="92"/>
+      <c r="G1549" s="93"/>
     </row>
     <row r="1550" spans="2:7">
       <c r="B1550" s="56" t="s">
@@ -42535,7 +42549,7 @@
       <c r="F1550" s="49">
         <v>8.4539912218603991E-2</v>
       </c>
-      <c r="G1550" s="92"/>
+      <c r="G1550" s="93"/>
     </row>
     <row r="1551" spans="2:7">
       <c r="C1551" s="50">
@@ -42554,7 +42568,7 @@
         <f>E1551/C1551</f>
         <v>8.0321962523961357E-2</v>
       </c>
-      <c r="G1551" s="92"/>
+      <c r="G1551" s="93"/>
     </row>
     <row r="1552" spans="2:7">
       <c r="B1552" s="57"/>
@@ -42581,7 +42595,7 @@
       <c r="F1555" s="49">
         <v>0.5675</v>
       </c>
-      <c r="G1555" s="94" t="s">
+      <c r="G1555" s="92" t="s">
         <v>311</v>
       </c>
     </row>
@@ -42589,7 +42603,7 @@
       <c r="A1556" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="G1556" s="92"/>
+      <c r="G1556" s="93"/>
     </row>
     <row r="1557" spans="1:7">
       <c r="B1557" s="56" t="s">
@@ -42604,7 +42618,7 @@
       <c r="F1557" s="49">
         <v>0.54269999999999996</v>
       </c>
-      <c r="G1557" s="92"/>
+      <c r="G1557" s="93"/>
     </row>
     <row r="1558" spans="1:7" s="3" customFormat="1">
       <c r="A1558" s="11" t="s">
@@ -42615,7 +42629,7 @@
       <c r="D1558" s="24"/>
       <c r="E1558" s="24"/>
       <c r="F1558" s="24"/>
-      <c r="G1558" s="92"/>
+      <c r="G1558" s="93"/>
     </row>
     <row r="1559" spans="1:7">
       <c r="B1559" s="56" t="s">
@@ -42630,10 +42644,10 @@
       <c r="F1559" s="49">
         <v>0.52657777777777781</v>
       </c>
-      <c r="G1559" s="92"/>
+      <c r="G1559" s="93"/>
     </row>
     <row r="1560" spans="1:7">
-      <c r="G1560" s="92"/>
+      <c r="G1560" s="93"/>
     </row>
     <row r="1561" spans="1:7">
       <c r="A1561" s="13" t="s">
@@ -42651,10 +42665,10 @@
       <c r="F1561" s="49">
         <v>0.51726666666666665</v>
       </c>
-      <c r="G1561" s="92"/>
+      <c r="G1561" s="93"/>
     </row>
     <row r="1562" spans="1:7">
-      <c r="G1562" s="92"/>
+      <c r="G1562" s="93"/>
     </row>
     <row r="1563" spans="1:7">
       <c r="B1563" s="56" t="s">
@@ -42669,10 +42683,10 @@
       <c r="F1563" s="49">
         <v>0.49447716535433073</v>
       </c>
-      <c r="G1563" s="92"/>
+      <c r="G1563" s="93"/>
     </row>
     <row r="1564" spans="1:7">
-      <c r="G1564" s="92"/>
+      <c r="G1564" s="93"/>
     </row>
     <row r="1565" spans="1:7">
       <c r="B1565" s="56" t="s">
@@ -42687,10 +42701,10 @@
       <c r="F1565" s="49">
         <v>0.53269012738853505</v>
       </c>
-      <c r="G1565" s="92"/>
+      <c r="G1565" s="93"/>
     </row>
     <row r="1566" spans="1:7">
-      <c r="G1566" s="92"/>
+      <c r="G1566" s="93"/>
     </row>
     <row r="1567" spans="1:7">
       <c r="B1567" s="56" t="s">
@@ -42705,10 +42719,10 @@
       <c r="F1567" s="49">
         <v>0.56650377358490567</v>
       </c>
-      <c r="G1567" s="92"/>
+      <c r="G1567" s="93"/>
     </row>
     <row r="1568" spans="1:7">
-      <c r="G1568" s="92"/>
+      <c r="G1568" s="93"/>
     </row>
     <row r="1569" spans="2:7">
       <c r="B1569" s="56" t="s">
@@ -42723,10 +42737,10 @@
       <c r="F1569" s="49">
         <v>0.61375290889132816</v>
       </c>
-      <c r="G1569" s="92"/>
+      <c r="G1569" s="93"/>
     </row>
     <row r="1570" spans="2:7">
-      <c r="G1570" s="92"/>
+      <c r="G1570" s="93"/>
     </row>
     <row r="1571" spans="2:7">
       <c r="B1571" s="56" t="s">
@@ -42741,10 +42755,10 @@
       <c r="F1571" s="49">
         <v>0.58190315934065939</v>
       </c>
-      <c r="G1571" s="92"/>
+      <c r="G1571" s="93"/>
     </row>
     <row r="1572" spans="2:7">
-      <c r="G1572" s="92"/>
+      <c r="G1572" s="93"/>
     </row>
     <row r="1573" spans="2:7">
       <c r="B1573" s="56" t="s">
@@ -42759,10 +42773,10 @@
       <c r="F1573" s="49">
         <v>0.61942523540489647</v>
       </c>
-      <c r="G1573" s="92"/>
+      <c r="G1573" s="93"/>
     </row>
     <row r="1574" spans="2:7">
-      <c r="G1574" s="92"/>
+      <c r="G1574" s="93"/>
     </row>
     <row r="1575" spans="2:7">
       <c r="B1575" s="56" t="s">
@@ -42777,10 +42791,10 @@
       <c r="F1575" s="49">
         <v>0.62239669811320752</v>
       </c>
-      <c r="G1575" s="92"/>
+      <c r="G1575" s="93"/>
     </row>
     <row r="1576" spans="2:7">
-      <c r="G1576" s="92"/>
+      <c r="G1576" s="93"/>
     </row>
     <row r="1577" spans="2:7">
       <c r="B1577" s="56" t="s">
@@ -42795,7 +42809,7 @@
       <c r="F1577" s="49">
         <v>0.92400857142857129</v>
       </c>
-      <c r="G1577" s="92"/>
+      <c r="G1577" s="93"/>
     </row>
     <row r="1578" spans="2:7">
       <c r="C1578" s="50">
@@ -42908,16 +42922,33 @@
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="G1555:G1577"/>
-    <mergeCell ref="G1528:G1551"/>
-    <mergeCell ref="G1204:G1227"/>
-    <mergeCell ref="G1235:G1258"/>
-    <mergeCell ref="G1262:G1285"/>
-    <mergeCell ref="G1293:G1316"/>
-    <mergeCell ref="G1324:G1347"/>
-    <mergeCell ref="G1353:G1376"/>
-    <mergeCell ref="G1472:G1495"/>
-    <mergeCell ref="G1499:G1522"/>
+    <mergeCell ref="G317:G340"/>
+    <mergeCell ref="G344:G367"/>
+    <mergeCell ref="G375:G398"/>
+    <mergeCell ref="G406:G429"/>
+    <mergeCell ref="G253:G276"/>
+    <mergeCell ref="G284:G307"/>
+    <mergeCell ref="G165:G188"/>
+    <mergeCell ref="G195:G218"/>
+    <mergeCell ref="G222:G245"/>
+    <mergeCell ref="G1415:G1438"/>
+    <mergeCell ref="G1442:G1465"/>
+    <mergeCell ref="G1384:G1407"/>
+    <mergeCell ref="G1088:G1111"/>
+    <mergeCell ref="G1115:G1138"/>
+    <mergeCell ref="G1146:G1169"/>
+    <mergeCell ref="G1177:G1200"/>
+    <mergeCell ref="G1030:G1053"/>
+    <mergeCell ref="G1057:G1080"/>
+    <mergeCell ref="G732:G755"/>
+    <mergeCell ref="G759:G782"/>
+    <mergeCell ref="G790:G813"/>
+    <mergeCell ref="G821:G844"/>
+    <mergeCell ref="G13:G36"/>
+    <mergeCell ref="G44:G67"/>
+    <mergeCell ref="G75:G98"/>
+    <mergeCell ref="G106:G129"/>
+    <mergeCell ref="G133:G156"/>
     <mergeCell ref="G999:G1022"/>
     <mergeCell ref="G437:G460"/>
     <mergeCell ref="G464:G487"/>
@@ -42934,33 +42965,16 @@
     <mergeCell ref="G910:G933"/>
     <mergeCell ref="G941:G964"/>
     <mergeCell ref="G968:G991"/>
-    <mergeCell ref="G13:G36"/>
-    <mergeCell ref="G44:G67"/>
-    <mergeCell ref="G75:G98"/>
-    <mergeCell ref="G106:G129"/>
-    <mergeCell ref="G133:G156"/>
-    <mergeCell ref="G165:G188"/>
-    <mergeCell ref="G195:G218"/>
-    <mergeCell ref="G222:G245"/>
-    <mergeCell ref="G1415:G1438"/>
-    <mergeCell ref="G1442:G1465"/>
-    <mergeCell ref="G1384:G1407"/>
-    <mergeCell ref="G1088:G1111"/>
-    <mergeCell ref="G1115:G1138"/>
-    <mergeCell ref="G1146:G1169"/>
-    <mergeCell ref="G1177:G1200"/>
-    <mergeCell ref="G1030:G1053"/>
-    <mergeCell ref="G1057:G1080"/>
-    <mergeCell ref="G732:G755"/>
-    <mergeCell ref="G759:G782"/>
-    <mergeCell ref="G790:G813"/>
-    <mergeCell ref="G821:G844"/>
-    <mergeCell ref="G317:G340"/>
-    <mergeCell ref="G344:G367"/>
-    <mergeCell ref="G375:G398"/>
-    <mergeCell ref="G406:G429"/>
-    <mergeCell ref="G253:G276"/>
-    <mergeCell ref="G284:G307"/>
+    <mergeCell ref="G1555:G1577"/>
+    <mergeCell ref="G1528:G1551"/>
+    <mergeCell ref="G1204:G1227"/>
+    <mergeCell ref="G1235:G1258"/>
+    <mergeCell ref="G1262:G1285"/>
+    <mergeCell ref="G1293:G1316"/>
+    <mergeCell ref="G1324:G1347"/>
+    <mergeCell ref="G1353:G1376"/>
+    <mergeCell ref="G1472:G1495"/>
+    <mergeCell ref="G1499:G1522"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
   <pageSetup scale="85" orientation="portrait" r:id="rId1"/>
